--- a/sheet/cards_s9.xlsx
+++ b/sheet/cards_s9.xlsx
@@ -5,13 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="メガミ" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="新幕シーズン9" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="マスタ" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="258">
   <si>
     <t xml:space="preserve">メガミID</t>
   </si>
@@ -118,6 +121,9 @@
   </si>
   <si>
     <t xml:space="preserve">ミソラ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">弓</t>
   </si>
   <si>
     <t xml:space="preserve">25</t>
@@ -1767,7 +1773,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2007,6 +2013,174 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="新幕シーズン2"/>
+      <sheetName val="新幕シーズン3"/>
+      <sheetName val="新幕シーズン4"/>
+      <sheetName val="新幕シーズン5_プレ更新"/>
+      <sheetName val="新幕シーズン5"/>
+      <sheetName val="新幕シーズン6"/>
+      <sheetName val="新幕シーズン6-2"/>
+      <sheetName val="新幕シーズン7"/>
+      <sheetName val="新幕シーズン7-2"/>
+      <sheetName val="新幕シーズン8"/>
+      <sheetName val="新幕シーズン8-2"/>
+      <sheetName val="メガミ"/>
+      <sheetName val="マスタ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>通常札</v>
+          </cell>
+        </row>
+        <row r="1">
+          <cell r="D1" t="str">
+            <v>攻撃</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>切札</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="D2" t="str">
+            <v>行動</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>追加札</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="D3" t="str">
+            <v>不定</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>transform</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4" t="str">
+            <v>対応</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>嵐</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5" t="str">
+            <v>全力</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>兵員</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>付与</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>構想</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>attack</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>normal</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>action</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>special</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9" t="str">
+            <v>variable</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>extra</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10" t="str">
+            <v>reaction</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>transform</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11" t="str">
+            <v>fullpower</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>storm</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12" t="str">
+            <v>enhance</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>troop</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>plan</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -2014,12 +2188,12 @@
   </sheetPr>
   <dimension ref="A1:AJ962"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="topRight" activeCell="S1" activeCellId="0" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X2" activeCellId="0" sqref="X2:X3"/>
+      <selection pane="bottomRight" activeCell="AJ4" activeCellId="0" sqref="AJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2194,13 +2368,15 @@
       <c r="D3" s="3"/>
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="9"/>
       <c r="K3" s="8"/>
       <c r="L3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -2217,7 +2393,7 @@
       </c>
       <c r="X3" s="10" t="str">
         <f aca="false">"'"&amp;A3&amp;"': { name: '"&amp;B3&amp;"', nameZh: '"&amp;C3&amp;"', nameZhG1: '"&amp;D3&amp;"', nameKo: '"&amp;E3&amp;"', nameEn: '"&amp;F3&amp;"', symbol: '"&amp;G3&amp;"', symbolZh: '"&amp;H3&amp;"', symbolZhG1: '"&amp;I3&amp;"', symbolKo: '"&amp;J3&amp;"', symbolEn: '"&amp;K3&amp;"'"&amp;IF(N3&lt;&gt;"",", base: '"&amp;M3&amp;"', anotherID: '"&amp;N3&amp;"'","")&amp;IF(O3="○", ", notExistCardSets: ['na-s2'] as CardSet[]", IF(P3="○", ", notExistCardSets: ['na-s2', 'na-s3'] as CardSet[]", IF(Q3="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre'] as CardSet[]", IF(R3="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5'] as CardSet[]", IF(S3="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2'] as CardSet[]", IF(T3="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2', 'na-s7'] as CardSet[]", IF(U3="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2', 'na-s7', 'na-s7-2'] as CardSet[]", IF(V3="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2', 'na-s7', 'na-s7-2', 'na-s8'] as CardSet[]", IF(W3="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2', 'na-s7', 'na-s7-2', 'na-s8', 'na-s8-2'] as CardSet[]", ""))))))))) &amp; ", tarotNo: '" &amp; L3 &amp; "'},"</f>
-        <v>'misora': { name: 'ミソラ', nameZh: '', nameZhG1: '', nameKo: '', nameEn: '', symbol: '', symbolZh: '', symbolZhG1: '', symbolKo: '', symbolEn: '', notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2', 'na-s7', 'na-s7-2', 'na-s8', 'na-s8-2'] as CardSet[], tarotNo: '25'},</v>
+        <v>'misora': { name: 'ミソラ', nameZh: '', nameZhG1: '', nameKo: '', nameEn: '', symbol: '弓', symbolZh: '', symbolZhG1: '', symbolKo: '', symbolEn: '', notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre', 'na-s5', 'na-s6', 'na-s6-2', 'na-s7', 'na-s7-2', 'na-s8', 'na-s8-2'] as CardSet[], tarotNo: '25'},</v>
       </c>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
@@ -7159,7 +7335,7 @@
       <c r="V133" s="3"/>
       <c r="W133" s="3"/>
       <c r="X133" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Y133" s="5"/>
       <c r="Z133" s="5"/>
@@ -7199,7 +7375,7 @@
       <c r="V134" s="3"/>
       <c r="W134" s="3"/>
       <c r="X134" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Y134" s="5"/>
       <c r="Z134" s="5"/>
@@ -7239,7 +7415,7 @@
       <c r="V135" s="3"/>
       <c r="W135" s="3"/>
       <c r="X135" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Y135" s="5"/>
       <c r="Z135" s="5"/>
@@ -7279,7 +7455,7 @@
       <c r="V136" s="3"/>
       <c r="W136" s="3"/>
       <c r="X136" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Y136" s="5"/>
       <c r="Z136" s="5"/>
@@ -17720,12 +17896,12 @@
   </sheetPr>
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AQ8" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AR2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AQ1" activeCellId="0" sqref="AQ1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="AV22" activeCellId="1" sqref="X2:X3 AV22"/>
+      <selection pane="topRight" activeCell="AR1" activeCellId="0" sqref="AR1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AT7" activeCellId="0" sqref="AT7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17768,22 +17944,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>2</v>
@@ -17792,7 +17968,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>4</v>
@@ -17801,158 +17977,158 @@
         <v>5</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="14" t="s">
-        <v>49</v>
-      </c>
       <c r="X1" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z1" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA1" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB1" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC1" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD1" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE1" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF1" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG1" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH1" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI1" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AJ1" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK1" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AL1" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AM1" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AN1" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AO1" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AP1" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AQ1" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AR1" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AS1" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AT1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U2" s="20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W2" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
@@ -17962,33 +18138,33 @@
       <c r="AC2" s="21"/>
       <c r="AD2" s="22"/>
       <c r="AE2" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF2" s="23"/>
       <c r="AG2" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH2" s="25"/>
       <c r="AI2" s="26"/>
       <c r="AJ2" s="21"/>
       <c r="AK2" s="27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL2" s="21"/>
       <c r="AM2" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AN2" s="21"/>
       <c r="AO2" s="21"/>
       <c r="AP2" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AQ2" s="29"/>
       <c r="AR2" s="29"/>
       <c r="AS2" s="29"/>
       <c r="AT2" s="30" t="str">
-        <f aca="false">IF( A2 = "", "", "'" &amp; A2 &amp; "': {megami: '" &amp; B2 &amp; "'" &amp; IF( C2 &lt;&gt; "", ", anotherID: '" &amp; C2 &amp; "', replace: '" &amp; D2 &amp; "'", "" ) &amp; ", name: '" &amp; SUBSTITUTE( E2, "'", "\'" ) &amp; "', nameEn: '" &amp; SUBSTITUTE( K2, "'", "\'" ) &amp; "', nameZh: '" &amp; SUBSTITUTE( G2, "'", "\'" ) &amp; "', nameZhG1: '" &amp; SUBSTITUTE( H2, "'", "\'" )&amp; "', nameKo: '" &amp; SUBSTITUTE( J2, "'", "\'" ) &amp; "', ruby: '" &amp; F2 &amp; "', rubyEn: '" &amp; L2 &amp; "', baseType: '" &amp; VLOOKUP( M2, マスタ!$A$1:$B$99, 2, 0 ) &amp; "'" &amp; IF( N2 = "○", ", extra: true", "" ) &amp; IF( O2 &lt;&gt; "", ", extraFrom: '" &amp; O2 &amp; "'", "" ) &amp; IF( P2 &lt;&gt; "", ", exchangabaleTo: '" &amp; P2 &amp; "'", "" ) &amp; IF( Q2 = "○", ", poison: true", "" ) &amp;IF(R2&lt;&gt;"", ", type: '"&amp;VLOOKUP(R2,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S2&lt;&gt;"",", subType: '"&amp;VLOOKUP(S2,マスタ!$D$1:$E$99,2,0)&amp;"'","") &amp; IF( T2 &lt;&gt; "", ", range: '" &amp; T2 &amp; "'" &amp; IF( U2 &lt;&gt; "", ", rangeOpened: '" &amp; U2 &amp; "'", "" ), "" ) &amp; IF( V2 &lt;&gt; "", ", damage: '" &amp; V2 &amp; "'" &amp; IF( OR( W2 &lt;&gt; "", AI2 &lt;&gt; "" ), ", damageOpened: '" &amp; W2 &amp; "'", "" ), "" ) &amp; IF( X2 &lt;&gt; "", ", capacity: '" &amp; X2 &amp; "'", "" ) &amp; IF( Y2 &lt;&gt; "", ", cost: '" &amp; Y2 &amp; "'", "" ) &amp; ", text: '" &amp; SUBSTITUTE( SUBSTITUTE( AE2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ) &amp; "', textZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AG2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AI2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )&amp; "', textKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AK2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AM2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'" &amp; IF( OR( W2 &lt;&gt; "", AI2 &lt;&gt; "" ), ", textOpened: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AO2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AP2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )  &amp; "', textOpenedZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AQ2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AR2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AS2, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'", "" ) &amp; IF( Z2 = "○", ", sealable: true", "" ) &amp; IF( AA2 = "○", ", removable: true", "" ) &amp; "}," )</f>
-        <v>'06-yukihi-o-n-2': {megami: 'yukihi', name: 'しこみび / ねこだまし', nameEn: 'Preparation / Fake Out', nameZh: '预演 / 猫骗', nameZhG1: '匍匐/猫跳', nameKo: '숨긴 불꽃 / 손뼉치기', ruby: '', rubyEn: '', baseType: 'normal', type: 'attack', range: '5-6', rangeOpened: '0-2', damage: '1/1', damageOpened: '1/1', text: '【攻撃後】このカードを手札に戻し、傘の開閉を行う。 ', textZh: '【攻击后】将此牌置入你的手牌，进行一次伞的开合操作。', textZhG1: '', textKo: '【공격후】이 카드를 손패로 되돌리고, 우산의 개폐를 행한다.', textEn: 'After Attack: Put this card into your hand. Open your umbrella. If it was already open, close it instead.', textOpened: '', textOpenedZh: '（无）', textOpenedZhG1: '', textOpenedKo: '', textOpenedEn: ''},</v>
+        <f aca="false">IF(A2="", "","'"&amp;A2&amp;"': {megami: '"&amp;B2&amp;"'"&amp;IF(C2&lt;&gt;"",", anotherID: '"&amp;C2&amp;"', replace: '"&amp;D2&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E2,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K2,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G2,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H2,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J2,"'","\'")&amp;"', ruby: '"&amp;F2&amp;"', rubyEn: '"&amp;L2&amp;IF(I2&lt;&gt;"", "', rubyZh: '"&amp;I2, "")&amp;"', baseType: '"&amp;VLOOKUP(M2,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N2="○",", extra: true","")&amp;IF(O2&lt;&gt;"",", extraFrom: '"&amp;O2&amp;"'","")&amp;IF(P2&lt;&gt;"",", exchangableTo: '"&amp;P2&amp;"'","")&amp;IF(Q2="○",", poison: true","")&amp;IF(R2&lt;&gt;"", ", type: '"&amp;VLOOKUP(R2,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S2&lt;&gt;"",", subType: '"&amp;VLOOKUP(S2,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T2&lt;&gt;"",", range: '"&amp;T2&amp;"'","")&amp;IF(V2&lt;&gt;"",", damage: '"&amp;V2&amp;"'","")&amp;IF(X2&lt;&gt;"",", capacity: '"&amp;X2&amp;"'","")&amp;IF(Y2&lt;&gt;"",", growth: "&amp;Y2&amp;"","")&amp;IF(Z2&lt;&gt;"",", cost: '"&amp;Z2&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE2, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF2&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH2&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ2&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL2&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN2&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB2="○",", sealable: true","")&amp;IF(AC2="○",", removable: true","")&amp;IF(AA2="○",", lie: true","")&amp;IF(AD2="○",", investable: true","")&amp;"},")</f>
+        <v>'06-yukihi-o-n-2': {megami: 'yukihi', name: 'しこみび / ねこだまし', nameEn: 'Preparation / Fake Out', nameZh: '预演 / 猫骗', nameZhG1: '匍匐/猫跳', nameKo: '숨긴 불꽃 / 손뼉치기', ruby: '', rubyEn: '', baseType: 'normal', type: 'attack', range: '5-6', damage: '1/1', text: '【攻撃後】このカードを手札に戻し、傘の開閉を行う。 ', textZh: '【攻击后】将此牌置入你的手牌，进行一次伞的开合操作。', textZhG1: '', textKo: '【공격후】이 카드를 손패로 되돌리고, 우산의 개폐를 행한다.', textEn: 'After Attack: Put this card into your hand. Open your umbrella. If it was already open, close it instead.'},</v>
       </c>
       <c r="AU2" s="31" t="str">
         <f aca="false">IF($A2&lt;&gt;"", "    /** 《"&amp;$E2&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A2, 3, 1)="-", RIGHT($A2,LEN($A2)-3), $A2)), "-", "_")&amp;": TCardId = '"&amp;$A2&amp;"';", "")</f>
@@ -18978,101 +19154,101 @@
     </row>
     <row r="3" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S3" s="3"/>
       <c r="T3" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="U3" s="20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="W3" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AA3" s="3"/>
       <c r="AB3" s="21"/>
       <c r="AC3" s="21"/>
       <c r="AD3" s="22"/>
       <c r="AE3" s="21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF3" s="23"/>
       <c r="AG3" s="21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AH3" s="25"/>
       <c r="AI3" s="21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ3" s="21"/>
       <c r="AK3" s="21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL3" s="21"/>
       <c r="AM3" s="21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AN3" s="21"/>
       <c r="AO3" s="21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AP3" s="21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AQ3" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AR3" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AS3" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AT3" s="30" t="str">
-        <f aca="false">IF( A3 = "", "", "'" &amp; A3 &amp; "': {megami: '" &amp; B3 &amp; "'" &amp; IF( C3 &lt;&gt; "", ", anotherID: '" &amp; C3 &amp; "', replace: '" &amp; D3 &amp; "'", "" ) &amp; ", name: '" &amp; SUBSTITUTE( E3, "'", "\'" ) &amp; "', nameEn: '" &amp; SUBSTITUTE( K3, "'", "\'" ) &amp; "', nameZh: '" &amp; SUBSTITUTE( G3, "'", "\'" ) &amp; "', nameZhG1: '" &amp; SUBSTITUTE( H3, "'", "\'" )&amp; "', nameKo: '" &amp; SUBSTITUTE( J3, "'", "\'" ) &amp; "', ruby: '" &amp; F3 &amp; "', rubyEn: '" &amp; L3 &amp; "', baseType: '" &amp; VLOOKUP( M3, マスタ!$A$1:$B$99, 2, 0 ) &amp; "'" &amp; IF( N3 = "○", ", extra: true", "" ) &amp; IF( O3 &lt;&gt; "", ", extraFrom: '" &amp; O3 &amp; "'", "" ) &amp; IF( P3 &lt;&gt; "", ", exchangabaleTo: '" &amp; P3 &amp; "'", "" ) &amp; IF( Q3 = "○", ", poison: true", "" ) &amp;IF(R3&lt;&gt;"", ", type: '"&amp;VLOOKUP(R3,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S3&lt;&gt;"",", subType: '"&amp;VLOOKUP(S3,マスタ!$D$1:$E$99,2,0)&amp;"'","") &amp; IF( T3 &lt;&gt; "", ", range: '" &amp; T3 &amp; "'" &amp; IF( U3 &lt;&gt; "", ", rangeOpened: '" &amp; U3 &amp; "'", "" ), "" ) &amp; IF( V3 &lt;&gt; "", ", damage: '" &amp; V3 &amp; "'" &amp; IF( OR( W3 &lt;&gt; "", AI3 &lt;&gt; "" ), ", damageOpened: '" &amp; W3 &amp; "'", "" ), "" ) &amp; IF( X3 &lt;&gt; "", ", capacity: '" &amp; X3 &amp; "'", "" ) &amp; IF( Y3 &lt;&gt; "", ", cost: '" &amp; Y3 &amp; "'", "" ) &amp; ", text: '" &amp; SUBSTITUTE( SUBSTITUTE( AE3, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ) &amp; "', textZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AG3, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AI3, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )&amp; "', textKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AK3, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AM3, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'" &amp; IF( OR( W3 &lt;&gt; "", AI3 &lt;&gt; "" ), ", textOpened: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AO3, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AP3, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )  &amp; "', textOpenedZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AQ3, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AR3, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AS3, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'", "" ) &amp; IF( Z3 = "○", ", sealable: true", "" ) &amp; IF( AA3 = "○", ", removable: true", "" ) &amp; "}," )</f>
-        <v>'06-yukihi-o-s-1': {megami: 'yukihi', name: 'はらりゆき', nameEn: 'Gentle Snow', nameZh: '纷扬如雪', nameZhG1: '纷扬如雪', nameKo: '흩날리는 눈꽃', ruby: '', rubyEn: '', baseType: 'special', type: 'attack', range: '4-5', rangeOpened: '0-2', damage: '3/1', damageOpened: '0/0', text: '【攻撃後】あなたは集中力を1得る。', textZh: '【攻击后】你获得1点集中力。', textZhG1: '【攻击后】你获得1点集中力。', textKo: '【공격후】당신은 집중력을 1 얻는다.', textEn: 'After Attack: Gain 1 Vigor.', textOpened: '----\n【即再起】あなたが傘の開閉を行う。 ', textOpenedZh: '----\n【即再起】进行一次伞的开合操作。', textOpenedZhG1: '无 \n----\n【即再起】进行伞的开合操作', textOpenedKo: '----\n【즉재기】당신이 우산의 개폐를 행한다.', textOpenedEn: '----\nImmediate Resurgence: You open or close your umbrella.'},</v>
+        <f aca="false">IF(A3="", "","'"&amp;A3&amp;"': {megami: '"&amp;B3&amp;"'"&amp;IF(C3&lt;&gt;"",", anotherID: '"&amp;C3&amp;"', replace: '"&amp;D3&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E3,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K3,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G3,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H3,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J3,"'","\'")&amp;"', ruby: '"&amp;F3&amp;"', rubyEn: '"&amp;L3&amp;IF(I3&lt;&gt;"", "', rubyZh: '"&amp;I3, "")&amp;"', baseType: '"&amp;VLOOKUP(M3,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N3="○",", extra: true","")&amp;IF(O3&lt;&gt;"",", extraFrom: '"&amp;O3&amp;"'","")&amp;IF(P3&lt;&gt;"",", exchangableTo: '"&amp;P3&amp;"'","")&amp;IF(Q3="○",", poison: true","")&amp;IF(R3&lt;&gt;"", ", type: '"&amp;VLOOKUP(R3,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S3&lt;&gt;"",", subType: '"&amp;VLOOKUP(S3,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T3&lt;&gt;"",", range: '"&amp;T3&amp;"'","")&amp;IF(V3&lt;&gt;"",", damage: '"&amp;V3&amp;"'","")&amp;IF(X3&lt;&gt;"",", capacity: '"&amp;X3&amp;"'","")&amp;IF(Y3&lt;&gt;"",", growth: "&amp;Y3&amp;"","")&amp;IF(Z3&lt;&gt;"",", cost: '"&amp;Z3&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE3, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF3&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH3&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ3&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL3&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN3&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB3="○",", sealable: true","")&amp;IF(AC3="○",", removable: true","")&amp;IF(AA3="○",", lie: true","")&amp;IF(AD3="○",", investable: true","")&amp;"},")</f>
+        <v>'06-yukihi-o-s-1': {megami: 'yukihi', name: 'はらりゆき', nameEn: 'Gentle Snow', nameZh: '纷扬如雪', nameZhG1: '纷扬如雪', nameKo: '흩날리는 눈꽃', ruby: '', rubyEn: '', baseType: 'special', type: 'attack', range: '4-5', damage: '3/1', cost: '2', text: '【攻撃後】あなたは集中力を1得る。', textZh: '【攻击后】你获得1点集中力。', textZhG1: '【攻击后】你获得1点集中力。', textKo: '【공격후】당신은 집중력을 1 얻는다.', textEn: 'After Attack: Gain 1 Vigor.'},</v>
       </c>
       <c r="AU3" s="31" t="str">
         <f aca="false">IF($A3&lt;&gt;"", "    /** 《"&amp;$E3&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A3, 3, 1)="-", RIGHT($A3,LEN($A3)-3), $A3)), "-", "_")&amp;": TCardId = '"&amp;$A3&amp;"';", "")</f>
@@ -20062,62 +20238,62 @@
     </row>
     <row r="4" s="33" customFormat="true" ht="62.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F4" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="34" t="s">
-        <v>112</v>
-      </c>
       <c r="H4" s="34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I4" s="35"/>
       <c r="J4" s="34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K4" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L4" s="34"/>
       <c r="M4" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N4" s="34"/>
       <c r="O4" s="34"/>
       <c r="P4" s="34"/>
       <c r="Q4" s="34"/>
       <c r="R4" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S4" s="34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="T4" s="34"/>
       <c r="U4" s="37"/>
       <c r="V4" s="34"/>
       <c r="W4" s="37"/>
       <c r="X4" s="34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Y4" s="34"/>
       <c r="Z4" s="34"/>
       <c r="AA4" s="34"/>
       <c r="AE4" s="38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF4" s="39"/>
       <c r="AG4" s="40"/>
@@ -20133,7 +20309,7 @@
       <c r="AR4" s="43"/>
       <c r="AS4" s="43"/>
       <c r="AT4" s="30" t="str">
-        <f aca="false">IF( A4 = "", "", "'" &amp; A4 &amp; "': {megami: '" &amp; B4 &amp; "'" &amp; IF( C4 &lt;&gt; "", ", anotherID: '" &amp; C4 &amp; "', replace: '" &amp; D4 &amp; "'", "" ) &amp; ", name: '" &amp; SUBSTITUTE( E4, "'", "\'" ) &amp; "', nameEn: '" &amp; SUBSTITUTE( K4, "'", "\'" ) &amp; "', nameZh: '" &amp; SUBSTITUTE( G4, "'", "\'" ) &amp; "', nameZhG1: '" &amp; SUBSTITUTE( H4, "'", "\'" )&amp; "', nameKo: '" &amp; SUBSTITUTE( J4, "'", "\'" ) &amp; "', ruby: '" &amp; F4 &amp; "', rubyEn: '" &amp; L4 &amp; "', baseType: '" &amp; VLOOKUP( M4, マスタ!$A$1:$B$99, 2, 0 ) &amp; "'" &amp; IF( N4 = "○", ", extra: true", "" ) &amp; IF( O4 &lt;&gt; "", ", extraFrom: '" &amp; O4 &amp; "'", "" ) &amp; IF( P4 &lt;&gt; "", ", exchangabaleTo: '" &amp; P4 &amp; "'", "" ) &amp; IF( Q4 = "○", ", poison: true", "" ) &amp;IF(R4&lt;&gt;"", ", type: '"&amp;VLOOKUP(R4,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S4&lt;&gt;"",", subType: '"&amp;VLOOKUP(S4,マスタ!$D$1:$E$99,2,0)&amp;"'","") &amp; IF( T4 &lt;&gt; "", ", range: '" &amp; T4 &amp; "'" &amp; IF( U4 &lt;&gt; "", ", rangeOpened: '" &amp; U4 &amp; "'", "" ), "" ) &amp; IF( V4 &lt;&gt; "", ", damage: '" &amp; V4 &amp; "'" &amp; IF( OR( W4 &lt;&gt; "", AI4 &lt;&gt; "" ), ", damageOpened: '" &amp; W4 &amp; "'", "" ), "" ) &amp; IF( X4 &lt;&gt; "", ", capacity: '" &amp; X4 &amp; "'", "" ) &amp; IF( Y4 &lt;&gt; "", ", cost: '" &amp; Y4 &amp; "'", "" ) &amp; ", text: '" &amp; SUBSTITUTE( SUBSTITUTE( AE4, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ) &amp; "', textZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AG4, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AI4, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )&amp; "', textKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AK4, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AM4, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'" &amp; IF( OR( W4 &lt;&gt; "", AI4 &lt;&gt; "" ), ", textOpened: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AO4, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AP4, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )  &amp; "', textOpenedZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AQ4, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AR4, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AS4, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'", "" ) &amp; IF( Z4 = "○", ", sealable: true", "" ) &amp; IF( AA4 = "○", ", removable: true", "" ) &amp; "}," )</f>
+        <f aca="false">IF(A4="", "","'"&amp;A4&amp;"': {megami: '"&amp;B4&amp;"'"&amp;IF(C4&lt;&gt;"",", anotherID: '"&amp;C4&amp;"', replace: '"&amp;D4&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E4,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K4,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G4,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H4,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J4,"'","\'")&amp;"', ruby: '"&amp;F4&amp;"', rubyEn: '"&amp;L4&amp;IF(I4&lt;&gt;"", "', rubyZh: '"&amp;I4, "")&amp;"', baseType: '"&amp;VLOOKUP(M4,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N4="○",", extra: true","")&amp;IF(O4&lt;&gt;"",", extraFrom: '"&amp;O4&amp;"'","")&amp;IF(P4&lt;&gt;"",", exchangableTo: '"&amp;P4&amp;"'","")&amp;IF(Q4="○",", poison: true","")&amp;IF(R4&lt;&gt;"", ", type: '"&amp;VLOOKUP(R4,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S4&lt;&gt;"",", subType: '"&amp;VLOOKUP(S4,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T4&lt;&gt;"",", range: '"&amp;T4&amp;"'","")&amp;IF(V4&lt;&gt;"",", damage: '"&amp;V4&amp;"'","")&amp;IF(X4&lt;&gt;"",", capacity: '"&amp;X4&amp;"'","")&amp;IF(Y4&lt;&gt;"",", growth: "&amp;Y4&amp;"","")&amp;IF(Z4&lt;&gt;"",", cost: '"&amp;Z4&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE4, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF4&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH4&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ4&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL4&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN4&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB4="○",", sealable: true","")&amp;IF(AC4="○",", removable: true","")&amp;IF(AA4="○",", lie: true","")&amp;IF(AD4="○",", investable: true","")&amp;"},")</f>
         <v>'07-shinra-A1-n-7': {megami: 'shinra', anotherID: 'A1', replace: '07-shinra-o-n-7', name: '使徒', nameEn: 'Apostle', nameZh: '使徒', nameZhG1: '使徒', nameKo: '사도', ruby: 'しと', rubyEn: '', baseType: 'normal', type: 'enhance', subType: 'fullpower', capacity: '2', text: '【展開時】集中力を1支払い、計略を準備してもよい。\n【展開時/破棄時】計略を実行し、次の計略を準備する。\n[神算] 攻撃『適正距離1, 3, 5、2/2、不可避、【攻撃後】相手は相手の手札から1枚を選び、山札の底に置く』を行う。\n[鬼謀] 攻撃『適正距離0, 2, 4、2/2、不可避、【攻撃後】相手の山札の上から1枚を捨て札にして、1枚を伏せ札にする』を行う。', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU4" s="31" t="str">
@@ -20147,44 +20323,44 @@
     </row>
     <row r="5" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
       <c r="J5" s="45" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K5" s="46" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L5" s="44"/>
       <c r="M5" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N5" s="44"/>
       <c r="O5" s="44"/>
       <c r="P5" s="44"/>
       <c r="Q5" s="44"/>
       <c r="R5" s="44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="S5" s="44"/>
       <c r="T5" s="44"/>
@@ -20199,30 +20375,30 @@
       <c r="AC5" s="44"/>
       <c r="AD5" s="44"/>
       <c r="AE5" s="47" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF5" s="48" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG5" s="49" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AH5" s="44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AI5" s="26"/>
       <c r="AJ5" s="49"/>
       <c r="AK5" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL5" s="44" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AM5" s="49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN5" s="44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AO5" s="43"/>
       <c r="AP5" s="43"/>
@@ -20230,8 +20406,8 @@
       <c r="AR5" s="43"/>
       <c r="AS5" s="43"/>
       <c r="AT5" s="30" t="str">
-        <f aca="false">IF( A5 = "", "", "'" &amp; A5 &amp; "': {megami: '" &amp; B5 &amp; "'" &amp; IF( C5 &lt;&gt; "", ", anotherID: '" &amp; C5 &amp; "', replace: '" &amp; D5 &amp; "'", "" ) &amp; ", name: '" &amp; SUBSTITUTE( E5, "'", "\'" ) &amp; "', nameEn: '" &amp; SUBSTITUTE( K5, "'", "\'" ) &amp; "', nameZh: '" &amp; SUBSTITUTE( G5, "'", "\'" ) &amp; "', nameZhG1: '" &amp; SUBSTITUTE( H5, "'", "\'" )&amp; "', nameKo: '" &amp; SUBSTITUTE( J5, "'", "\'" ) &amp; "', ruby: '" &amp; F5 &amp; "', rubyEn: '" &amp; L5 &amp; "', baseType: '" &amp; VLOOKUP( M5, マスタ!$A$1:$B$99, 2, 0 ) &amp; "'" &amp; IF( N5 = "○", ", extra: true", "" ) &amp; IF( O5 &lt;&gt; "", ", extraFrom: '" &amp; O5 &amp; "'", "" ) &amp; IF( P5 &lt;&gt; "", ", exchangabaleTo: '" &amp; P5 &amp; "'", "" ) &amp; IF( Q5 = "○", ", poison: true", "" ) &amp;IF(R5&lt;&gt;"", ", type: '"&amp;VLOOKUP(R5,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S5&lt;&gt;"",", subType: '"&amp;VLOOKUP(S5,マスタ!$D$1:$E$99,2,0)&amp;"'","") &amp; IF( T5 &lt;&gt; "", ", range: '" &amp; T5 &amp; "'" &amp; IF( U5 &lt;&gt; "", ", rangeOpened: '" &amp; U5 &amp; "'", "" ), "" ) &amp; IF( V5 &lt;&gt; "", ", damage: '" &amp; V5 &amp; "'" &amp; IF( OR( W5 &lt;&gt; "", AI5 &lt;&gt; "" ), ", damageOpened: '" &amp; W5 &amp; "'", "" ), "" ) &amp; IF( X5 &lt;&gt; "", ", capacity: '" &amp; X5 &amp; "'", "" ) &amp; IF( Y5 &lt;&gt; "", ", cost: '" &amp; Y5 &amp; "'", "" ) &amp; ", text: '" &amp; SUBSTITUTE( SUBSTITUTE( AE5, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ) &amp; "', textZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AG5, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AI5, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )&amp; "', textKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AK5, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AM5, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'" &amp; IF( OR( W5 &lt;&gt; "", AI5 &lt;&gt; "" ), ", textOpened: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AO5, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AP5, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )  &amp; "', textOpenedZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AQ5, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AR5, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AS5, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'", "" ) &amp; IF( Z5 = "○", ", sealable: true", "" ) &amp; IF( AA5 = "○", ", removable: true", "" ) &amp; "}," )</f>
-        <v>'22-renri-a1-n-6': {megami: 'renri', anotherID: 'A1', replace: '22-renri-o-n-6', name: '神授', nameEn: 'Divine Gift', nameZh: '神授', nameZhG1: '', nameKo: '신수', ruby: 'しんじゅ', rubyEn: '', baseType: 'normal', type: 'action', text: 'この「神授」を山札の上に置き、その後に遺物にある通常札1枚と交換する。\n【常時】山札を再構成する直前にこの「神授」 が捨て札にあるならば、 このカードを使用してもよい。\n', textZh: '将此「神授」置于牌库顶，那之后将其和遗物中的1张通常牌交换。\n【常时】在重铸牌库前弃牌中有这张「神授」的话，可以使用这张牌。', textZhG1: '', textKo: '이「신수」를 패산 위에 놓고, 그 후에 유물에 있는 통상패 한 장과 교환한다.\n【상시】패산을 재구성하기 직전에, 이 「신수」가 버림패에 있다면, 이 카드를 사용해도 된다.', textEn: 'Put this "Divine Gift" on the top of your deck, then exchange it with a Noral card in your Relic.\n\nForced: You may use this "Divine Gift" from played pile just before you reshuffle your deck.'},</v>
+        <f aca="false">IF(A5="", "","'"&amp;A5&amp;"': {megami: '"&amp;B5&amp;"'"&amp;IF(C5&lt;&gt;"",", anotherID: '"&amp;C5&amp;"', replace: '"&amp;D5&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E5,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K5,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G5,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H5,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J5,"'","\'")&amp;"', ruby: '"&amp;F5&amp;"', rubyEn: '"&amp;L5&amp;IF(I5&lt;&gt;"", "', rubyZh: '"&amp;I5, "")&amp;"', baseType: '"&amp;VLOOKUP(M5,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N5="○",", extra: true","")&amp;IF(O5&lt;&gt;"",", extraFrom: '"&amp;O5&amp;"'","")&amp;IF(P5&lt;&gt;"",", exchangableTo: '"&amp;P5&amp;"'","")&amp;IF(Q5="○",", poison: true","")&amp;IF(R5&lt;&gt;"", ", type: '"&amp;VLOOKUP(R5,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S5&lt;&gt;"",", subType: '"&amp;VLOOKUP(S5,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T5&lt;&gt;"",", range: '"&amp;T5&amp;"'","")&amp;IF(V5&lt;&gt;"",", damage: '"&amp;V5&amp;"'","")&amp;IF(X5&lt;&gt;"",", capacity: '"&amp;X5&amp;"'","")&amp;IF(Y5&lt;&gt;"",", growth: "&amp;Y5&amp;"","")&amp;IF(Z5&lt;&gt;"",", cost: '"&amp;Z5&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE5, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF5&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH5&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ5&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL5&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN5&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB5="○",", sealable: true","")&amp;IF(AC5="○",", removable: true","")&amp;IF(AA5="○",", lie: true","")&amp;IF(AD5="○",", investable: true","")&amp;"},")</f>
+        <v>'22-renri-a1-n-6': {megami: 'renri', anotherID: 'A1', replace: '22-renri-o-n-6', name: '神授', nameEn: 'Divine Gift', nameZh: '神授', nameZhG1: '', nameKo: '신수', ruby: 'しんじゅ', rubyEn: '', baseType: 'normal', type: 'action', text: 'この「神授」を山札の上に置き、その後に遺物にある通常札1枚と交換する。\n【常時】山札を再構成する直前にこの「神授」 が捨て札にあるならば、 このカードを使用してもよい。\n', textAdditional: '（使用済み領域に出し、右クリックすることで効果を発動可能）', textZh: '将此「神授」置于牌库顶，那之后将其和遗物中的1张通常牌交换。\n【常时】在重铸牌库前弃牌中有这张「神授」的话，可以使用这张牌。', textZhG1: '', textZhAdditional: '（移动到已使用区域并右键就可以发动效果）', textKo: '이「신수」를 패산 위에 놓고, 그 후에 유물에 있는 통상패 한 장과 교환한다.\n【상시】패산을 재구성하기 직전에, 이 「신수」가 버림패에 있다면, 이 카드를 사용해도 된다.', textKoAdditional: '（사용됨 영역에서 꺼내서 우클릭으로 효과 발동 가능）', textEn: 'Put this "Divine Gift" on the top of your deck, then exchange it with a Noral card in your Relic.\n\nForced: You may use this "Divine Gift" from played pile just before you reshuffle your deck.', textEnAdditional: '(You can activate the effect by placing it in a used area and right-clicking.)'},</v>
       </c>
       <c r="AU5" s="31" t="str">
         <f aca="false">IF($A5&lt;&gt;"", "    /** 《"&amp;$E5&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A5, 3, 1)="-", RIGHT($A5,LEN($A5)-3), $A5)), "-", "_")&amp;": TCardId = '"&amp;$A5&amp;"';", "")</f>
@@ -21221,41 +21397,41 @@
     </row>
     <row r="6" customFormat="false" ht="72.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
       <c r="E6" s="44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H6" s="51"/>
       <c r="I6" s="50"/>
       <c r="J6" s="51" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K6" s="52"/>
       <c r="L6" s="44"/>
       <c r="M6" s="44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N6" s="44"/>
       <c r="O6" s="44"/>
       <c r="P6" s="44"/>
       <c r="Q6" s="44"/>
       <c r="R6" s="44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S6" s="44" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="T6" s="44"/>
       <c r="U6" s="43"/>
@@ -21273,21 +21449,21 @@
         <v>29</v>
       </c>
       <c r="AE6" s="47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF6" s="49"/>
       <c r="AG6" s="53" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AH6" s="49"/>
       <c r="AI6" s="49"/>
       <c r="AJ6" s="49"/>
       <c r="AK6" s="54" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AL6" s="49"/>
       <c r="AM6" s="54" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AN6" s="21"/>
       <c r="AO6" s="43"/>
@@ -21296,8 +21472,8 @@
       <c r="AR6" s="43"/>
       <c r="AS6" s="43"/>
       <c r="AT6" s="30" t="str">
-        <f aca="false">IF( A6 = "", "", "'" &amp; A6 &amp; "': {megami: '" &amp; B6 &amp; "'" &amp; IF( C6 &lt;&gt; "", ", anotherID: '" &amp; C6 &amp; "', replace: '" &amp; D6 &amp; "'", "" ) &amp; ", name: '" &amp; SUBSTITUTE( E6, "'", "\'" ) &amp; "', nameEn: '" &amp; SUBSTITUTE( K6, "'", "\'" ) &amp; "', nameZh: '" &amp; SUBSTITUTE( G6, "'", "\'" ) &amp; "', nameZhG1: '" &amp; SUBSTITUTE( H6, "'", "\'" )&amp; "', nameKo: '" &amp; SUBSTITUTE( J6, "'", "\'" ) &amp; "', ruby: '" &amp; F6 &amp; "', rubyEn: '" &amp; L6 &amp; "', baseType: '" &amp; VLOOKUP( M6, マスタ!$A$1:$B$99, 2, 0 ) &amp; "'" &amp; IF( N6 = "○", ", extra: true", "" ) &amp; IF( O6 &lt;&gt; "", ", extraFrom: '" &amp; O6 &amp; "'", "" ) &amp; IF( P6 &lt;&gt; "", ", exchangabaleTo: '" &amp; P6 &amp; "'", "" ) &amp; IF( Q6 = "○", ", poison: true", "" ) &amp;IF(R6&lt;&gt;"", ", type: '"&amp;VLOOKUP(R6,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S6&lt;&gt;"",", subType: '"&amp;VLOOKUP(S6,マスタ!$D$1:$E$99,2,0)&amp;"'","") &amp; IF( T6 &lt;&gt; "", ", range: '" &amp; T6 &amp; "'" &amp; IF( U6 &lt;&gt; "", ", rangeOpened: '" &amp; U6 &amp; "'", "" ), "" ) &amp; IF( V6 &lt;&gt; "", ", damage: '" &amp; V6 &amp; "'" &amp; IF( OR( W6 &lt;&gt; "", AI6 &lt;&gt; "" ), ", damageOpened: '" &amp; W6 &amp; "'", "" ), "" ) &amp; IF( X6 &lt;&gt; "", ", capacity: '" &amp; X6 &amp; "'", "" ) &amp; IF( Y6 &lt;&gt; "", ", cost: '" &amp; Y6 &amp; "'", "" ) &amp; ", text: '" &amp; SUBSTITUTE( SUBSTITUTE( AE6, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ) &amp; "', textZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AG6, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AI6, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )&amp; "', textKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AK6, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AM6, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'" &amp; IF( OR( W6 &lt;&gt; "", AI6 &lt;&gt; "" ), ", textOpened: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AO6, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AP6, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )  &amp; "', textOpenedZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AQ6, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AR6, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AS6, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'", "" ) &amp; IF( Z6 = "○", ", sealable: true", "" ) &amp; IF( AA6 = "○", ", removable: true", "" ) &amp; "}," )</f>
-        <v>'23-akina-o-n-7': {megami: 'akina', name: '直接金融', nameEn: '', nameZh: '直接金融', nameZhG1: '', nameKo: '직접금융', ruby: 'ちょくせつきんゆう', rubyEn: '', baseType: 'normal', type: 'enhance', subType: 'fullpower', capacity: '2', text: '隙　投資券\n【展開時】相オーラ→自オーラ：1\n集中力を1支払ってもよい。 そうした場合、この矢印効果をもう1回行う。\n【破棄時】攻撃『適正距離2-5、1/0』を行ってもよい。', textZh: '破绽 投资券\n【展开时】敌装→1→自装\n○○○○，若如此做，重复1次这个箭头效果。\n【破弃时】进行一次“攻击距离2-5、伤害1/0”的攻击。', textZhG1: '', textKo: '빈틈, 투자권\n【전개시】 오라(상대)→오라(자신):1\n○○○○, 이 화살표 효과를 1회 더 수행한다.\n【파기시】 공격 『적정거리 2-5, 1/0』을 수행해도 된다.', textEn: 'Unguarded, Investment\n\nInitialize: Opponent\'s Aura (1)→ Your Aura. ○○○○. If you do, perform this arrow effect once more.\n\nDisenchant: You may attack with "Range: 2-5, Damage: 1/0".'},</v>
+        <f aca="false">IF(A6="", "","'"&amp;A6&amp;"': {megami: '"&amp;B6&amp;"'"&amp;IF(C6&lt;&gt;"",", anotherID: '"&amp;C6&amp;"', replace: '"&amp;D6&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E6,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K6,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G6,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H6,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J6,"'","\'")&amp;"', ruby: '"&amp;F6&amp;"', rubyEn: '"&amp;L6&amp;IF(I6&lt;&gt;"", "', rubyZh: '"&amp;I6, "")&amp;"', baseType: '"&amp;VLOOKUP(M6,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N6="○",", extra: true","")&amp;IF(O6&lt;&gt;"",", extraFrom: '"&amp;O6&amp;"'","")&amp;IF(P6&lt;&gt;"",", exchangableTo: '"&amp;P6&amp;"'","")&amp;IF(Q6="○",", poison: true","")&amp;IF(R6&lt;&gt;"", ", type: '"&amp;VLOOKUP(R6,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S6&lt;&gt;"",", subType: '"&amp;VLOOKUP(S6,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T6&lt;&gt;"",", range: '"&amp;T6&amp;"'","")&amp;IF(V6&lt;&gt;"",", damage: '"&amp;V6&amp;"'","")&amp;IF(X6&lt;&gt;"",", capacity: '"&amp;X6&amp;"'","")&amp;IF(Y6&lt;&gt;"",", growth: "&amp;Y6&amp;"","")&amp;IF(Z6&lt;&gt;"",", cost: '"&amp;Z6&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE6, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF6&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH6&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ6&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL6&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN6&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB6="○",", sealable: true","")&amp;IF(AC6="○",", removable: true","")&amp;IF(AA6="○",", lie: true","")&amp;IF(AD6="○",", investable: true","")&amp;"},")</f>
+        <v>'23-akina-o-n-7': {megami: 'akina', name: '直接金融', nameEn: '', nameZh: '直接金融', nameZhG1: '', nameKo: '직접금융', ruby: 'ちょくせつきんゆう', rubyEn: '', baseType: 'normal', type: 'enhance', subType: 'fullpower', capacity: '2', text: '隙　投資券\n【展開時】相オーラ→自オーラ：1\n集中力を1支払ってもよい。 そうした場合、この矢印効果をもう1回行う。\n【破棄時】攻撃『適正距離2-5、1/0』を行ってもよい。', textZh: '破绽 投资券\n【展开时】敌装→1→自装\n○○○○，若如此做，重复1次这个箭头效果。\n【破弃时】进行一次“攻击距离2-5、伤害1/0”的攻击。', textZhG1: '', textKo: '빈틈, 투자권\n【전개시】 오라(상대)→오라(자신):1\n○○○○, 이 화살표 효과를 1회 더 수행한다.\n【파기시】 공격 『적정거리 2-5, 1/0』을 수행해도 된다.', textEn: 'Unguarded, Investment\n\nInitialize: Opponent\'s Aura (1)→ Your Aura. ○○○○. If you do, perform this arrow effect once more.\n\nDisenchant: You may attack with "Range: 2-5, Damage: 1/0".', investable: true},</v>
       </c>
       <c r="AU6" s="31" t="str">
         <f aca="false">IF($A6&lt;&gt;"", "    /** 《"&amp;$E6&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A6, 3, 1)="-", RIGHT($A6,LEN($A6)-3), $A6)), "-", "_")&amp;": TCardId = '"&amp;$A6&amp;"';", "")</f>
@@ -22287,38 +22463,38 @@
     </row>
     <row r="7" customFormat="false" ht="83.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
       <c r="E7" s="44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H7" s="51"/>
       <c r="I7" s="50"/>
       <c r="J7" s="51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K7" s="52"/>
       <c r="L7" s="44"/>
       <c r="M7" s="44" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N7" s="44"/>
       <c r="O7" s="44"/>
       <c r="P7" s="44"/>
       <c r="Q7" s="44"/>
       <c r="R7" s="44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="S7" s="44"/>
       <c r="T7" s="44"/>
@@ -22328,7 +22504,7 @@
       <c r="X7" s="44"/>
       <c r="Y7" s="44"/>
       <c r="Z7" s="44" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA7" s="44"/>
       <c r="AB7" s="44"/>
@@ -22339,21 +22515,21 @@
         <v>29</v>
       </c>
       <c r="AE7" s="47" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF7" s="49"/>
       <c r="AG7" s="53" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AH7" s="49"/>
       <c r="AI7" s="49"/>
       <c r="AJ7" s="49"/>
       <c r="AK7" s="54" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL7" s="49"/>
       <c r="AM7" s="54" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AN7" s="21"/>
       <c r="AO7" s="43"/>
@@ -22362,8 +22538,8 @@
       <c r="AR7" s="43"/>
       <c r="AS7" s="43"/>
       <c r="AT7" s="30" t="str">
-        <f aca="false">IF( A7 = "", "", "'" &amp; A7 &amp; "': {megami: '" &amp; B7 &amp; "'" &amp; IF( C7 &lt;&gt; "", ", anotherID: '" &amp; C7 &amp; "', replace: '" &amp; D7 &amp; "'", "" ) &amp; ", name: '" &amp; SUBSTITUTE( E7, "'", "\'" ) &amp; "', nameEn: '" &amp; SUBSTITUTE( K7, "'", "\'" ) &amp; "', nameZh: '" &amp; SUBSTITUTE( G7, "'", "\'" ) &amp; "', nameZhG1: '" &amp; SUBSTITUTE( H7, "'", "\'" )&amp; "', nameKo: '" &amp; SUBSTITUTE( J7, "'", "\'" ) &amp; "', ruby: '" &amp; F7 &amp; "', rubyEn: '" &amp; L7 &amp; "', baseType: '" &amp; VLOOKUP( M7, マスタ!$A$1:$B$99, 2, 0 ) &amp; "'" &amp; IF( N7 = "○", ", extra: true", "" ) &amp; IF( O7 &lt;&gt; "", ", extraFrom: '" &amp; O7 &amp; "'", "" ) &amp; IF( P7 &lt;&gt; "", ", exchangabaleTo: '" &amp; P7 &amp; "'", "" ) &amp; IF( Q7 = "○", ", poison: true", "" ) &amp;IF(R7&lt;&gt;"", ", type: '"&amp;VLOOKUP(R7,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S7&lt;&gt;"",", subType: '"&amp;VLOOKUP(S7,マスタ!$D$1:$E$99,2,0)&amp;"'","") &amp; IF( T7 &lt;&gt; "", ", range: '" &amp; T7 &amp; "'" &amp; IF( U7 &lt;&gt; "", ", rangeOpened: '" &amp; U7 &amp; "'", "" ), "" ) &amp; IF( V7 &lt;&gt; "", ", damage: '" &amp; V7 &amp; "'" &amp; IF( OR( W7 &lt;&gt; "", AI7 &lt;&gt; "" ), ", damageOpened: '" &amp; W7 &amp; "'", "" ), "" ) &amp; IF( X7 &lt;&gt; "", ", capacity: '" &amp; X7 &amp; "'", "" ) &amp; IF( Y7 &lt;&gt; "", ", cost: '" &amp; Y7 &amp; "'", "" ) &amp; ", text: '" &amp; SUBSTITUTE( SUBSTITUTE( AE7, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ) &amp; "', textZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AG7, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AI7, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )&amp; "', textKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AK7, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AM7, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'" &amp; IF( OR( W7 &lt;&gt; "", AI7 &lt;&gt; "" ), ", textOpened: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AO7, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AP7, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )  &amp; "', textOpenedZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AQ7, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AR7, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AS7, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'", "" ) &amp; IF( Z7 = "○", ", sealable: true", "" ) &amp; IF( AA7 = "○", ", removable: true", "" ) &amp; "}," )</f>
-        <v>'23-akina-o-s-4': {megami: 'akina', name: '源上安岐那の御明算', nameEn: '', nameZh: '源上安歧那的妙算', nameZhG1: '', nameKo: '미나카미 아키나의 정확한 계산', ruby: 'みなかみあきなのごめいさん', rubyEn: '', baseType: 'special', type: 'action', text: '間合制限（0-7）　投資券\n回収を行ってもよい。そうした場合、基本動作《纏い》を2回まで行い、このカードを取り除く。\n【使用済】あなたのメインフェイズの開始時に、あなたは回収を行う代わりに基本動作《宿し》を1回行ってもよい。', textZh: '距离限制（0-7） 投资券\n可以进行回收。若如此做，进行最多2次基本动作《装附》，将此卡移出游戏。\n【使用后】你的准备阶段开始时，可以进行一次基本动作《聚气》代替使用回收。', textZhG1: '', textKo: '간격제한(0-7) 투자권\n회수를 수행해도 된다. 그렇게 한 경우, 기본동작 《휘감기》를 2번까지 수행하고, 이 카드를 게임에서 제외한다.\n【사용됨】 당신의 메인 페이즈 시작에, 당신은 회수를 수행하는 대신 기본동작 《품기》를 1번 수행해도 된다.', textEn: 'Range Restriction (0-7), Investment\n\nYou may Divest. If you do, perform up to 2 Recover basic actions and remove this card from the game.\n\nDevoted: At the beginning of your main phase, you may perform 1 Focus basic action instead of Divesting.'},</v>
+        <f aca="false">IF(A7="", "","'"&amp;A7&amp;"': {megami: '"&amp;B7&amp;"'"&amp;IF(C7&lt;&gt;"",", anotherID: '"&amp;C7&amp;"', replace: '"&amp;D7&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E7,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K7,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G7,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H7,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J7,"'","\'")&amp;"', ruby: '"&amp;F7&amp;"', rubyEn: '"&amp;L7&amp;IF(I7&lt;&gt;"", "', rubyZh: '"&amp;I7, "")&amp;"', baseType: '"&amp;VLOOKUP(M7,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N7="○",", extra: true","")&amp;IF(O7&lt;&gt;"",", extraFrom: '"&amp;O7&amp;"'","")&amp;IF(P7&lt;&gt;"",", exchangableTo: '"&amp;P7&amp;"'","")&amp;IF(Q7="○",", poison: true","")&amp;IF(R7&lt;&gt;"", ", type: '"&amp;VLOOKUP(R7,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S7&lt;&gt;"",", subType: '"&amp;VLOOKUP(S7,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T7&lt;&gt;"",", range: '"&amp;T7&amp;"'","")&amp;IF(V7&lt;&gt;"",", damage: '"&amp;V7&amp;"'","")&amp;IF(X7&lt;&gt;"",", capacity: '"&amp;X7&amp;"'","")&amp;IF(Y7&lt;&gt;"",", growth: "&amp;Y7&amp;"","")&amp;IF(Z7&lt;&gt;"",", cost: '"&amp;Z7&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE7, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF7&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH7&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ7&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL7&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN7&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB7="○",", sealable: true","")&amp;IF(AC7="○",", removable: true","")&amp;IF(AA7="○",", lie: true","")&amp;IF(AD7="○",", investable: true","")&amp;"},")</f>
+        <v>'23-akina-o-s-4': {megami: 'akina', name: '源上安岐那の御明算', nameEn: '', nameZh: '源上安歧那的妙算', nameZhG1: '', nameKo: '미나카미 아키나의 정확한 계산', ruby: 'みなかみあきなのごめいさん', rubyEn: '', baseType: 'special', type: 'action', cost: '時価', text: '間合制限（0-7）　投資券\n回収を行ってもよい。そうした場合、基本動作《纏い》を2回まで行い、このカードを取り除く。\n【使用済】あなたのメインフェイズの開始時に、あなたは回収を行う代わりに基本動作《宿し》を1回行ってもよい。', textZh: '距离限制（0-7） 投资券\n可以进行回收。若如此做，进行最多2次基本动作《装附》，将此卡移出游戏。\n【使用后】你的准备阶段开始时，可以进行一次基本动作《聚气》代替使用回收。', textZhG1: '', textKo: '간격제한(0-7) 투자권\n회수를 수행해도 된다. 그렇게 한 경우, 기본동작 《휘감기》를 2번까지 수행하고, 이 카드를 게임에서 제외한다.\n【사용됨】 당신의 메인 페이즈 시작에, 당신은 회수를 수행하는 대신 기본동작 《품기》를 1번 수행해도 된다.', textEn: 'Range Restriction (0-7), Investment\n\nYou may Divest. If you do, perform up to 2 Recover basic actions and remove this card from the game.\n\nDevoted: At the beginning of your main phase, you may perform 1 Focus basic action instead of Divesting.', removable: true, investable: true},</v>
       </c>
       <c r="AU7" s="31" t="str">
         <f aca="false">IF($A7&lt;&gt;"", "    /** 《"&amp;$E7&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A7, 3, 1)="-", RIGHT($A7,LEN($A7)-3), $A7)), "-", "_")&amp;": TCardId = '"&amp;$A7&amp;"';", "")</f>
@@ -23353,40 +23529,40 @@
     </row>
     <row r="8" s="1" customFormat="true" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="55" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
       <c r="E8" s="44" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G8" s="50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H8" s="51"/>
       <c r="I8" s="50"/>
       <c r="J8" s="51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K8" s="56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L8" s="44"/>
       <c r="M8" s="44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N8" s="44"/>
       <c r="O8" s="44"/>
       <c r="P8" s="44"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="S8" s="44"/>
       <c r="T8" s="44"/>
@@ -23401,21 +23577,21 @@
       <c r="AC8" s="44"/>
       <c r="AD8" s="44"/>
       <c r="AE8" s="47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF8" s="49"/>
       <c r="AG8" s="58" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH8" s="49"/>
       <c r="AI8" s="26"/>
       <c r="AJ8" s="49"/>
       <c r="AK8" s="49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL8" s="59"/>
       <c r="AM8" s="56" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN8" s="21"/>
       <c r="AO8" s="57"/>
@@ -23424,7 +23600,7 @@
       <c r="AR8" s="57"/>
       <c r="AS8" s="57"/>
       <c r="AT8" s="30" t="str">
-        <f aca="false">IF( A8 = "", "", "'" &amp; A8 &amp; "': {megami: '" &amp; B8 &amp; "'" &amp; IF( C8 &lt;&gt; "", ", anotherID: '" &amp; C8 &amp; "', replace: '" &amp; D8 &amp; "'", "" ) &amp; ", name: '" &amp; SUBSTITUTE( E8, "'", "\'" ) &amp; "', nameEn: '" &amp; SUBSTITUTE( K8, "'", "\'" ) &amp; "', nameZh: '" &amp; SUBSTITUTE( G8, "'", "\'" ) &amp; "', nameZhG1: '" &amp; SUBSTITUTE( H8, "'", "\'" )&amp; "', nameKo: '" &amp; SUBSTITUTE( J8, "'", "\'" ) &amp; "', ruby: '" &amp; F8 &amp; "', rubyEn: '" &amp; L8 &amp; "', baseType: '" &amp; VLOOKUP( M8, マスタ!$A$1:$B$99, 2, 0 ) &amp; "'" &amp; IF( N8 = "○", ", extra: true", "" ) &amp; IF( O8 &lt;&gt; "", ", extraFrom: '" &amp; O8 &amp; "'", "" ) &amp; IF( P8 &lt;&gt; "", ", exchangabaleTo: '" &amp; P8 &amp; "'", "" ) &amp; IF( Q8 = "○", ", poison: true", "" ) &amp;IF(R8&lt;&gt;"", ", type: '"&amp;VLOOKUP(R8,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S8&lt;&gt;"",", subType: '"&amp;VLOOKUP(S8,マスタ!$D$1:$E$99,2,0)&amp;"'","") &amp; IF( T8 &lt;&gt; "", ", range: '" &amp; T8 &amp; "'" &amp; IF( U8 &lt;&gt; "", ", rangeOpened: '" &amp; U8 &amp; "'", "" ), "" ) &amp; IF( V8 &lt;&gt; "", ", damage: '" &amp; V8 &amp; "'" &amp; IF( OR( W8 &lt;&gt; "", AI8 &lt;&gt; "" ), ", damageOpened: '" &amp; W8 &amp; "'", "" ), "" ) &amp; IF( X8 &lt;&gt; "", ", capacity: '" &amp; X8 &amp; "'", "" ) &amp; IF( Y8 &lt;&gt; "", ", cost: '" &amp; Y8 &amp; "'", "" ) &amp; ", text: '" &amp; SUBSTITUTE( SUBSTITUTE( AE8, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ) &amp; "', textZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AG8, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AI8, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )&amp; "', textKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AK8, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AM8, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'" &amp; IF( OR( W8 &lt;&gt; "", AI8 &lt;&gt; "" ), ", textOpened: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AO8, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AP8, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )  &amp; "', textOpenedZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AQ8, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AR8, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AS8, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'", "" ) &amp; IF( Z8 = "○", ", sealable: true", "" ) &amp; IF( AA8 = "○", ", removable: true", "" ) &amp; "}," )</f>
+        <f aca="false">IF(A8="", "","'"&amp;A8&amp;"': {megami: '"&amp;B8&amp;"'"&amp;IF(C8&lt;&gt;"",", anotherID: '"&amp;C8&amp;"', replace: '"&amp;D8&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E8,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K8,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G8,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H8,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J8,"'","\'")&amp;"', ruby: '"&amp;F8&amp;"', rubyEn: '"&amp;L8&amp;IF(I8&lt;&gt;"", "', rubyZh: '"&amp;I8, "")&amp;"', baseType: '"&amp;VLOOKUP(M8,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N8="○",", extra: true","")&amp;IF(O8&lt;&gt;"",", extraFrom: '"&amp;O8&amp;"'","")&amp;IF(P8&lt;&gt;"",", exchangableTo: '"&amp;P8&amp;"'","")&amp;IF(Q8="○",", poison: true","")&amp;IF(R8&lt;&gt;"", ", type: '"&amp;VLOOKUP(R8,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S8&lt;&gt;"",", subType: '"&amp;VLOOKUP(S8,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T8&lt;&gt;"",", range: '"&amp;T8&amp;"'","")&amp;IF(V8&lt;&gt;"",", damage: '"&amp;V8&amp;"'","")&amp;IF(X8&lt;&gt;"",", capacity: '"&amp;X8&amp;"'","")&amp;IF(Y8&lt;&gt;"",", growth: "&amp;Y8&amp;"","")&amp;IF(Z8&lt;&gt;"",", cost: '"&amp;Z8&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE8, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF8&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH8&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ8&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL8&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN8&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB8="○",", sealable: true","")&amp;IF(AC8="○",", removable: true","")&amp;IF(AA8="○",", lie: true","")&amp;IF(AD8="○",", investable: true","")&amp;"},")</f>
         <v>'24-shisui-o-n-6': {megami: 'shisui', name: '金屑纏い', nameEn: 'Fragile Mend', nameZh: '铁屑缠身', nameZhG1: '', nameKo: '쇳가루 휘감기', ruby: 'かなくずまとい', rubyEn: '', baseType: 'normal', type: 'action', text: '基本動作《纏い》を2回行う。その後、以下から1つを選ぶ。\n・あなたと相手のオーラに裂傷を1与える。\n・あなたと相手のフレアに裂傷を1与える。', textZh: '进行两次基本动作《装附》。那之后，选择一项：\n●对自装和敌装各造成1点裂伤；\n●对自气和敌气各造成1点裂伤。', textZhG1: '', textKo: '기본동작 《휘감기》를 2번 수행한다. 그 후, 아래에서 1가지를 선택한다.\n・당신과 상대의 오라에 열상을 1 준다.\n・당신과 상대의 플레어에 열상을 1 준다.', textEn: 'Perform 2 Recover basic actions, then choose one:\n・Lacerate each players\' Aura once.\n・Lacerate each players\' Flare once.'},</v>
       </c>
       <c r="AU8" s="31" t="str">
@@ -24415,43 +24591,43 @@
     </row>
     <row r="9" s="1" customFormat="true" ht="109.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="55" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="44"/>
       <c r="E9" s="44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F9" s="44"/>
       <c r="G9" s="50" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H9" s="51"/>
       <c r="I9" s="50" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J9" s="51" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K9" s="56" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L9" s="44"/>
       <c r="M9" s="44" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N9" s="44"/>
       <c r="O9" s="44"/>
       <c r="P9" s="44"/>
       <c r="Q9" s="44"/>
       <c r="R9" s="44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="S9" s="44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="T9" s="44"/>
       <c r="U9" s="57"/>
@@ -24460,28 +24636,28 @@
       <c r="X9" s="44"/>
       <c r="Y9" s="44"/>
       <c r="Z9" s="44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AA9" s="44"/>
       <c r="AB9" s="44"/>
       <c r="AC9" s="44"/>
       <c r="AD9" s="44"/>
       <c r="AE9" s="47" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF9" s="49"/>
       <c r="AG9" s="58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AH9" s="49"/>
       <c r="AI9" s="26"/>
       <c r="AJ9" s="49"/>
       <c r="AK9" s="49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL9" s="59"/>
       <c r="AM9" s="56" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN9" s="21"/>
       <c r="AO9" s="57"/>
@@ -24490,8 +24666,8 @@
       <c r="AR9" s="57"/>
       <c r="AS9" s="57"/>
       <c r="AT9" s="30" t="str">
-        <f aca="false">IF( A9 = "", "", "'" &amp; A9 &amp; "': {megami: '" &amp; B9 &amp; "'" &amp; IF( C9 &lt;&gt; "", ", anotherID: '" &amp; C9 &amp; "', replace: '" &amp; D9 &amp; "'", "" ) &amp; ", name: '" &amp; SUBSTITUTE( E9, "'", "\'" ) &amp; "', nameEn: '" &amp; SUBSTITUTE( K9, "'", "\'" ) &amp; "', nameZh: '" &amp; SUBSTITUTE( G9, "'", "\'" ) &amp; "', nameZhG1: '" &amp; SUBSTITUTE( H9, "'", "\'" )&amp; "', nameKo: '" &amp; SUBSTITUTE( J9, "'", "\'" ) &amp; "', ruby: '" &amp; F9 &amp; "', rubyEn: '" &amp; L9 &amp; "', baseType: '" &amp; VLOOKUP( M9, マスタ!$A$1:$B$99, 2, 0 ) &amp; "'" &amp; IF( N9 = "○", ", extra: true", "" ) &amp; IF( O9 &lt;&gt; "", ", extraFrom: '" &amp; O9 &amp; "'", "" ) &amp; IF( P9 &lt;&gt; "", ", exchangabaleTo: '" &amp; P9 &amp; "'", "" ) &amp; IF( Q9 = "○", ", poison: true", "" ) &amp;IF(R9&lt;&gt;"", ", type: '"&amp;VLOOKUP(R9,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S9&lt;&gt;"",", subType: '"&amp;VLOOKUP(S9,マスタ!$D$1:$E$99,2,0)&amp;"'","") &amp; IF( T9 &lt;&gt; "", ", range: '" &amp; T9 &amp; "'" &amp; IF( U9 &lt;&gt; "", ", rangeOpened: '" &amp; U9 &amp; "'", "" ), "" ) &amp; IF( V9 &lt;&gt; "", ", damage: '" &amp; V9 &amp; "'" &amp; IF( OR( W9 &lt;&gt; "", AI9 &lt;&gt; "" ), ", damageOpened: '" &amp; W9 &amp; "'", "" ), "" ) &amp; IF( X9 &lt;&gt; "", ", capacity: '" &amp; X9 &amp; "'", "" ) &amp; IF( Y9 &lt;&gt; "", ", cost: '" &amp; Y9 &amp; "'", "" ) &amp; ", text: '" &amp; SUBSTITUTE( SUBSTITUTE( AE9, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ) &amp; "', textZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AG9, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AI9, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )&amp; "', textKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AK9, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AM9, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'" &amp; IF( OR( W9 &lt;&gt; "", AI9 &lt;&gt; "" ), ", textOpened: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AO9, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AP9, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )  &amp; "', textOpenedZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AQ9, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AR9, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AS9, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'", "" ) &amp; IF( Z9 = "○", ", sealable: true", "" ) &amp; IF( AA9 = "○", ", removable: true", "" ) &amp; "}," )</f>
-        <v>'24-shisui-o-s-1': {megami: 'shisui', name: 'ハドマギリ', nameEn: 'Seventh Circle - Padma', nameZh: '红莲狱斩切', nameZhG1: '', nameKo: '하도마기리', ruby: '', rubyEn: '', baseType: 'special', type: 'action', subType: 'reaction', text: '【常時】このカードが対応している《攻撃》があるならば、その《攻撃》の解決後にこのカードの効果を解決する。\n任意の数の領域を選び、それらに置かれたあなたの裂傷トークンを任意の順でダメージ化する。その後、攻撃『適正距離1-4、2/1、対応不可（通常札）、【常時】この《攻撃》は+0/+Xとなる。Xはあなたがこのターン中にダメージを受けた回数の半分（切り上げ）に等しい』を行う。', textZh: '【常时】若此牌对应了一个《攻击》，则在那个《攻击》结算之后结算此牌的效果。\n选择任意个区域，将这些区域中你放置的裂伤指示物以任意顺序伤害化。那之后，进行一次“攻击距离1-4 伤害2/1 不可被对应（通常牌） 【常时】此《攻击》得+0/+X，X为本你在本回合受到过的伤害的次数的一半（向上取整）”的攻击。', textZhG1: '', textKo: ' 【상시】 이 카드가 대응하고 있는 《공격》이 있다면, 그 《공격》을 해결한 후에 이 카드의 효과를 해결한다.\n임의의 수의 영역을 고른 뒤 그 곳에 놓인 당신의 열상 토큰을 원하는 순서대로 데미지화 한다. 그 후, 공격 『적정거리 1-4, 2/1, 대응불가(통상패), 【상시】 이 《공격》은 +0/+X 된다. X는 이번 턴에 당신이 데미지를 받은 횟수의 절반(올림)과 같다.』을 수행한다.', textEn: 'Forced: If this card was played as a Reaction to an attack, resolve its effects after that attack resolves.\n\nChoose any number of zones. Apply the damage of your Laceration tokens in those zones in the order of your choosing. Then, you attack with "Range: 1-4, Damage: 2/1, No Reactions (Normal), Forced: This attack gains +0/+X, where X is half the number of times you\'ve taken damage this turn, rounded up."'},</v>
+        <f aca="false">IF(A9="", "","'"&amp;A9&amp;"': {megami: '"&amp;B9&amp;"'"&amp;IF(C9&lt;&gt;"",", anotherID: '"&amp;C9&amp;"', replace: '"&amp;D9&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E9,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K9,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G9,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H9,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J9,"'","\'")&amp;"', ruby: '"&amp;F9&amp;"', rubyEn: '"&amp;L9&amp;IF(I9&lt;&gt;"", "', rubyZh: '"&amp;I9, "")&amp;"', baseType: '"&amp;VLOOKUP(M9,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N9="○",", extra: true","")&amp;IF(O9&lt;&gt;"",", extraFrom: '"&amp;O9&amp;"'","")&amp;IF(P9&lt;&gt;"",", exchangableTo: '"&amp;P9&amp;"'","")&amp;IF(Q9="○",", poison: true","")&amp;IF(R9&lt;&gt;"", ", type: '"&amp;VLOOKUP(R9,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S9&lt;&gt;"",", subType: '"&amp;VLOOKUP(S9,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T9&lt;&gt;"",", range: '"&amp;T9&amp;"'","")&amp;IF(V9&lt;&gt;"",", damage: '"&amp;V9&amp;"'","")&amp;IF(X9&lt;&gt;"",", capacity: '"&amp;X9&amp;"'","")&amp;IF(Y9&lt;&gt;"",", growth: "&amp;Y9&amp;"","")&amp;IF(Z9&lt;&gt;"",", cost: '"&amp;Z9&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE9, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF9&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH9&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ9&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL9&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN9&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB9="○",", sealable: true","")&amp;IF(AC9="○",", removable: true","")&amp;IF(AA9="○",", lie: true","")&amp;IF(AD9="○",", investable: true","")&amp;"},")</f>
+        <v>'24-shisui-o-s-1': {megami: 'shisui', name: 'ハドマギリ', nameEn: 'Seventh Circle - Padma', nameZh: '红莲狱斩切', nameZhG1: '', nameKo: '하도마기리', ruby: '', rubyEn: '', rubyZh: 'Padma', baseType: 'special', type: 'action', subType: 'reaction', cost: '3', text: '【常時】このカードが対応している《攻撃》があるならば、その《攻撃》の解決後にこのカードの効果を解決する。\n任意の数の領域を選び、それらに置かれたあなたの裂傷トークンを任意の順でダメージ化する。その後、攻撃『適正距離1-4、2/1、対応不可（通常札）、【常時】この《攻撃》は+0/+Xとなる。Xはあなたがこのターン中にダメージを受けた回数の半分（切り上げ）に等しい』を行う。', textZh: '【常时】若此牌对应了一个《攻击》，则在那个《攻击》结算之后结算此牌的效果。\n选择任意个区域，将这些区域中你放置的裂伤指示物以任意顺序伤害化。那之后，进行一次“攻击距离1-4 伤害2/1 不可被对应（通常牌） 【常时】此《攻击》得+0/+X，X为本你在本回合受到过的伤害的次数的一半（向上取整）”的攻击。', textZhG1: '', textKo: ' 【상시】 이 카드가 대응하고 있는 《공격》이 있다면, 그 《공격》을 해결한 후에 이 카드의 효과를 해결한다.\n임의의 수의 영역을 고른 뒤 그 곳에 놓인 당신의 열상 토큰을 원하는 순서대로 데미지화 한다. 그 후, 공격 『적정거리 1-4, 2/1, 대응불가(통상패), 【상시】 이 《공격》은 +0/+X 된다. X는 이번 턴에 당신이 데미지를 받은 횟수의 절반(올림)과 같다.』을 수행한다.', textEn: 'Forced: If this card was played as a Reaction to an attack, resolve its effects after that attack resolves.\n\nChoose any number of zones. Apply the damage of your Laceration tokens in those zones in the order of your choosing. Then, you attack with "Range: 1-4, Damage: 2/1, No Reactions (Normal), Forced: This attack gains +0/+X, where X is half the number of times you\'ve taken damage this turn, rounded up."'},</v>
       </c>
       <c r="AU9" s="31" t="str">
         <f aca="false">IF($A9&lt;&gt;"", "    /** 《"&amp;$E9&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A9, 3, 1)="-", RIGHT($A9,LEN($A9)-3), $A9)), "-", "_")&amp;": TCardId = '"&amp;$A9&amp;"';", "")</f>
@@ -25481,75 +25657,75 @@
     </row>
     <row r="10" s="1" customFormat="true" ht="66.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="55" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
       <c r="E10" s="44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F10" s="44"/>
       <c r="G10" s="50" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H10" s="51"/>
       <c r="I10" s="50" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J10" s="51" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K10" s="56" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L10" s="44"/>
       <c r="M10" s="44" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N10" s="44"/>
       <c r="O10" s="44"/>
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S10" s="44"/>
       <c r="T10" s="44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="U10" s="57"/>
       <c r="V10" s="44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="W10" s="57"/>
       <c r="X10" s="44"/>
       <c r="Y10" s="44"/>
       <c r="Z10" s="44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA10" s="44"/>
       <c r="AB10" s="44"/>
       <c r="AC10" s="44"/>
       <c r="AD10" s="44"/>
       <c r="AE10" s="47" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF10" s="49"/>
       <c r="AG10" s="58" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AH10" s="49"/>
       <c r="AI10" s="26"/>
       <c r="AJ10" s="49"/>
       <c r="AK10" s="49" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL10" s="59"/>
       <c r="AM10" s="56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN10" s="21"/>
       <c r="AO10" s="57"/>
@@ -25558,8 +25734,8 @@
       <c r="AR10" s="57"/>
       <c r="AS10" s="57"/>
       <c r="AT10" s="30" t="str">
-        <f aca="false">IF( A10 = "", "", "'" &amp; A10 &amp; "': {megami: '" &amp; B10 &amp; "'" &amp; IF( C10 &lt;&gt; "", ", anotherID: '" &amp; C10 &amp; "', replace: '" &amp; D10 &amp; "'", "" ) &amp; ", name: '" &amp; SUBSTITUTE( E10, "'", "\'" ) &amp; "', nameEn: '" &amp; SUBSTITUTE( K10, "'", "\'" ) &amp; "', nameZh: '" &amp; SUBSTITUTE( G10, "'", "\'" ) &amp; "', nameZhG1: '" &amp; SUBSTITUTE( H10, "'", "\'" )&amp; "', nameKo: '" &amp; SUBSTITUTE( J10, "'", "\'" ) &amp; "', ruby: '" &amp; F10 &amp; "', rubyEn: '" &amp; L10 &amp; "', baseType: '" &amp; VLOOKUP( M10, マスタ!$A$1:$B$99, 2, 0 ) &amp; "'" &amp; IF( N10 = "○", ", extra: true", "" ) &amp; IF( O10 &lt;&gt; "", ", extraFrom: '" &amp; O10 &amp; "'", "" ) &amp; IF( P10 &lt;&gt; "", ", exchangabaleTo: '" &amp; P10 &amp; "'", "" ) &amp; IF( Q10 = "○", ", poison: true", "" ) &amp;IF(R10&lt;&gt;"", ", type: '"&amp;VLOOKUP(R10,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S10&lt;&gt;"",", subType: '"&amp;VLOOKUP(S10,マスタ!$D$1:$E$99,2,0)&amp;"'","") &amp; IF( T10 &lt;&gt; "", ", range: '" &amp; T10 &amp; "'" &amp; IF( U10 &lt;&gt; "", ", rangeOpened: '" &amp; U10 &amp; "'", "" ), "" ) &amp; IF( V10 &lt;&gt; "", ", damage: '" &amp; V10 &amp; "'" &amp; IF( OR( W10 &lt;&gt; "", AI10 &lt;&gt; "" ), ", damageOpened: '" &amp; W10 &amp; "'", "" ), "" ) &amp; IF( X10 &lt;&gt; "", ", capacity: '" &amp; X10 &amp; "'", "" ) &amp; IF( Y10 &lt;&gt; "", ", cost: '" &amp; Y10 &amp; "'", "" ) &amp; ", text: '" &amp; SUBSTITUTE( SUBSTITUTE( AE10, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ) &amp; "', textZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AG10, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AI10, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )&amp; "', textKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AK10, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AM10, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'" &amp; IF( OR( W10 &lt;&gt; "", AI10 &lt;&gt; "" ), ", textOpened: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AO10, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AP10, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )  &amp; "', textOpenedZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AQ10, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AR10, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AS10, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'", "" ) &amp; IF( Z10 = "○", ", sealable: true", "" ) &amp; IF( AA10 = "○", ", removable: true", "" ) &amp; "}," )</f>
-        <v>'24-shisui-o-s-2': {megami: 'shisui', name: 'ウバラザキ', nameEn: 'Sixth Circle - Utpala', nameZh: '青莲狱花开', nameZhG1: '', nameKo: '우바라자키', ruby: '', rubyEn: '', baseType: 'special', type: 'attack', range: '1-4', damage: '{2/1}', text: '【攻撃後】相手がライフへのダメージを選んだならば、このターンにあなたが次に行うオーラへのダメージが2以下の《攻撃》のダメージは裂傷化する。\n----\n【再起】あなたのオーラとフレアの合計が6以下である。', textZh: '【攻击后】对手选择承受对命伤害的话，本回合中你的对装伤害不大于2的《攻击》造成的伤害裂伤化。\n----\n【再起】自装和自气合计不大于6。', textZhG1: '', textKo: '【공격후】 상대가 라이프 데미지를 선택했다면, 이 턴에 당신이 다음에 수행하는 오라 데미지가 2 이하인 《공격》을 열상화한다.\n----\n【재기】 당신의 오라와 플레어의 합계가 6 이하이다.', textEn: 'After Attack: If your opponent chose to take damage to Life, the Damage from your next attack this turn that has 2 or less Damage to Aura becomes Lacerated.\n\nResurgence: Your total Aura and Flare is 6 or less.'},</v>
+        <f aca="false">IF(A10="", "","'"&amp;A10&amp;"': {megami: '"&amp;B10&amp;"'"&amp;IF(C10&lt;&gt;"",", anotherID: '"&amp;C10&amp;"', replace: '"&amp;D10&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E10,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K10,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G10,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H10,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J10,"'","\'")&amp;"', ruby: '"&amp;F10&amp;"', rubyEn: '"&amp;L10&amp;IF(I10&lt;&gt;"", "', rubyZh: '"&amp;I10, "")&amp;"', baseType: '"&amp;VLOOKUP(M10,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N10="○",", extra: true","")&amp;IF(O10&lt;&gt;"",", extraFrom: '"&amp;O10&amp;"'","")&amp;IF(P10&lt;&gt;"",", exchangableTo: '"&amp;P10&amp;"'","")&amp;IF(Q10="○",", poison: true","")&amp;IF(R10&lt;&gt;"", ", type: '"&amp;VLOOKUP(R10,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S10&lt;&gt;"",", subType: '"&amp;VLOOKUP(S10,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T10&lt;&gt;"",", range: '"&amp;T10&amp;"'","")&amp;IF(V10&lt;&gt;"",", damage: '"&amp;V10&amp;"'","")&amp;IF(X10&lt;&gt;"",", capacity: '"&amp;X10&amp;"'","")&amp;IF(Y10&lt;&gt;"",", growth: "&amp;Y10&amp;"","")&amp;IF(Z10&lt;&gt;"",", cost: '"&amp;Z10&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE10, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF10&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH10&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ10&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL10&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN10&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB10="○",", sealable: true","")&amp;IF(AC10="○",", removable: true","")&amp;IF(AA10="○",", lie: true","")&amp;IF(AD10="○",", investable: true","")&amp;"},")</f>
+        <v>'24-shisui-o-s-2': {megami: 'shisui', name: 'ウバラザキ', nameEn: 'Sixth Circle - Utpala', nameZh: '青莲狱花开', nameZhG1: '', nameKo: '우바라자키', ruby: '', rubyEn: '', rubyZh: 'Utpala', baseType: 'special', type: 'attack', range: '1-4', damage: '{2/1}', cost: '{2}', text: '【攻撃後】相手がライフへのダメージを選んだならば、このターンにあなたが次に行うオーラへのダメージが2以下の《攻撃》のダメージは裂傷化する。\n----\n【再起】あなたのオーラとフレアの合計が6以下である。', textZh: '【攻击后】对手选择承受对命伤害的话，本回合中你的对装伤害不大于2的《攻击》造成的伤害裂伤化。\n----\n【再起】自装和自气合计不大于6。', textZhG1: '', textKo: '【공격후】 상대가 라이프 데미지를 선택했다면, 이 턴에 당신이 다음에 수행하는 오라 데미지가 2 이하인 《공격》을 열상화한다.\n----\n【재기】 당신의 오라와 플레어의 합계가 6 이하이다.', textEn: 'After Attack: If your opponent chose to take damage to Life, the Damage from your next attack this turn that has 2 or less Damage to Aura becomes Lacerated.\n\nResurgence: Your total Aura and Flare is 6 or less.'},</v>
       </c>
       <c r="AU10" s="31" t="str">
         <f aca="false">IF($A10&lt;&gt;"", "    /** 《"&amp;$E10&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A10, 3, 1)="-", RIGHT($A10,LEN($A10)-3), $A10)), "-", "_")&amp;": TCardId = '"&amp;$A10&amp;"';", "")</f>
@@ -26594,7 +26770,7 @@
       <c r="AR11" s="43"/>
       <c r="AS11" s="43"/>
       <c r="AT11" s="30" t="str">
-        <f aca="false">IF( A11 = "", "", "'" &amp; A11 &amp; "': {megami: '" &amp; B11 &amp; "'" &amp; IF( C11 &lt;&gt; "", ", anotherID: '" &amp; C11 &amp; "', replace: '" &amp; D11 &amp; "'", "" ) &amp; ", name: '" &amp; SUBSTITUTE( E11, "'", "\'" ) &amp; "', nameEn: '" &amp; SUBSTITUTE( K11, "'", "\'" ) &amp; "', nameZh: '" &amp; SUBSTITUTE( G11, "'", "\'" ) &amp; "', nameZhG1: '" &amp; SUBSTITUTE( H11, "'", "\'" )&amp; "', nameKo: '" &amp; SUBSTITUTE( J11, "'", "\'" ) &amp; "', ruby: '" &amp; F11 &amp; "', rubyEn: '" &amp; L11 &amp; "', baseType: '" &amp; VLOOKUP( M11, マスタ!$A$1:$B$99, 2, 0 ) &amp; "'" &amp; IF( N11 = "○", ", extra: true", "" ) &amp; IF( O11 &lt;&gt; "", ", extraFrom: '" &amp; O11 &amp; "'", "" ) &amp; IF( P11 &lt;&gt; "", ", exchangabaleTo: '" &amp; P11 &amp; "'", "" ) &amp; IF( Q11 = "○", ", poison: true", "" ) &amp;IF(R11&lt;&gt;"", ", type: '"&amp;VLOOKUP(R11,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S11&lt;&gt;"",", subType: '"&amp;VLOOKUP(S11,マスタ!$D$1:$E$99,2,0)&amp;"'","") &amp; IF( T11 &lt;&gt; "", ", range: '" &amp; T11 &amp; "'" &amp; IF( U11 &lt;&gt; "", ", rangeOpened: '" &amp; U11 &amp; "'", "" ), "" ) &amp; IF( V11 &lt;&gt; "", ", damage: '" &amp; V11 &amp; "'" &amp; IF( OR( W11 &lt;&gt; "", AI11 &lt;&gt; "" ), ", damageOpened: '" &amp; W11 &amp; "'", "" ), "" ) &amp; IF( X11 &lt;&gt; "", ", capacity: '" &amp; X11 &amp; "'", "" ) &amp; IF( Y11 &lt;&gt; "", ", cost: '" &amp; Y11 &amp; "'", "" ) &amp; ", text: '" &amp; SUBSTITUTE( SUBSTITUTE( AE11, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ) &amp; "', textZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AG11, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AI11, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )&amp; "', textKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AK11, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AM11, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'" &amp; IF( OR( W11 &lt;&gt; "", AI11 &lt;&gt; "" ), ", textOpened: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AO11, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AP11, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )  &amp; "', textOpenedZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AQ11, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AR11, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AS11, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'", "" ) &amp; IF( Z11 = "○", ", sealable: true", "" ) &amp; IF( AA11 = "○", ", removable: true", "" ) &amp; "}," )</f>
+        <f aca="false">IF(A11="", "","'"&amp;A11&amp;"': {megami: '"&amp;B11&amp;"'"&amp;IF(C11&lt;&gt;"",", anotherID: '"&amp;C11&amp;"', replace: '"&amp;D11&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E11,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K11,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G11,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H11,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J11,"'","\'")&amp;"', ruby: '"&amp;F11&amp;"', rubyEn: '"&amp;L11&amp;IF(I11&lt;&gt;"", "', rubyZh: '"&amp;I11, "")&amp;"', baseType: '"&amp;VLOOKUP(M11,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N11="○",", extra: true","")&amp;IF(O11&lt;&gt;"",", extraFrom: '"&amp;O11&amp;"'","")&amp;IF(P11&lt;&gt;"",", exchangableTo: '"&amp;P11&amp;"'","")&amp;IF(Q11="○",", poison: true","")&amp;IF(R11&lt;&gt;"", ", type: '"&amp;VLOOKUP(R11,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S11&lt;&gt;"",", subType: '"&amp;VLOOKUP(S11,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T11&lt;&gt;"",", range: '"&amp;T11&amp;"'","")&amp;IF(V11&lt;&gt;"",", damage: '"&amp;V11&amp;"'","")&amp;IF(X11&lt;&gt;"",", capacity: '"&amp;X11&amp;"'","")&amp;IF(Y11&lt;&gt;"",", growth: "&amp;Y11&amp;"","")&amp;IF(Z11&lt;&gt;"",", cost: '"&amp;Z11&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE11, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF11&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH11&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ11&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL11&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN11&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB11="○",", sealable: true","")&amp;IF(AC11="○",", removable: true","")&amp;IF(AA11="○",", lie: true","")&amp;IF(AD11="○",", investable: true","")&amp;"},")</f>
         <v/>
       </c>
       <c r="AU11" s="31" t="str">
@@ -26609,7 +26785,7 @@
     </row>
     <row r="12" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="44" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B12" s="44" t="s">
         <v>30</v>
@@ -26617,10 +26793,10 @@
       <c r="C12" s="44"/>
       <c r="D12" s="44"/>
       <c r="E12" s="44" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G12" s="61"/>
       <c r="H12" s="45"/>
@@ -26629,22 +26805,22 @@
       <c r="K12" s="62"/>
       <c r="L12" s="63"/>
       <c r="M12" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N12" s="44"/>
       <c r="O12" s="44"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S12" s="45"/>
       <c r="T12" s="44" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U12" s="43"/>
       <c r="V12" s="44" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="W12" s="43"/>
       <c r="X12" s="44"/>
@@ -26655,7 +26831,7 @@
       <c r="AC12" s="44"/>
       <c r="AD12" s="44"/>
       <c r="AE12" s="47" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF12" s="49"/>
       <c r="AG12" s="63"/>
@@ -26672,7 +26848,7 @@
       <c r="AR12" s="43"/>
       <c r="AS12" s="43"/>
       <c r="AT12" s="30" t="str">
-        <f aca="false">IF( A12 = "", "", "'" &amp; A12 &amp; "': {megami: '" &amp; B12 &amp; "'" &amp; IF( C12 &lt;&gt; "", ", anotherID: '" &amp; C12 &amp; "', replace: '" &amp; D12 &amp; "'", "" ) &amp; ", name: '" &amp; SUBSTITUTE( E12, "'", "\'" ) &amp; "', nameEn: '" &amp; SUBSTITUTE( K12, "'", "\'" ) &amp; "', nameZh: '" &amp; SUBSTITUTE( G12, "'", "\'" ) &amp; "', nameZhG1: '" &amp; SUBSTITUTE( H12, "'", "\'" )&amp; "', nameKo: '" &amp; SUBSTITUTE( J12, "'", "\'" ) &amp; "', ruby: '" &amp; F12 &amp; "', rubyEn: '" &amp; L12 &amp; "', baseType: '" &amp; VLOOKUP( M12, マスタ!$A$1:$B$99, 2, 0 ) &amp; "'" &amp; IF( N12 = "○", ", extra: true", "" ) &amp; IF( O12 &lt;&gt; "", ", extraFrom: '" &amp; O12 &amp; "'", "" ) &amp; IF( P12 &lt;&gt; "", ", exchangabaleTo: '" &amp; P12 &amp; "'", "" ) &amp; IF( Q12 = "○", ", poison: true", "" ) &amp;IF(R12&lt;&gt;"", ", type: '"&amp;VLOOKUP(R12,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S12&lt;&gt;"",", subType: '"&amp;VLOOKUP(S12,マスタ!$D$1:$E$99,2,0)&amp;"'","") &amp; IF( T12 &lt;&gt; "", ", range: '" &amp; T12 &amp; "'" &amp; IF( U12 &lt;&gt; "", ", rangeOpened: '" &amp; U12 &amp; "'", "" ), "" ) &amp; IF( V12 &lt;&gt; "", ", damage: '" &amp; V12 &amp; "'" &amp; IF( OR( W12 &lt;&gt; "", AI12 &lt;&gt; "" ), ", damageOpened: '" &amp; W12 &amp; "'", "" ), "" ) &amp; IF( X12 &lt;&gt; "", ", capacity: '" &amp; X12 &amp; "'", "" ) &amp; IF( Y12 &lt;&gt; "", ", cost: '" &amp; Y12 &amp; "'", "" ) &amp; ", text: '" &amp; SUBSTITUTE( SUBSTITUTE( AE12, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ) &amp; "', textZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AG12, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AI12, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )&amp; "', textKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AK12, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AM12, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'" &amp; IF( OR( W12 &lt;&gt; "", AI12 &lt;&gt; "" ), ", textOpened: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AO12, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AP12, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )  &amp; "', textOpenedZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AQ12, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AR12, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AS12, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'", "" ) &amp; IF( Z12 = "○", ", sealable: true", "" ) &amp; IF( AA12 = "○", ", removable: true", "" ) &amp; "}," )</f>
+        <f aca="false">IF(A12="", "","'"&amp;A12&amp;"': {megami: '"&amp;B12&amp;"'"&amp;IF(C12&lt;&gt;"",", anotherID: '"&amp;C12&amp;"', replace: '"&amp;D12&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E12,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K12,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G12,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H12,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J12,"'","\'")&amp;"', ruby: '"&amp;F12&amp;"', rubyEn: '"&amp;L12&amp;IF(I12&lt;&gt;"", "', rubyZh: '"&amp;I12, "")&amp;"', baseType: '"&amp;VLOOKUP(M12,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N12="○",", extra: true","")&amp;IF(O12&lt;&gt;"",", extraFrom: '"&amp;O12&amp;"'","")&amp;IF(P12&lt;&gt;"",", exchangableTo: '"&amp;P12&amp;"'","")&amp;IF(Q12="○",", poison: true","")&amp;IF(R12&lt;&gt;"", ", type: '"&amp;VLOOKUP(R12,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S12&lt;&gt;"",", subType: '"&amp;VLOOKUP(S12,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T12&lt;&gt;"",", range: '"&amp;T12&amp;"'","")&amp;IF(V12&lt;&gt;"",", damage: '"&amp;V12&amp;"'","")&amp;IF(X12&lt;&gt;"",", capacity: '"&amp;X12&amp;"'","")&amp;IF(Y12&lt;&gt;"",", growth: "&amp;Y12&amp;"","")&amp;IF(Z12&lt;&gt;"",", cost: '"&amp;Z12&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE12, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF12&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH12&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ12&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL12&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN12&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB12="○",", sealable: true","")&amp;IF(AC12="○",", removable: true","")&amp;IF(AA12="○",", lie: true","")&amp;IF(AD12="○",", investable: true","")&amp;"},")</f>
         <v>'25-misora-o-n-1': {megami: 'misora', name: '弓流し', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ゆみながし', rubyEn: '', baseType: 'normal', type: 'attack', range: '4-7', damage: '2/1', text: '【常時】照準が合っているならば、この《攻撃》のオーラへのダメージは「-」になる。\n【攻撃後】現在の間合と照準が等しいならば、ダスト→自オーラ：1\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU12" s="31" t="str">
@@ -27664,7 +27840,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="44" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B13" s="44" t="s">
         <v>30</v>
@@ -27672,10 +27848,10 @@
       <c r="C13" s="44"/>
       <c r="D13" s="44"/>
       <c r="E13" s="44" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G13" s="61"/>
       <c r="H13" s="45"/>
@@ -27684,22 +27860,22 @@
       <c r="K13" s="62"/>
       <c r="L13" s="63"/>
       <c r="M13" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N13" s="44"/>
       <c r="O13" s="44"/>
       <c r="P13" s="44"/>
       <c r="Q13" s="44"/>
       <c r="R13" s="44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S13" s="45"/>
       <c r="T13" s="44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="U13" s="43"/>
       <c r="V13" s="44" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="W13" s="43"/>
       <c r="X13" s="44"/>
@@ -27710,7 +27886,7 @@
       <c r="AC13" s="44"/>
       <c r="AD13" s="44"/>
       <c r="AE13" s="47" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF13" s="49"/>
       <c r="AG13" s="63"/>
@@ -27727,7 +27903,7 @@
       <c r="AR13" s="43"/>
       <c r="AS13" s="43"/>
       <c r="AT13" s="30" t="str">
-        <f aca="false">IF( A13 = "", "", "'" &amp; A13 &amp; "': {megami: '" &amp; B13 &amp; "'" &amp; IF( C13 &lt;&gt; "", ", anotherID: '" &amp; C13 &amp; "', replace: '" &amp; D13 &amp; "'", "" ) &amp; ", name: '" &amp; SUBSTITUTE( E13, "'", "\'" ) &amp; "', nameEn: '" &amp; SUBSTITUTE( K13, "'", "\'" ) &amp; "', nameZh: '" &amp; SUBSTITUTE( G13, "'", "\'" ) &amp; "', nameZhG1: '" &amp; SUBSTITUTE( H13, "'", "\'" )&amp; "', nameKo: '" &amp; SUBSTITUTE( J13, "'", "\'" ) &amp; "', ruby: '" &amp; F13 &amp; "', rubyEn: '" &amp; L13 &amp; "', baseType: '" &amp; VLOOKUP( M13, マスタ!$A$1:$B$99, 2, 0 ) &amp; "'" &amp; IF( N13 = "○", ", extra: true", "" ) &amp; IF( O13 &lt;&gt; "", ", extraFrom: '" &amp; O13 &amp; "'", "" ) &amp; IF( P13 &lt;&gt; "", ", exchangabaleTo: '" &amp; P13 &amp; "'", "" ) &amp; IF( Q13 = "○", ", poison: true", "" ) &amp;IF(R13&lt;&gt;"", ", type: '"&amp;VLOOKUP(R13,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S13&lt;&gt;"",", subType: '"&amp;VLOOKUP(S13,マスタ!$D$1:$E$99,2,0)&amp;"'","") &amp; IF( T13 &lt;&gt; "", ", range: '" &amp; T13 &amp; "'" &amp; IF( U13 &lt;&gt; "", ", rangeOpened: '" &amp; U13 &amp; "'", "" ), "" ) &amp; IF( V13 &lt;&gt; "", ", damage: '" &amp; V13 &amp; "'" &amp; IF( OR( W13 &lt;&gt; "", AI13 &lt;&gt; "" ), ", damageOpened: '" &amp; W13 &amp; "'", "" ), "" ) &amp; IF( X13 &lt;&gt; "", ", capacity: '" &amp; X13 &amp; "'", "" ) &amp; IF( Y13 &lt;&gt; "", ", cost: '" &amp; Y13 &amp; "'", "" ) &amp; ", text: '" &amp; SUBSTITUTE( SUBSTITUTE( AE13, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ) &amp; "', textZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AG13, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AI13, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )&amp; "', textKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AK13, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AM13, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'" &amp; IF( OR( W13 &lt;&gt; "", AI13 &lt;&gt; "" ), ", textOpened: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AO13, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AP13, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )  &amp; "', textOpenedZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AQ13, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AR13, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AS13, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'", "" ) &amp; IF( Z13 = "○", ", sealable: true", "" ) &amp; IF( AA13 = "○", ", removable: true", "" ) &amp; "}," )</f>
+        <f aca="false">IF(A13="", "","'"&amp;A13&amp;"': {megami: '"&amp;B13&amp;"'"&amp;IF(C13&lt;&gt;"",", anotherID: '"&amp;C13&amp;"', replace: '"&amp;D13&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E13,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K13,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G13,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H13,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J13,"'","\'")&amp;"', ruby: '"&amp;F13&amp;"', rubyEn: '"&amp;L13&amp;IF(I13&lt;&gt;"", "', rubyZh: '"&amp;I13, "")&amp;"', baseType: '"&amp;VLOOKUP(M13,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N13="○",", extra: true","")&amp;IF(O13&lt;&gt;"",", extraFrom: '"&amp;O13&amp;"'","")&amp;IF(P13&lt;&gt;"",", exchangableTo: '"&amp;P13&amp;"'","")&amp;IF(Q13="○",", poison: true","")&amp;IF(R13&lt;&gt;"", ", type: '"&amp;VLOOKUP(R13,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S13&lt;&gt;"",", subType: '"&amp;VLOOKUP(S13,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T13&lt;&gt;"",", range: '"&amp;T13&amp;"'","")&amp;IF(V13&lt;&gt;"",", damage: '"&amp;V13&amp;"'","")&amp;IF(X13&lt;&gt;"",", capacity: '"&amp;X13&amp;"'","")&amp;IF(Y13&lt;&gt;"",", growth: "&amp;Y13&amp;"","")&amp;IF(Z13&lt;&gt;"",", cost: '"&amp;Z13&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE13, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF13&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH13&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ13&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL13&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN13&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB13="○",", sealable: true","")&amp;IF(AC13="○",", removable: true","")&amp;IF(AA13="○",", lie: true","")&amp;IF(AD13="○",", investable: true","")&amp;"},")</f>
         <v>'25-misora-o-n-2': {megami: 'misora', name: '狙い蹴り', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ねらいげり', rubyEn: '', baseType: 'normal', type: 'attack', range: '2-4', damage: '2/1', text: '【攻撃後】あなたの照準を1増加させるか、1減少させてもよい。', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU13" s="31" t="str">
@@ -28719,7 +28895,7 @@
     </row>
     <row r="14" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="44" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B14" s="44" t="s">
         <v>30</v>
@@ -28727,10 +28903,10 @@
       <c r="C14" s="44"/>
       <c r="D14" s="44"/>
       <c r="E14" s="44" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F14" s="44" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G14" s="61"/>
       <c r="H14" s="45"/>
@@ -28739,24 +28915,24 @@
       <c r="K14" s="62"/>
       <c r="L14" s="63"/>
       <c r="M14" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N14" s="44"/>
       <c r="O14" s="44"/>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S14" s="44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="T14" s="44" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U14" s="43"/>
       <c r="V14" s="44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W14" s="43"/>
       <c r="X14" s="44"/>
@@ -28767,7 +28943,7 @@
       <c r="AC14" s="44"/>
       <c r="AD14" s="44"/>
       <c r="AE14" s="47" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF14" s="49"/>
       <c r="AG14" s="63"/>
@@ -28784,12 +28960,12 @@
       <c r="AR14" s="43"/>
       <c r="AS14" s="43"/>
       <c r="AT14" s="30" t="str">
-        <f aca="false">IF( A14 = "", "", "'" &amp; A14 &amp; "': {megami: '" &amp; B14 &amp; "'" &amp; IF( C14 &lt;&gt; "", ", anotherID: '" &amp; C14 &amp; "', replace: '" &amp; D14 &amp; "'", "" ) &amp; ", name: '" &amp; SUBSTITUTE( E14, "'", "\'" ) &amp; "', nameEn: '" &amp; SUBSTITUTE( K14, "'", "\'" ) &amp; "', nameZh: '" &amp; SUBSTITUTE( G14, "'", "\'" ) &amp; "', nameZhG1: '" &amp; SUBSTITUTE( H14, "'", "\'" )&amp; "', nameKo: '" &amp; SUBSTITUTE( J14, "'", "\'" ) &amp; "', ruby: '" &amp; F14 &amp; "', rubyEn: '" &amp; L14 &amp; "', baseType: '" &amp; VLOOKUP( M14, マスタ!$A$1:$B$99, 2, 0 ) &amp; "'" &amp; IF( N14 = "○", ", extra: true", "" ) &amp; IF( O14 &lt;&gt; "", ", extraFrom: '" &amp; O14 &amp; "'", "" ) &amp; IF( P14 &lt;&gt; "", ", exchangabaleTo: '" &amp; P14 &amp; "'", "" ) &amp; IF( Q14 = "○", ", poison: true", "" ) &amp;IF(R14&lt;&gt;"", ", type: '"&amp;VLOOKUP(R14,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S14&lt;&gt;"",", subType: '"&amp;VLOOKUP(S14,マスタ!$D$1:$E$99,2,0)&amp;"'","") &amp; IF( T14 &lt;&gt; "", ", range: '" &amp; T14 &amp; "'" &amp; IF( U14 &lt;&gt; "", ", rangeOpened: '" &amp; U14 &amp; "'", "" ), "" ) &amp; IF( V14 &lt;&gt; "", ", damage: '" &amp; V14 &amp; "'" &amp; IF( OR( W14 &lt;&gt; "", AI14 &lt;&gt; "" ), ", damageOpened: '" &amp; W14 &amp; "'", "" ), "" ) &amp; IF( X14 &lt;&gt; "", ", capacity: '" &amp; X14 &amp; "'", "" ) &amp; IF( Y14 &lt;&gt; "", ", cost: '" &amp; Y14 &amp; "'", "" ) &amp; ", text: '" &amp; SUBSTITUTE( SUBSTITUTE( AE14, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ) &amp; "', textZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AG14, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AI14, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )&amp; "', textKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AK14, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AM14, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'" &amp; IF( OR( W14 &lt;&gt; "", AI14 &lt;&gt; "" ), ", textOpened: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AO14, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AP14, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )  &amp; "', textOpenedZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AQ14, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AR14, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AS14, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'", "" ) &amp; IF( Z14 = "○", ", sealable: true", "" ) &amp; IF( AA14 = "○", ", removable: true", "" ) &amp; "}," )</f>
+        <f aca="false">IF(A14="", "","'"&amp;A14&amp;"': {megami: '"&amp;B14&amp;"'"&amp;IF(C14&lt;&gt;"",", anotherID: '"&amp;C14&amp;"', replace: '"&amp;D14&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E14,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K14,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G14,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H14,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J14,"'","\'")&amp;"', ruby: '"&amp;F14&amp;"', rubyEn: '"&amp;L14&amp;IF(I14&lt;&gt;"", "', rubyZh: '"&amp;I14, "")&amp;"', baseType: '"&amp;VLOOKUP(M14,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N14="○",", extra: true","")&amp;IF(O14&lt;&gt;"",", extraFrom: '"&amp;O14&amp;"'","")&amp;IF(P14&lt;&gt;"",", exchangableTo: '"&amp;P14&amp;"'","")&amp;IF(Q14="○",", poison: true","")&amp;IF(R14&lt;&gt;"", ", type: '"&amp;VLOOKUP(R14,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S14&lt;&gt;"",", subType: '"&amp;VLOOKUP(S14,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T14&lt;&gt;"",", range: '"&amp;T14&amp;"'","")&amp;IF(V14&lt;&gt;"",", damage: '"&amp;V14&amp;"'","")&amp;IF(X14&lt;&gt;"",", capacity: '"&amp;X14&amp;"'","")&amp;IF(Y14&lt;&gt;"",", growth: "&amp;Y14&amp;"","")&amp;IF(Z14&lt;&gt;"",", cost: '"&amp;Z14&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE14, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF14&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH14&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ14&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL14&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN14&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB14="○",", sealable: true","")&amp;IF(AC14="○",", removable: true","")&amp;IF(AA14="○",", lie: true","")&amp;IF(AD14="○",", investable: true","")&amp;"},")</f>
         <v>'25-misora-o-n-3': {megami: 'misora', name: '風孔', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'かざあな', rubyEn: '', baseType: 'normal', type: 'attack', subType: 'reaction', range: '2-5', damage: '1/1', text: '【攻撃後】現在の間合と照準を比べて以下のいずれかを行う。\n・現在の間合＞照準…間合→ダスト：1\n・現在の間合＝照準…ダスト→自オーラ：1\n・現在の間合＜照準…ダスト→間合：1\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU14" s="31" t="str">
         <f aca="false">IF($A14&lt;&gt;"", "    /** 《"&amp;$E14&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A14, 3, 1)="-", RIGHT($A14,LEN($A14)-3), $A14)), "-", "_")&amp;": TCardId = '"&amp;$A14&amp;"';", "")</f>
-        <v>    /** 《風孔》 */ export const MISORA_O_N_3: TCardId = '25-misora-o-n-3';</v>
+        <v>/** 《風孔》 */ export const MISORA_O_N_3: TCardId = '25-misora-o-n-3';</v>
       </c>
       <c r="AV14" s="32" t="str">
         <f aca="false">IF($A14&lt;&gt;"", "    | '"&amp;$A14&amp;"'", "")</f>
@@ -29776,7 +29952,7 @@
     </row>
     <row r="15" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="44" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B15" s="44" t="s">
         <v>30</v>
@@ -29784,10 +29960,10 @@
       <c r="C15" s="44"/>
       <c r="D15" s="44"/>
       <c r="E15" s="44" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G15" s="61"/>
       <c r="H15" s="45"/>
@@ -29796,24 +29972,24 @@
       <c r="K15" s="62"/>
       <c r="L15" s="63"/>
       <c r="M15" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N15" s="44"/>
       <c r="O15" s="44"/>
       <c r="P15" s="44"/>
       <c r="Q15" s="44"/>
       <c r="R15" s="44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S15" s="45" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="T15" s="44" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U15" s="43"/>
       <c r="V15" s="44" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="W15" s="43"/>
       <c r="X15" s="44"/>
@@ -29824,7 +30000,7 @@
       <c r="AC15" s="44"/>
       <c r="AD15" s="44"/>
       <c r="AE15" s="47" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF15" s="49"/>
       <c r="AG15" s="63"/>
@@ -29841,12 +30017,12 @@
       <c r="AR15" s="43"/>
       <c r="AS15" s="43"/>
       <c r="AT15" s="30" t="str">
-        <f aca="false">IF( A15 = "", "", "'" &amp; A15 &amp; "': {megami: '" &amp; B15 &amp; "'" &amp; IF( C15 &lt;&gt; "", ", anotherID: '" &amp; C15 &amp; "', replace: '" &amp; D15 &amp; "'", "" ) &amp; ", name: '" &amp; SUBSTITUTE( E15, "'", "\'" ) &amp; "', nameEn: '" &amp; SUBSTITUTE( K15, "'", "\'" ) &amp; "', nameZh: '" &amp; SUBSTITUTE( G15, "'", "\'" ) &amp; "', nameZhG1: '" &amp; SUBSTITUTE( H15, "'", "\'" )&amp; "', nameKo: '" &amp; SUBSTITUTE( J15, "'", "\'" ) &amp; "', ruby: '" &amp; F15 &amp; "', rubyEn: '" &amp; L15 &amp; "', baseType: '" &amp; VLOOKUP( M15, マスタ!$A$1:$B$99, 2, 0 ) &amp; "'" &amp; IF( N15 = "○", ", extra: true", "" ) &amp; IF( O15 &lt;&gt; "", ", extraFrom: '" &amp; O15 &amp; "'", "" ) &amp; IF( P15 &lt;&gt; "", ", exchangabaleTo: '" &amp; P15 &amp; "'", "" ) &amp; IF( Q15 = "○", ", poison: true", "" ) &amp;IF(R15&lt;&gt;"", ", type: '"&amp;VLOOKUP(R15,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S15&lt;&gt;"",", subType: '"&amp;VLOOKUP(S15,マスタ!$D$1:$E$99,2,0)&amp;"'","") &amp; IF( T15 &lt;&gt; "", ", range: '" &amp; T15 &amp; "'" &amp; IF( U15 &lt;&gt; "", ", rangeOpened: '" &amp; U15 &amp; "'", "" ), "" ) &amp; IF( V15 &lt;&gt; "", ", damage: '" &amp; V15 &amp; "'" &amp; IF( OR( W15 &lt;&gt; "", AI15 &lt;&gt; "" ), ", damageOpened: '" &amp; W15 &amp; "'", "" ), "" ) &amp; IF( X15 &lt;&gt; "", ", capacity: '" &amp; X15 &amp; "'", "" ) &amp; IF( Y15 &lt;&gt; "", ", cost: '" &amp; Y15 &amp; "'", "" ) &amp; ", text: '" &amp; SUBSTITUTE( SUBSTITUTE( AE15, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ) &amp; "', textZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AG15, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AI15, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )&amp; "', textKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AK15, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AM15, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'" &amp; IF( OR( W15 &lt;&gt; "", AI15 &lt;&gt; "" ), ", textOpened: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AO15, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AP15, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )  &amp; "', textOpenedZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AQ15, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AR15, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AS15, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'", "" ) &amp; IF( Z15 = "○", ", sealable: true", "" ) &amp; IF( AA15 = "○", ", removable: true", "" ) &amp; "}," )</f>
+        <f aca="false">IF(A15="", "","'"&amp;A15&amp;"': {megami: '"&amp;B15&amp;"'"&amp;IF(C15&lt;&gt;"",", anotherID: '"&amp;C15&amp;"', replace: '"&amp;D15&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E15,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K15,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G15,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H15,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J15,"'","\'")&amp;"', ruby: '"&amp;F15&amp;"', rubyEn: '"&amp;L15&amp;IF(I15&lt;&gt;"", "', rubyZh: '"&amp;I15, "")&amp;"', baseType: '"&amp;VLOOKUP(M15,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N15="○",", extra: true","")&amp;IF(O15&lt;&gt;"",", extraFrom: '"&amp;O15&amp;"'","")&amp;IF(P15&lt;&gt;"",", exchangableTo: '"&amp;P15&amp;"'","")&amp;IF(Q15="○",", poison: true","")&amp;IF(R15&lt;&gt;"", ", type: '"&amp;VLOOKUP(R15,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S15&lt;&gt;"",", subType: '"&amp;VLOOKUP(S15,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T15&lt;&gt;"",", range: '"&amp;T15&amp;"'","")&amp;IF(V15&lt;&gt;"",", damage: '"&amp;V15&amp;"'","")&amp;IF(X15&lt;&gt;"",", capacity: '"&amp;X15&amp;"'","")&amp;IF(Y15&lt;&gt;"",", growth: "&amp;Y15&amp;"","")&amp;IF(Z15&lt;&gt;"",", cost: '"&amp;Z15&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE15, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF15&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH15&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ15&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL15&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN15&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB15="○",", sealable: true","")&amp;IF(AC15="○",", removable: true","")&amp;IF(AA15="○",", lie: true","")&amp;IF(AD15="○",", investable: true","")&amp;"},")</f>
         <v>'25-misora-o-n-4': {megami: 'misora', name: '甲矢乙矢', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'はやおとや', rubyEn: '', baseType: 'normal', type: 'attack', subType: 'fullpower', range: '5-15', damage: '5/1', text: '追尾\n【攻撃後】相手は手札から《攻撃》カード1枚を捨て札にする。それが行えない場合、相手は手札を公開し、相手の山札の上から3枚を伏せ札にする。\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU15" s="31" t="str">
         <f aca="false">IF($A15&lt;&gt;"", "    /** 《"&amp;$E15&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A15, 3, 1)="-", RIGHT($A15,LEN($A15)-3), $A15)), "-", "_")&amp;": TCardId = '"&amp;$A15&amp;"';", "")</f>
-        <v>    /** 《甲矢乙矢》 */ export const MISORA_O_N_4: TCardId = '25-misora-o-n-4';</v>
+        <v>/** 《甲矢乙矢》 */ export const MISORA_O_N_4: TCardId = '25-misora-o-n-4';</v>
       </c>
       <c r="AV15" s="32" t="str">
         <f aca="false">IF($A15&lt;&gt;"", "    | '"&amp;$A15&amp;"'", "")</f>
@@ -30833,7 +31009,7 @@
     </row>
     <row r="16" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="44" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B16" s="44" t="s">
         <v>30</v>
@@ -30841,10 +31017,10 @@
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G16" s="61"/>
       <c r="H16" s="45"/>
@@ -30853,14 +31029,14 @@
       <c r="K16" s="62"/>
       <c r="L16" s="63"/>
       <c r="M16" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N16" s="44"/>
       <c r="O16" s="44"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="S16" s="45"/>
       <c r="T16" s="44"/>
@@ -30875,7 +31051,7 @@
       <c r="AC16" s="44"/>
       <c r="AD16" s="44"/>
       <c r="AE16" s="47" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF16" s="49"/>
       <c r="AG16" s="63"/>
@@ -30892,12 +31068,12 @@
       <c r="AR16" s="43"/>
       <c r="AS16" s="43"/>
       <c r="AT16" s="30" t="str">
-        <f aca="false">IF( A16 = "", "", "'" &amp; A16 &amp; "': {megami: '" &amp; B16 &amp; "'" &amp; IF( C16 &lt;&gt; "", ", anotherID: '" &amp; C16 &amp; "', replace: '" &amp; D16 &amp; "'", "" ) &amp; ", name: '" &amp; SUBSTITUTE( E16, "'", "\'" ) &amp; "', nameEn: '" &amp; SUBSTITUTE( K16, "'", "\'" ) &amp; "', nameZh: '" &amp; SUBSTITUTE( G16, "'", "\'" ) &amp; "', nameZhG1: '" &amp; SUBSTITUTE( H16, "'", "\'" )&amp; "', nameKo: '" &amp; SUBSTITUTE( J16, "'", "\'" ) &amp; "', ruby: '" &amp; F16 &amp; "', rubyEn: '" &amp; L16 &amp; "', baseType: '" &amp; VLOOKUP( M16, マスタ!$A$1:$B$99, 2, 0 ) &amp; "'" &amp; IF( N16 = "○", ", extra: true", "" ) &amp; IF( O16 &lt;&gt; "", ", extraFrom: '" &amp; O16 &amp; "'", "" ) &amp; IF( P16 &lt;&gt; "", ", exchangabaleTo: '" &amp; P16 &amp; "'", "" ) &amp; IF( Q16 = "○", ", poison: true", "" ) &amp;IF(R16&lt;&gt;"", ", type: '"&amp;VLOOKUP(R16,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S16&lt;&gt;"",", subType: '"&amp;VLOOKUP(S16,マスタ!$D$1:$E$99,2,0)&amp;"'","") &amp; IF( T16 &lt;&gt; "", ", range: '" &amp; T16 &amp; "'" &amp; IF( U16 &lt;&gt; "", ", rangeOpened: '" &amp; U16 &amp; "'", "" ), "" ) &amp; IF( V16 &lt;&gt; "", ", damage: '" &amp; V16 &amp; "'" &amp; IF( OR( W16 &lt;&gt; "", AI16 &lt;&gt; "" ), ", damageOpened: '" &amp; W16 &amp; "'", "" ), "" ) &amp; IF( X16 &lt;&gt; "", ", capacity: '" &amp; X16 &amp; "'", "" ) &amp; IF( Y16 &lt;&gt; "", ", cost: '" &amp; Y16 &amp; "'", "" ) &amp; ", text: '" &amp; SUBSTITUTE( SUBSTITUTE( AE16, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ) &amp; "', textZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AG16, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AI16, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )&amp; "', textKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AK16, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AM16, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'" &amp; IF( OR( W16 &lt;&gt; "", AI16 &lt;&gt; "" ), ", textOpened: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AO16, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AP16, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )  &amp; "', textOpenedZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AQ16, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AR16, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AS16, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'", "" ) &amp; IF( Z16 = "○", ", sealable: true", "" ) &amp; IF( AA16 = "○", ", removable: true", "" ) &amp; "}," )</f>
+        <f aca="false">IF(A16="", "","'"&amp;A16&amp;"': {megami: '"&amp;B16&amp;"'"&amp;IF(C16&lt;&gt;"",", anotherID: '"&amp;C16&amp;"', replace: '"&amp;D16&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E16,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K16,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G16,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H16,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J16,"'","\'")&amp;"', ruby: '"&amp;F16&amp;"', rubyEn: '"&amp;L16&amp;IF(I16&lt;&gt;"", "', rubyZh: '"&amp;I16, "")&amp;"', baseType: '"&amp;VLOOKUP(M16,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N16="○",", extra: true","")&amp;IF(O16&lt;&gt;"",", extraFrom: '"&amp;O16&amp;"'","")&amp;IF(P16&lt;&gt;"",", exchangableTo: '"&amp;P16&amp;"'","")&amp;IF(Q16="○",", poison: true","")&amp;IF(R16&lt;&gt;"", ", type: '"&amp;VLOOKUP(R16,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S16&lt;&gt;"",", subType: '"&amp;VLOOKUP(S16,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T16&lt;&gt;"",", range: '"&amp;T16&amp;"'","")&amp;IF(V16&lt;&gt;"",", damage: '"&amp;V16&amp;"'","")&amp;IF(X16&lt;&gt;"",", capacity: '"&amp;X16&amp;"'","")&amp;IF(Y16&lt;&gt;"",", growth: "&amp;Y16&amp;"","")&amp;IF(Z16&lt;&gt;"",", cost: '"&amp;Z16&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE16, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF16&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH16&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ16&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL16&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN16&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB16="○",", sealable: true","")&amp;IF(AC16="○",", removable: true","")&amp;IF(AA16="○",", lie: true","")&amp;IF(AD16="○",", investable: true","")&amp;"},")</f>
         <v>'25-misora-o-n-5': {megami: 'misora', name: '精密化', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'せいみつか', rubyEn: '', baseType: 'normal', type: 'action', text: '集中力を1得る。\nこのターンにあなたが次に行う他のメガミの通常札によるオーラへのダメージが「-」でない《攻撃》は、照準が合っているならば+1/+1となる。\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU16" s="31" t="str">
         <f aca="false">IF($A16&lt;&gt;"", "    /** 《"&amp;$E16&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A16, 3, 1)="-", RIGHT($A16,LEN($A16)-3), $A16)), "-", "_")&amp;": TCardId = '"&amp;$A16&amp;"';", "")</f>
-        <v>    /** 《精密化》 */ export const MISORA_O_N_5: TCardId = '25-misora-o-n-5';</v>
+        <v>/** 《精密化》 */ export const MISORA_O_N_5: TCardId = '25-misora-o-n-5';</v>
       </c>
       <c r="AV16" s="32" t="str">
         <f aca="false">IF($A16&lt;&gt;"", "    | '"&amp;$A16&amp;"'", "")</f>
@@ -31884,7 +32060,7 @@
     </row>
     <row r="17" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="44" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B17" s="44" t="s">
         <v>30</v>
@@ -31892,10 +32068,10 @@
       <c r="C17" s="44"/>
       <c r="D17" s="44"/>
       <c r="E17" s="44" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F17" s="44" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G17" s="61"/>
       <c r="H17" s="45"/>
@@ -31904,14 +32080,14 @@
       <c r="K17" s="62"/>
       <c r="L17" s="63"/>
       <c r="M17" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N17" s="44"/>
       <c r="O17" s="44"/>
       <c r="P17" s="44"/>
       <c r="Q17" s="44"/>
       <c r="R17" s="44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="S17" s="45"/>
       <c r="T17" s="44"/>
@@ -31926,7 +32102,7 @@
       <c r="AC17" s="44"/>
       <c r="AD17" s="44"/>
       <c r="AE17" s="47" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF17" s="49"/>
       <c r="AG17" s="63"/>
@@ -31943,12 +32119,12 @@
       <c r="AR17" s="43"/>
       <c r="AS17" s="43"/>
       <c r="AT17" s="30" t="str">
-        <f aca="false">IF( A17 = "", "", "'" &amp; A17 &amp; "': {megami: '" &amp; B17 &amp; "'" &amp; IF( C17 &lt;&gt; "", ", anotherID: '" &amp; C17 &amp; "', replace: '" &amp; D17 &amp; "'", "" ) &amp; ", name: '" &amp; SUBSTITUTE( E17, "'", "\'" ) &amp; "', nameEn: '" &amp; SUBSTITUTE( K17, "'", "\'" ) &amp; "', nameZh: '" &amp; SUBSTITUTE( G17, "'", "\'" ) &amp; "', nameZhG1: '" &amp; SUBSTITUTE( H17, "'", "\'" )&amp; "', nameKo: '" &amp; SUBSTITUTE( J17, "'", "\'" ) &amp; "', ruby: '" &amp; F17 &amp; "', rubyEn: '" &amp; L17 &amp; "', baseType: '" &amp; VLOOKUP( M17, マスタ!$A$1:$B$99, 2, 0 ) &amp; "'" &amp; IF( N17 = "○", ", extra: true", "" ) &amp; IF( O17 &lt;&gt; "", ", extraFrom: '" &amp; O17 &amp; "'", "" ) &amp; IF( P17 &lt;&gt; "", ", exchangabaleTo: '" &amp; P17 &amp; "'", "" ) &amp; IF( Q17 = "○", ", poison: true", "" ) &amp;IF(R17&lt;&gt;"", ", type: '"&amp;VLOOKUP(R17,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S17&lt;&gt;"",", subType: '"&amp;VLOOKUP(S17,マスタ!$D$1:$E$99,2,0)&amp;"'","") &amp; IF( T17 &lt;&gt; "", ", range: '" &amp; T17 &amp; "'" &amp; IF( U17 &lt;&gt; "", ", rangeOpened: '" &amp; U17 &amp; "'", "" ), "" ) &amp; IF( V17 &lt;&gt; "", ", damage: '" &amp; V17 &amp; "'" &amp; IF( OR( W17 &lt;&gt; "", AI17 &lt;&gt; "" ), ", damageOpened: '" &amp; W17 &amp; "'", "" ), "" ) &amp; IF( X17 &lt;&gt; "", ", capacity: '" &amp; X17 &amp; "'", "" ) &amp; IF( Y17 &lt;&gt; "", ", cost: '" &amp; Y17 &amp; "'", "" ) &amp; ", text: '" &amp; SUBSTITUTE( SUBSTITUTE( AE17, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ) &amp; "', textZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AG17, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AI17, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )&amp; "', textKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AK17, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AM17, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'" &amp; IF( OR( W17 &lt;&gt; "", AI17 &lt;&gt; "" ), ", textOpened: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AO17, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AP17, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )  &amp; "', textOpenedZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AQ17, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AR17, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AS17, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'", "" ) &amp; IF( Z17 = "○", ", sealable: true", "" ) &amp; IF( AA17 = "○", ", removable: true", "" ) &amp; "}," )</f>
+        <f aca="false">IF(A17="", "","'"&amp;A17&amp;"': {megami: '"&amp;B17&amp;"'"&amp;IF(C17&lt;&gt;"",", anotherID: '"&amp;C17&amp;"', replace: '"&amp;D17&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E17,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K17,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G17,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H17,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J17,"'","\'")&amp;"', ruby: '"&amp;F17&amp;"', rubyEn: '"&amp;L17&amp;IF(I17&lt;&gt;"", "', rubyZh: '"&amp;I17, "")&amp;"', baseType: '"&amp;VLOOKUP(M17,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N17="○",", extra: true","")&amp;IF(O17&lt;&gt;"",", extraFrom: '"&amp;O17&amp;"'","")&amp;IF(P17&lt;&gt;"",", exchangableTo: '"&amp;P17&amp;"'","")&amp;IF(Q17="○",", poison: true","")&amp;IF(R17&lt;&gt;"", ", type: '"&amp;VLOOKUP(R17,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S17&lt;&gt;"",", subType: '"&amp;VLOOKUP(S17,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T17&lt;&gt;"",", range: '"&amp;T17&amp;"'","")&amp;IF(V17&lt;&gt;"",", damage: '"&amp;V17&amp;"'","")&amp;IF(X17&lt;&gt;"",", capacity: '"&amp;X17&amp;"'","")&amp;IF(Y17&lt;&gt;"",", growth: "&amp;Y17&amp;"","")&amp;IF(Z17&lt;&gt;"",", cost: '"&amp;Z17&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE17, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF17&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH17&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ17&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL17&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN17&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB17="○",", sealable: true","")&amp;IF(AC17="○",", removable: true","")&amp;IF(AA17="○",", lie: true","")&amp;IF(AD17="○",", investable: true","")&amp;"},")</f>
         <v>'25-misora-o-n-6': {megami: 'misora', name: '追尾撃', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ついびげき', rubyEn: '', baseType: 'normal', type: 'action', text: '眼前構築で選んでいない他のメガミのカードまたは伏せ札のカードから、《全力》でない《攻撃》の通常札1枚を選び、それに追尾を与えて使用する。ゲーム外から使用したそのカードが領域を移動するならば、代わりに裏向きで取り除く。(眼前構築で選んでいない状態に戻る)', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU17" s="31" t="str">
         <f aca="false">IF($A17&lt;&gt;"", "    /** 《"&amp;$E17&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A17, 3, 1)="-", RIGHT($A17,LEN($A17)-3), $A17)), "-", "_")&amp;": TCardId = '"&amp;$A17&amp;"';", "")</f>
-        <v>    /** 《追尾撃》 */ export const MISORA_O_N_6: TCardId = '25-misora-o-n-6';</v>
+        <v>/** 《追尾撃》 */ export const MISORA_O_N_6: TCardId = '25-misora-o-n-6';</v>
       </c>
       <c r="AV17" s="32" t="str">
         <f aca="false">IF($A17&lt;&gt;"", "    | '"&amp;$A17&amp;"'", "")</f>
@@ -32935,7 +33111,7 @@
     </row>
     <row r="18" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="44" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B18" s="44" t="s">
         <v>30</v>
@@ -32943,10 +33119,10 @@
       <c r="C18" s="44"/>
       <c r="D18" s="44"/>
       <c r="E18" s="44" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G18" s="61"/>
       <c r="H18" s="45"/>
@@ -32955,14 +33131,14 @@
       <c r="K18" s="62"/>
       <c r="L18" s="63"/>
       <c r="M18" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N18" s="44"/>
       <c r="O18" s="44"/>
       <c r="P18" s="44"/>
       <c r="Q18" s="44"/>
       <c r="R18" s="44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S18" s="45"/>
       <c r="T18" s="44"/>
@@ -32970,7 +33146,7 @@
       <c r="V18" s="44"/>
       <c r="W18" s="43"/>
       <c r="X18" s="44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Y18" s="44"/>
       <c r="Z18" s="44"/>
@@ -32979,7 +33155,7 @@
       <c r="AC18" s="44"/>
       <c r="AD18" s="44"/>
       <c r="AE18" s="47" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF18" s="49"/>
       <c r="AG18" s="63"/>
@@ -32996,12 +33172,12 @@
       <c r="AR18" s="43"/>
       <c r="AS18" s="43"/>
       <c r="AT18" s="30" t="str">
-        <f aca="false">IF( A18 = "", "", "'" &amp; A18 &amp; "': {megami: '" &amp; B18 &amp; "'" &amp; IF( C18 &lt;&gt; "", ", anotherID: '" &amp; C18 &amp; "', replace: '" &amp; D18 &amp; "'", "" ) &amp; ", name: '" &amp; SUBSTITUTE( E18, "'", "\'" ) &amp; "', nameEn: '" &amp; SUBSTITUTE( K18, "'", "\'" ) &amp; "', nameZh: '" &amp; SUBSTITUTE( G18, "'", "\'" ) &amp; "', nameZhG1: '" &amp; SUBSTITUTE( H18, "'", "\'" )&amp; "', nameKo: '" &amp; SUBSTITUTE( J18, "'", "\'" ) &amp; "', ruby: '" &amp; F18 &amp; "', rubyEn: '" &amp; L18 &amp; "', baseType: '" &amp; VLOOKUP( M18, マスタ!$A$1:$B$99, 2, 0 ) &amp; "'" &amp; IF( N18 = "○", ", extra: true", "" ) &amp; IF( O18 &lt;&gt; "", ", extraFrom: '" &amp; O18 &amp; "'", "" ) &amp; IF( P18 &lt;&gt; "", ", exchangabaleTo: '" &amp; P18 &amp; "'", "" ) &amp; IF( Q18 = "○", ", poison: true", "" ) &amp;IF(R18&lt;&gt;"", ", type: '"&amp;VLOOKUP(R18,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S18&lt;&gt;"",", subType: '"&amp;VLOOKUP(S18,マスタ!$D$1:$E$99,2,0)&amp;"'","") &amp; IF( T18 &lt;&gt; "", ", range: '" &amp; T18 &amp; "'" &amp; IF( U18 &lt;&gt; "", ", rangeOpened: '" &amp; U18 &amp; "'", "" ), "" ) &amp; IF( V18 &lt;&gt; "", ", damage: '" &amp; V18 &amp; "'" &amp; IF( OR( W18 &lt;&gt; "", AI18 &lt;&gt; "" ), ", damageOpened: '" &amp; W18 &amp; "'", "" ), "" ) &amp; IF( X18 &lt;&gt; "", ", capacity: '" &amp; X18 &amp; "'", "" ) &amp; IF( Y18 &lt;&gt; "", ", cost: '" &amp; Y18 &amp; "'", "" ) &amp; ", text: '" &amp; SUBSTITUTE( SUBSTITUTE( AE18, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ) &amp; "', textZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AG18, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AI18, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )&amp; "', textKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AK18, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AM18, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'" &amp; IF( OR( W18 &lt;&gt; "", AI18 &lt;&gt; "" ), ", textOpened: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AO18, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AP18, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )  &amp; "', textOpenedZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AQ18, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AR18, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AS18, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'", "" ) &amp; IF( Z18 = "○", ", sealable: true", "" ) &amp; IF( AA18 = "○", ", removable: true", "" ) &amp; "}," )</f>
+        <f aca="false">IF(A18="", "","'"&amp;A18&amp;"': {megami: '"&amp;B18&amp;"'"&amp;IF(C18&lt;&gt;"",", anotherID: '"&amp;C18&amp;"', replace: '"&amp;D18&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E18,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K18,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G18,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H18,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J18,"'","\'")&amp;"', ruby: '"&amp;F18&amp;"', rubyEn: '"&amp;L18&amp;IF(I18&lt;&gt;"", "', rubyZh: '"&amp;I18, "")&amp;"', baseType: '"&amp;VLOOKUP(M18,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N18="○",", extra: true","")&amp;IF(O18&lt;&gt;"",", extraFrom: '"&amp;O18&amp;"'","")&amp;IF(P18&lt;&gt;"",", exchangableTo: '"&amp;P18&amp;"'","")&amp;IF(Q18="○",", poison: true","")&amp;IF(R18&lt;&gt;"", ", type: '"&amp;VLOOKUP(R18,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S18&lt;&gt;"",", subType: '"&amp;VLOOKUP(S18,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T18&lt;&gt;"",", range: '"&amp;T18&amp;"'","")&amp;IF(V18&lt;&gt;"",", damage: '"&amp;V18&amp;"'","")&amp;IF(X18&lt;&gt;"",", capacity: '"&amp;X18&amp;"'","")&amp;IF(Y18&lt;&gt;"",", growth: "&amp;Y18&amp;"","")&amp;IF(Z18&lt;&gt;"",", cost: '"&amp;Z18&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE18, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF18&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH18&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ18&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL18&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN18&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB18="○",", sealable: true","")&amp;IF(AC18="○",", removable: true","")&amp;IF(AA18="○",", lie: true","")&amp;IF(AD18="○",", investable: true","")&amp;"},")</f>
         <v>'25-misora-o-n-7': {megami: 'misora', name: '空の翼', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'そらのつばさ', rubyEn: '', baseType: 'normal', type: 'enhance', capacity: '2', text: '終端　間合制限(0-3)\n【展開時】相オーラ→間合：2\n【破棄時】このターン中、現在の間合は1増加し、達人の間合は1大きくなる。\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU18" s="31" t="str">
         <f aca="false">IF($A18&lt;&gt;"", "    /** 《"&amp;$E18&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A18, 3, 1)="-", RIGHT($A18,LEN($A18)-3), $A18)), "-", "_")&amp;": TCardId = '"&amp;$A18&amp;"';", "")</f>
-        <v>    /** 《空の翼》 */ export const MISORA_O_N_7: TCardId = '25-misora-o-n-7';</v>
+        <v>/** 《空の翼》 */ export const MISORA_O_N_7: TCardId = '25-misora-o-n-7';</v>
       </c>
       <c r="AV18" s="32" t="str">
         <f aca="false">IF($A18&lt;&gt;"", "    | '"&amp;$A18&amp;"'", "")</f>
@@ -33988,7 +34164,7 @@
     </row>
     <row r="19" customFormat="false" ht="72.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="44" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B19" s="44" t="s">
         <v>30</v>
@@ -33996,7 +34172,7 @@
       <c r="C19" s="44"/>
       <c r="D19" s="44"/>
       <c r="E19" s="44" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F19" s="44"/>
       <c r="G19" s="61"/>
@@ -34006,35 +34182,35 @@
       <c r="K19" s="62"/>
       <c r="L19" s="63"/>
       <c r="M19" s="34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N19" s="44"/>
       <c r="O19" s="44"/>
       <c r="P19" s="44"/>
       <c r="Q19" s="44"/>
       <c r="R19" s="44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S19" s="45"/>
       <c r="T19" s="44" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U19" s="43"/>
       <c r="V19" s="44" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="W19" s="43"/>
       <c r="X19" s="44"/>
       <c r="Y19" s="44"/>
       <c r="Z19" s="44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AA19" s="44"/>
       <c r="AB19" s="44"/>
       <c r="AC19" s="44"/>
       <c r="AD19" s="44"/>
       <c r="AE19" s="47" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF19" s="49"/>
       <c r="AG19" s="63"/>
@@ -34051,12 +34227,12 @@
       <c r="AR19" s="43"/>
       <c r="AS19" s="43"/>
       <c r="AT19" s="30" t="str">
-        <f aca="false">IF( A19 = "", "", "'" &amp; A19 &amp; "': {megami: '" &amp; B19 &amp; "'" &amp; IF( C19 &lt;&gt; "", ", anotherID: '" &amp; C19 &amp; "', replace: '" &amp; D19 &amp; "'", "" ) &amp; ", name: '" &amp; SUBSTITUTE( E19, "'", "\'" ) &amp; "', nameEn: '" &amp; SUBSTITUTE( K19, "'", "\'" ) &amp; "', nameZh: '" &amp; SUBSTITUTE( G19, "'", "\'" ) &amp; "', nameZhG1: '" &amp; SUBSTITUTE( H19, "'", "\'" )&amp; "', nameKo: '" &amp; SUBSTITUTE( J19, "'", "\'" ) &amp; "', ruby: '" &amp; F19 &amp; "', rubyEn: '" &amp; L19 &amp; "', baseType: '" &amp; VLOOKUP( M19, マスタ!$A$1:$B$99, 2, 0 ) &amp; "'" &amp; IF( N19 = "○", ", extra: true", "" ) &amp; IF( O19 &lt;&gt; "", ", extraFrom: '" &amp; O19 &amp; "'", "" ) &amp; IF( P19 &lt;&gt; "", ", exchangabaleTo: '" &amp; P19 &amp; "'", "" ) &amp; IF( Q19 = "○", ", poison: true", "" ) &amp;IF(R19&lt;&gt;"", ", type: '"&amp;VLOOKUP(R19,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S19&lt;&gt;"",", subType: '"&amp;VLOOKUP(S19,マスタ!$D$1:$E$99,2,0)&amp;"'","") &amp; IF( T19 &lt;&gt; "", ", range: '" &amp; T19 &amp; "'" &amp; IF( U19 &lt;&gt; "", ", rangeOpened: '" &amp; U19 &amp; "'", "" ), "" ) &amp; IF( V19 &lt;&gt; "", ", damage: '" &amp; V19 &amp; "'" &amp; IF( OR( W19 &lt;&gt; "", AI19 &lt;&gt; "" ), ", damageOpened: '" &amp; W19 &amp; "'", "" ), "" ) &amp; IF( X19 &lt;&gt; "", ", capacity: '" &amp; X19 &amp; "'", "" ) &amp; IF( Y19 &lt;&gt; "", ", cost: '" &amp; Y19 &amp; "'", "" ) &amp; ", text: '" &amp; SUBSTITUTE( SUBSTITUTE( AE19, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ) &amp; "', textZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AG19, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AI19, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )&amp; "', textKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AK19, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AM19, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'" &amp; IF( OR( W19 &lt;&gt; "", AI19 &lt;&gt; "" ), ", textOpened: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AO19, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AP19, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )  &amp; "', textOpenedZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AQ19, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AR19, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AS19, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'", "" ) &amp; IF( Z19 = "○", ", sealable: true", "" ) &amp; IF( AA19 = "○", ", removable: true", "" ) &amp; "}," )</f>
-        <v>'25-misora-o-s-1': {megami: 'misora', name: 'ミハテヌハテ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'special', type: 'attack', range: 'X', damage: '-/1', text: '追尾　対応不可\n【常時】Xは3にこのカードの上の桜花結晶の数の2倍を加えた値に等しい。\n【攻撃後】Xが7以上ならば、相手の山札を全て伏せ札にする。\n【使用済】あなたの終了フェイズにこのカードの上にダストから1つ桜花結晶を置き、このカードを未使用に戻す。\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
+        <f aca="false">IF(A19="", "","'"&amp;A19&amp;"': {megami: '"&amp;B19&amp;"'"&amp;IF(C19&lt;&gt;"",", anotherID: '"&amp;C19&amp;"', replace: '"&amp;D19&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E19,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K19,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G19,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H19,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J19,"'","\'")&amp;"', ruby: '"&amp;F19&amp;"', rubyEn: '"&amp;L19&amp;IF(I19&lt;&gt;"", "', rubyZh: '"&amp;I19, "")&amp;"', baseType: '"&amp;VLOOKUP(M19,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N19="○",", extra: true","")&amp;IF(O19&lt;&gt;"",", extraFrom: '"&amp;O19&amp;"'","")&amp;IF(P19&lt;&gt;"",", exchangableTo: '"&amp;P19&amp;"'","")&amp;IF(Q19="○",", poison: true","")&amp;IF(R19&lt;&gt;"", ", type: '"&amp;VLOOKUP(R19,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S19&lt;&gt;"",", subType: '"&amp;VLOOKUP(S19,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T19&lt;&gt;"",", range: '"&amp;T19&amp;"'","")&amp;IF(V19&lt;&gt;"",", damage: '"&amp;V19&amp;"'","")&amp;IF(X19&lt;&gt;"",", capacity: '"&amp;X19&amp;"'","")&amp;IF(Y19&lt;&gt;"",", growth: "&amp;Y19&amp;"","")&amp;IF(Z19&lt;&gt;"",", cost: '"&amp;Z19&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE19, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF19&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH19&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ19&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL19&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN19&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB19="○",", sealable: true","")&amp;IF(AC19="○",", removable: true","")&amp;IF(AA19="○",", lie: true","")&amp;IF(AD19="○",", investable: true","")&amp;"},")</f>
+        <v>'25-misora-o-s-1': {megami: 'misora', name: 'ミハテヌハテ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'special', type: 'attack', range: 'X', damage: '-/1', cost: '2', text: '追尾　対応不可\n【常時】Xは3にこのカードの上の桜花結晶の数の2倍を加えた値に等しい。\n【攻撃後】Xが7以上ならば、相手の山札を全て伏せ札にする。\n【使用済】あなたの終了フェイズにこのカードの上にダストから1つ桜花結晶を置き、このカードを未使用に戻す。\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU19" s="31" t="str">
         <f aca="false">IF($A19&lt;&gt;"", "    /** 《"&amp;$E19&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A19, 3, 1)="-", RIGHT($A19,LEN($A19)-3), $A19)), "-", "_")&amp;": TCardId = '"&amp;$A19&amp;"';", "")</f>
-        <v>    /** 《ミハテヌハテ》 */ export const MISORA_O_S_1: TCardId = '25-misora-o-s-1';</v>
+        <v>/** 《ミハテヌハテ》 */ export const MISORA_O_S_1: TCardId = '25-misora-o-s-1';</v>
       </c>
       <c r="AV19" s="32" t="str">
         <f aca="false">IF($A19&lt;&gt;"", "    | '"&amp;$A19&amp;"'", "")</f>
@@ -35043,7 +35219,7 @@
     </row>
     <row r="20" customFormat="false" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="44" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B20" s="44" t="s">
         <v>30</v>
@@ -35051,7 +35227,7 @@
       <c r="C20" s="44"/>
       <c r="D20" s="44"/>
       <c r="E20" s="44" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F20" s="44"/>
       <c r="G20" s="61"/>
@@ -35061,14 +35237,14 @@
       <c r="K20" s="62"/>
       <c r="L20" s="63"/>
       <c r="M20" s="34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N20" s="44"/>
       <c r="O20" s="44"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S20" s="45"/>
       <c r="T20" s="44"/>
@@ -35076,18 +35252,18 @@
       <c r="V20" s="44"/>
       <c r="W20" s="43"/>
       <c r="X20" s="44" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y20" s="44"/>
       <c r="Z20" s="44" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AA20" s="44"/>
       <c r="AB20" s="44"/>
       <c r="AC20" s="44"/>
       <c r="AD20" s="44"/>
       <c r="AE20" s="47" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF20" s="49"/>
       <c r="AG20" s="63"/>
@@ -35104,12 +35280,12 @@
       <c r="AR20" s="43"/>
       <c r="AS20" s="43"/>
       <c r="AT20" s="30" t="str">
-        <f aca="false">IF( A20 = "", "", "'" &amp; A20 &amp; "': {megami: '" &amp; B20 &amp; "'" &amp; IF( C20 &lt;&gt; "", ", anotherID: '" &amp; C20 &amp; "', replace: '" &amp; D20 &amp; "'", "" ) &amp; ", name: '" &amp; SUBSTITUTE( E20, "'", "\'" ) &amp; "', nameEn: '" &amp; SUBSTITUTE( K20, "'", "\'" ) &amp; "', nameZh: '" &amp; SUBSTITUTE( G20, "'", "\'" ) &amp; "', nameZhG1: '" &amp; SUBSTITUTE( H20, "'", "\'" )&amp; "', nameKo: '" &amp; SUBSTITUTE( J20, "'", "\'" ) &amp; "', ruby: '" &amp; F20 &amp; "', rubyEn: '" &amp; L20 &amp; "', baseType: '" &amp; VLOOKUP( M20, マスタ!$A$1:$B$99, 2, 0 ) &amp; "'" &amp; IF( N20 = "○", ", extra: true", "" ) &amp; IF( O20 &lt;&gt; "", ", extraFrom: '" &amp; O20 &amp; "'", "" ) &amp; IF( P20 &lt;&gt; "", ", exchangabaleTo: '" &amp; P20 &amp; "'", "" ) &amp; IF( Q20 = "○", ", poison: true", "" ) &amp;IF(R20&lt;&gt;"", ", type: '"&amp;VLOOKUP(R20,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S20&lt;&gt;"",", subType: '"&amp;VLOOKUP(S20,マスタ!$D$1:$E$99,2,0)&amp;"'","") &amp; IF( T20 &lt;&gt; "", ", range: '" &amp; T20 &amp; "'" &amp; IF( U20 &lt;&gt; "", ", rangeOpened: '" &amp; U20 &amp; "'", "" ), "" ) &amp; IF( V20 &lt;&gt; "", ", damage: '" &amp; V20 &amp; "'" &amp; IF( OR( W20 &lt;&gt; "", AI20 &lt;&gt; "" ), ", damageOpened: '" &amp; W20 &amp; "'", "" ), "" ) &amp; IF( X20 &lt;&gt; "", ", capacity: '" &amp; X20 &amp; "'", "" ) &amp; IF( Y20 &lt;&gt; "", ", cost: '" &amp; Y20 &amp; "'", "" ) &amp; ", text: '" &amp; SUBSTITUTE( SUBSTITUTE( AE20, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ) &amp; "', textZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AG20, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AI20, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )&amp; "', textKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AK20, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AM20, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'" &amp; IF( OR( W20 &lt;&gt; "", AI20 &lt;&gt; "" ), ", textOpened: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AO20, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AP20, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )  &amp; "', textOpenedZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AQ20, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AR20, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AS20, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'", "" ) &amp; IF( Z20 = "○", ", sealable: true", "" ) &amp; IF( AA20 = "○", ", removable: true", "" ) &amp; "}," )</f>
-        <v>'25-misora-o-s-2': {megami: 'misora', name: 'ツクモノクモ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'special', type: 'enhance', capacity: '1', text: '【展開中】照準があるならば、現在の問合は照準に等しくなる。\n【展開中】あなたは基本動作《前進》と《離脱》を行えない。\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
+        <f aca="false">IF(A20="", "","'"&amp;A20&amp;"': {megami: '"&amp;B20&amp;"'"&amp;IF(C20&lt;&gt;"",", anotherID: '"&amp;C20&amp;"', replace: '"&amp;D20&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E20,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K20,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G20,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H20,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J20,"'","\'")&amp;"', ruby: '"&amp;F20&amp;"', rubyEn: '"&amp;L20&amp;IF(I20&lt;&gt;"", "', rubyZh: '"&amp;I20, "")&amp;"', baseType: '"&amp;VLOOKUP(M20,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N20="○",", extra: true","")&amp;IF(O20&lt;&gt;"",", extraFrom: '"&amp;O20&amp;"'","")&amp;IF(P20&lt;&gt;"",", exchangableTo: '"&amp;P20&amp;"'","")&amp;IF(Q20="○",", poison: true","")&amp;IF(R20&lt;&gt;"", ", type: '"&amp;VLOOKUP(R20,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S20&lt;&gt;"",", subType: '"&amp;VLOOKUP(S20,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T20&lt;&gt;"",", range: '"&amp;T20&amp;"'","")&amp;IF(V20&lt;&gt;"",", damage: '"&amp;V20&amp;"'","")&amp;IF(X20&lt;&gt;"",", capacity: '"&amp;X20&amp;"'","")&amp;IF(Y20&lt;&gt;"",", growth: "&amp;Y20&amp;"","")&amp;IF(Z20&lt;&gt;"",", cost: '"&amp;Z20&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE20, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF20&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH20&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ20&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL20&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN20&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB20="○",", sealable: true","")&amp;IF(AC20="○",", removable: true","")&amp;IF(AA20="○",", lie: true","")&amp;IF(AD20="○",", investable: true","")&amp;"},")</f>
+        <v>'25-misora-o-s-2': {megami: 'misora', name: 'ツクモノクモ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'special', type: 'enhance', capacity: '1', cost: '1', text: '【展開中】照準があるならば、現在の問合は照準に等しくなる。\n【展開中】あなたは基本動作《前進》と《離脱》を行えない。\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU20" s="31" t="str">
         <f aca="false">IF($A20&lt;&gt;"", "    /** 《"&amp;$E20&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A20, 3, 1)="-", RIGHT($A20,LEN($A20)-3), $A20)), "-", "_")&amp;": TCardId = '"&amp;$A20&amp;"';", "")</f>
-        <v>    /** 《ツクモノクモ》 */ export const MISORA_O_S_2: TCardId = '25-misora-o-s-2';</v>
+        <v>/** 《ツクモノクモ》 */ export const MISORA_O_S_2: TCardId = '25-misora-o-s-2';</v>
       </c>
       <c r="AV20" s="32" t="str">
         <f aca="false">IF($A20&lt;&gt;"", "    | '"&amp;$A20&amp;"'", "")</f>
@@ -36096,7 +36272,7 @@
     </row>
     <row r="21" customFormat="false" ht="62.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="44" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B21" s="44" t="s">
         <v>30</v>
@@ -36104,7 +36280,7 @@
       <c r="C21" s="44"/>
       <c r="D21" s="44"/>
       <c r="E21" s="44" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F21" s="44"/>
       <c r="G21" s="61"/>
@@ -36114,35 +36290,35 @@
       <c r="K21" s="62"/>
       <c r="L21" s="63"/>
       <c r="M21" s="34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N21" s="44"/>
       <c r="O21" s="44"/>
       <c r="P21" s="44"/>
       <c r="Q21" s="44"/>
       <c r="R21" s="44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S21" s="45" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="T21" s="44"/>
       <c r="U21" s="43"/>
       <c r="V21" s="44"/>
       <c r="W21" s="43"/>
       <c r="X21" s="44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y21" s="44"/>
       <c r="Z21" s="44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AA21" s="44"/>
       <c r="AB21" s="44"/>
       <c r="AC21" s="44"/>
       <c r="AD21" s="44"/>
       <c r="AE21" s="47" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF21" s="49"/>
       <c r="AG21" s="63"/>
@@ -36159,12 +36335,12 @@
       <c r="AR21" s="43"/>
       <c r="AS21" s="43"/>
       <c r="AT21" s="30" t="str">
-        <f aca="false">IF( A21 = "", "", "'" &amp; A21 &amp; "': {megami: '" &amp; B21 &amp; "'" &amp; IF( C21 &lt;&gt; "", ", anotherID: '" &amp; C21 &amp; "', replace: '" &amp; D21 &amp; "'", "" ) &amp; ", name: '" &amp; SUBSTITUTE( E21, "'", "\'" ) &amp; "', nameEn: '" &amp; SUBSTITUTE( K21, "'", "\'" ) &amp; "', nameZh: '" &amp; SUBSTITUTE( G21, "'", "\'" ) &amp; "', nameZhG1: '" &amp; SUBSTITUTE( H21, "'", "\'" )&amp; "', nameKo: '" &amp; SUBSTITUTE( J21, "'", "\'" ) &amp; "', ruby: '" &amp; F21 &amp; "', rubyEn: '" &amp; L21 &amp; "', baseType: '" &amp; VLOOKUP( M21, マスタ!$A$1:$B$99, 2, 0 ) &amp; "'" &amp; IF( N21 = "○", ", extra: true", "" ) &amp; IF( O21 &lt;&gt; "", ", extraFrom: '" &amp; O21 &amp; "'", "" ) &amp; IF( P21 &lt;&gt; "", ", exchangabaleTo: '" &amp; P21 &amp; "'", "" ) &amp; IF( Q21 = "○", ", poison: true", "" ) &amp;IF(R21&lt;&gt;"", ", type: '"&amp;VLOOKUP(R21,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S21&lt;&gt;"",", subType: '"&amp;VLOOKUP(S21,マスタ!$D$1:$E$99,2,0)&amp;"'","") &amp; IF( T21 &lt;&gt; "", ", range: '" &amp; T21 &amp; "'" &amp; IF( U21 &lt;&gt; "", ", rangeOpened: '" &amp; U21 &amp; "'", "" ), "" ) &amp; IF( V21 &lt;&gt; "", ", damage: '" &amp; V21 &amp; "'" &amp; IF( OR( W21 &lt;&gt; "", AI21 &lt;&gt; "" ), ", damageOpened: '" &amp; W21 &amp; "'", "" ), "" ) &amp; IF( X21 &lt;&gt; "", ", capacity: '" &amp; X21 &amp; "'", "" ) &amp; IF( Y21 &lt;&gt; "", ", cost: '" &amp; Y21 &amp; "'", "" ) &amp; ", text: '" &amp; SUBSTITUTE( SUBSTITUTE( AE21, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ) &amp; "', textZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AG21, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AI21, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )&amp; "', textKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AK21, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AM21, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'" &amp; IF( OR( W21 &lt;&gt; "", AI21 &lt;&gt; "" ), ", textOpened: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AO21, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AP21, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )  &amp; "', textOpenedZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AQ21, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AR21, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AS21, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'", "" ) &amp; IF( Z21 = "○", ", sealable: true", "" ) &amp; IF( AA21 = "○", ", removable: true", "" ) &amp; "}," )</f>
-        <v>'25-misora-o-s-3': {megami: 'misora', name: 'カカゲルカゲ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'special', type: 'enhance', subType: 'reaction', capacity: '3', text: '【展開時】対応した通常札による《攻撃》の適正距離があなたの照準を含むならば、対応した《攻撃》を打ち消し、そのカードをこのカードの下に封印する。\n【破棄時】このカードに封印されたカードを相手の捨て札に戻す。\n\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
+        <f aca="false">IF(A21="", "","'"&amp;A21&amp;"': {megami: '"&amp;B21&amp;"'"&amp;IF(C21&lt;&gt;"",", anotherID: '"&amp;C21&amp;"', replace: '"&amp;D21&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E21,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K21,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G21,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H21,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J21,"'","\'")&amp;"', ruby: '"&amp;F21&amp;"', rubyEn: '"&amp;L21&amp;IF(I21&lt;&gt;"", "', rubyZh: '"&amp;I21, "")&amp;"', baseType: '"&amp;VLOOKUP(M21,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N21="○",", extra: true","")&amp;IF(O21&lt;&gt;"",", extraFrom: '"&amp;O21&amp;"'","")&amp;IF(P21&lt;&gt;"",", exchangableTo: '"&amp;P21&amp;"'","")&amp;IF(Q21="○",", poison: true","")&amp;IF(R21&lt;&gt;"", ", type: '"&amp;VLOOKUP(R21,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S21&lt;&gt;"",", subType: '"&amp;VLOOKUP(S21,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T21&lt;&gt;"",", range: '"&amp;T21&amp;"'","")&amp;IF(V21&lt;&gt;"",", damage: '"&amp;V21&amp;"'","")&amp;IF(X21&lt;&gt;"",", capacity: '"&amp;X21&amp;"'","")&amp;IF(Y21&lt;&gt;"",", growth: "&amp;Y21&amp;"","")&amp;IF(Z21&lt;&gt;"",", cost: '"&amp;Z21&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE21, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF21&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH21&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ21&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL21&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN21&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB21="○",", sealable: true","")&amp;IF(AC21="○",", removable: true","")&amp;IF(AA21="○",", lie: true","")&amp;IF(AD21="○",", investable: true","")&amp;"},")</f>
+        <v>'25-misora-o-s-3': {megami: 'misora', name: 'カカゲルカゲ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'special', type: 'enhance', subType: 'reaction', capacity: '3', cost: '2', text: '【展開時】対応した通常札による《攻撃》の適正距離があなたの照準を含むならば、対応した《攻撃》を打ち消し、そのカードをこのカードの下に封印する。\n【破棄時】このカードに封印されたカードを相手の捨て札に戻す。\n\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU21" s="31" t="str">
         <f aca="false">IF($A21&lt;&gt;"", "    /** 《"&amp;$E21&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A21, 3, 1)="-", RIGHT($A21,LEN($A21)-3), $A21)), "-", "_")&amp;": TCardId = '"&amp;$A21&amp;"';", "")</f>
-        <v>    /** 《カカゲルカゲ》 */ export const MISORA_O_S_3: TCardId = '25-misora-o-s-3';</v>
+        <v>/** 《カカゲルカゲ》 */ export const MISORA_O_S_3: TCardId = '25-misora-o-s-3';</v>
       </c>
       <c r="AV21" s="32" t="str">
         <f aca="false">IF($A21&lt;&gt;"", "    | '"&amp;$A21&amp;"'", "")</f>
@@ -37151,7 +37327,7 @@
     </row>
     <row r="22" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="44" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B22" s="44" t="s">
         <v>30</v>
@@ -37159,7 +37335,7 @@
       <c r="C22" s="44"/>
       <c r="D22" s="44"/>
       <c r="E22" s="44" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F22" s="44"/>
       <c r="G22" s="61"/>
@@ -37169,14 +37345,14 @@
       <c r="K22" s="62"/>
       <c r="L22" s="63"/>
       <c r="M22" s="34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N22" s="44"/>
       <c r="O22" s="44"/>
       <c r="P22" s="44"/>
       <c r="Q22" s="44"/>
       <c r="R22" s="44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S22" s="45"/>
       <c r="T22" s="44"/>
@@ -37184,18 +37360,18 @@
       <c r="V22" s="44"/>
       <c r="W22" s="43"/>
       <c r="X22" s="44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Y22" s="44"/>
       <c r="Z22" s="44" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AA22" s="44"/>
       <c r="AB22" s="44"/>
       <c r="AC22" s="44"/>
       <c r="AD22" s="44"/>
       <c r="AE22" s="47" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF22" s="49"/>
       <c r="AG22" s="63"/>
@@ -37212,16 +37388,16 @@
       <c r="AR22" s="43"/>
       <c r="AS22" s="43"/>
       <c r="AT22" s="30" t="str">
-        <f aca="false">IF( A22 = "", "", "'" &amp; A22 &amp; "': {megami: '" &amp; B22 &amp; "'" &amp; IF( C22 &lt;&gt; "", ", anotherID: '" &amp; C22 &amp; "', replace: '" &amp; D22 &amp; "'", "" ) &amp; ", name: '" &amp; SUBSTITUTE( E22, "'", "\'" ) &amp; "', nameEn: '" &amp; SUBSTITUTE( K22, "'", "\'" ) &amp; "', nameZh: '" &amp; SUBSTITUTE( G22, "'", "\'" ) &amp; "', nameZhG1: '" &amp; SUBSTITUTE( H22, "'", "\'" )&amp; "', nameKo: '" &amp; SUBSTITUTE( J22, "'", "\'" ) &amp; "', ruby: '" &amp; F22 &amp; "', rubyEn: '" &amp; L22 &amp; "', baseType: '" &amp; VLOOKUP( M22, マスタ!$A$1:$B$99, 2, 0 ) &amp; "'" &amp; IF( N22 = "○", ", extra: true", "" ) &amp; IF( O22 &lt;&gt; "", ", extraFrom: '" &amp; O22 &amp; "'", "" ) &amp; IF( P22 &lt;&gt; "", ", exchangabaleTo: '" &amp; P22 &amp; "'", "" ) &amp; IF( Q22 = "○", ", poison: true", "" ) &amp;IF(R22&lt;&gt;"", ", type: '"&amp;VLOOKUP(R22,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S22&lt;&gt;"",", subType: '"&amp;VLOOKUP(S22,マスタ!$D$1:$E$99,2,0)&amp;"'","") &amp; IF( T22 &lt;&gt; "", ", range: '" &amp; T22 &amp; "'" &amp; IF( U22 &lt;&gt; "", ", rangeOpened: '" &amp; U22 &amp; "'", "" ), "" ) &amp; IF( V22 &lt;&gt; "", ", damage: '" &amp; V22 &amp; "'" &amp; IF( OR( W22 &lt;&gt; "", AI22 &lt;&gt; "" ), ", damageOpened: '" &amp; W22 &amp; "'", "" ), "" ) &amp; IF( X22 &lt;&gt; "", ", capacity: '" &amp; X22 &amp; "'", "" ) &amp; IF( Y22 &lt;&gt; "", ", cost: '" &amp; Y22 &amp; "'", "" ) &amp; ", text: '" &amp; SUBSTITUTE( SUBSTITUTE( AE22, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ) &amp; "', textZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AG22, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AI22, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )&amp; "', textKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AK22, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AM22, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'" &amp; IF( OR( W22 &lt;&gt; "", AI22 &lt;&gt; "" ), ", textOpened: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AO22, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedZh: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AP22, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" )  &amp; "', textOpenedZhG1: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AQ22, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedKo: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AR22, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "', textOpenedEn: '" &amp; SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( AS22, CHAR( 13 ), "" ), CHAR( 10 ), "\n" ), "'", "\'" ) &amp; "'", "" ) &amp; IF( Z22 = "○", ", sealable: true", "" ) &amp; IF( AA22 = "○", ", removable: true", "" ) &amp; "}," )</f>
-        <v>'25-misora-o-s-4': {megami: 'misora', name: 'ミソラノソラ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'special', type: 'enhance', capacity: '2', text: '【展開中】現在の間合は5増加する。\n【破棄時】相ライフ→間合：1、相オーラ→間合：1、相フレア→間合：1\n【使用済】このカードは使用できない。\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
+        <f aca="false">IF(A22="", "","'"&amp;A22&amp;"': {megami: '"&amp;B22&amp;"'"&amp;IF(C22&lt;&gt;"",", anotherID: '"&amp;C22&amp;"', replace: '"&amp;D22&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E22,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K22,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G22,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H22,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J22,"'","\'")&amp;"', ruby: '"&amp;F22&amp;"', rubyEn: '"&amp;L22&amp;IF(I22&lt;&gt;"", "', rubyZh: '"&amp;I22, "")&amp;"', baseType: '"&amp;VLOOKUP(M22,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N22="○",", extra: true","")&amp;IF(O22&lt;&gt;"",", extraFrom: '"&amp;O22&amp;"'","")&amp;IF(P22&lt;&gt;"",", exchangableTo: '"&amp;P22&amp;"'","")&amp;IF(Q22="○",", poison: true","")&amp;IF(R22&lt;&gt;"", ", type: '"&amp;VLOOKUP(R22,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S22&lt;&gt;"",", subType: '"&amp;VLOOKUP(S22,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T22&lt;&gt;"",", range: '"&amp;T22&amp;"'","")&amp;IF(V22&lt;&gt;"",", damage: '"&amp;V22&amp;"'","")&amp;IF(X22&lt;&gt;"",", capacity: '"&amp;X22&amp;"'","")&amp;IF(Y22&lt;&gt;"",", growth: "&amp;Y22&amp;"","")&amp;IF(Z22&lt;&gt;"",", cost: '"&amp;Z22&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE22, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF22&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH22&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ22&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL22&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN22&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB22="○",", sealable: true","")&amp;IF(AC22="○",", removable: true","")&amp;IF(AA22="○",", lie: true","")&amp;IF(AD22="○",", investable: true","")&amp;"},")</f>
+        <v>'25-misora-o-s-4': {megami: 'misora', name: 'ミソラノソラ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'special', type: 'enhance', capacity: '2', cost: '5', text: '【展開中】現在の間合は5増加する。\n【破棄時】相ライフ→間合：1、相オーラ→間合：1、相フレア→間合：1\n【使用済】このカードは使用できない。\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU22" s="31" t="str">
         <f aca="false">IF($A22&lt;&gt;"", "    /** 《"&amp;$E22&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A22, 3, 1)="-", RIGHT($A22,LEN($A22)-3), $A22)), "-", "_")&amp;": TCardId = '"&amp;$A22&amp;"';", "")</f>
-        <v>    /** 《ミソラノソラ》 */ export const MISORA_O_S_4: TCardId = '25-misora-o-s-4';</v>
+        <v>/** 《ミソラノソラ》 */ export const MISORA_O_S_4: TCardId = '25-misora-o-s-4';</v>
       </c>
       <c r="AV22" s="32" t="str">
         <f aca="false">IF($A22&lt;&gt;"", "    | '"&amp;$A22&amp;"'", "")</f>
-        <v>    | '25-misora-o-s-4'</v>
+        <v>| '25-misora-o-s-4'</v>
       </c>
       <c r="AW22" s="33"/>
       <c r="AX22" s="33"/>
@@ -51189,7 +51365,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="1" sqref="X2:X3 J12"/>
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -51201,100 +51377,100 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" s="68" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B2" s="68" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E2" s="68" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="68" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E3" s="68" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="69" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="70" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B5" s="70" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E5" s="68" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="70" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E6" s="68" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="70" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>

--- a/sheet/cards_s9.xlsx
+++ b/sheet/cards_s9.xlsx
@@ -12,9 +12,6 @@
     <sheet name="新幕シーズン9" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="マスタ" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="263">
   <si>
     <t xml:space="preserve">メガミID</t>
   </si>
@@ -1154,6 +1151,18 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">（自分の手札を右クリックすることで、手札を相手プレイヤーに公開することが可能）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（右键自己的手牌区可以将手牌展示给对方玩家）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(자신의 손패를 우클릭해서 손패를 상대 플레이어에게 공개할 수 있음)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(To reveal your hand, right-click on the hand area.)</t>
+  </si>
+  <si>
     <t xml:space="preserve">25-misora-o-n-5</t>
   </si>
   <si>
@@ -1178,6 +1187,9 @@
   </si>
   <si>
     <t xml:space="preserve">眼前構築で選んでいない他のメガミのカードまたは伏せ札のカードから、《全力》でない《攻撃》の通常札1枚を選び、それに追尾を与えて使用する。ゲーム外から使用したそのカードが領域を移動するならば、代わりに裏向きで取り除く。(眼前構築で選んでいない状態に戻る)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（このカードを右クリックすることで、眼前構築で選んでいないカードを取得可能。また、使用したカードを右クリックすることで取り除くことができる）</t>
   </si>
   <si>
     <t xml:space="preserve">25-misora-o-n-7</t>
@@ -1773,7 +1785,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1913,12 +1925,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2011,174 +2023,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="新幕シーズン2"/>
-      <sheetName val="新幕シーズン3"/>
-      <sheetName val="新幕シーズン4"/>
-      <sheetName val="新幕シーズン5_プレ更新"/>
-      <sheetName val="新幕シーズン5"/>
-      <sheetName val="新幕シーズン6"/>
-      <sheetName val="新幕シーズン6-2"/>
-      <sheetName val="新幕シーズン7"/>
-      <sheetName val="新幕シーズン7-2"/>
-      <sheetName val="新幕シーズン8"/>
-      <sheetName val="新幕シーズン8-2"/>
-      <sheetName val="メガミ"/>
-      <sheetName val="マスタ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>通常札</v>
-          </cell>
-        </row>
-        <row r="1">
-          <cell r="D1" t="str">
-            <v>攻撃</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>切札</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="D2" t="str">
-            <v>行動</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>追加札</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="D3" t="str">
-            <v>不定</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>transform</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4" t="str">
-            <v>対応</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>嵐</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5" t="str">
-            <v>全力</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>兵員</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>付与</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>構想</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>attack</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>normal</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>action</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>special</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9" t="str">
-            <v>variable</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>extra</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10" t="str">
-            <v>reaction</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>transform</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11" t="str">
-            <v>fullpower</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>storm</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12" t="str">
-            <v>enhance</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>troop</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>plan</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17897,11 +17741,11 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AR2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AQ8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AR1" activeCellId="0" sqref="AR1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AT7" activeCellId="0" sqref="AT7"/>
+      <selection pane="topRight" activeCell="AQ1" activeCellId="0" sqref="AQ1"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="AT15" activeCellId="0" sqref="AT15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18163,7 +18007,7 @@
       <c r="AR2" s="29"/>
       <c r="AS2" s="29"/>
       <c r="AT2" s="30" t="str">
-        <f aca="false">IF(A2="", "","'"&amp;A2&amp;"': {megami: '"&amp;B2&amp;"'"&amp;IF(C2&lt;&gt;"",", anotherID: '"&amp;C2&amp;"', replace: '"&amp;D2&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E2,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K2,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G2,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H2,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J2,"'","\'")&amp;"', ruby: '"&amp;F2&amp;"', rubyEn: '"&amp;L2&amp;IF(I2&lt;&gt;"", "', rubyZh: '"&amp;I2, "")&amp;"', baseType: '"&amp;VLOOKUP(M2,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N2="○",", extra: true","")&amp;IF(O2&lt;&gt;"",", extraFrom: '"&amp;O2&amp;"'","")&amp;IF(P2&lt;&gt;"",", exchangableTo: '"&amp;P2&amp;"'","")&amp;IF(Q2="○",", poison: true","")&amp;IF(R2&lt;&gt;"", ", type: '"&amp;VLOOKUP(R2,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S2&lt;&gt;"",", subType: '"&amp;VLOOKUP(S2,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T2&lt;&gt;"",", range: '"&amp;T2&amp;"'","")&amp;IF(V2&lt;&gt;"",", damage: '"&amp;V2&amp;"'","")&amp;IF(X2&lt;&gt;"",", capacity: '"&amp;X2&amp;"'","")&amp;IF(Y2&lt;&gt;"",", growth: "&amp;Y2&amp;"","")&amp;IF(Z2&lt;&gt;"",", cost: '"&amp;Z2&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE2, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF2&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH2&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ2&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL2&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN2&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB2="○",", sealable: true","")&amp;IF(AC2="○",", removable: true","")&amp;IF(AA2="○",", lie: true","")&amp;IF(AD2="○",", investable: true","")&amp;"},")</f>
+        <f aca="false">IF(A2="", "","'"&amp;A2&amp;"': {megami: '"&amp;B2&amp;"'"&amp;IF(C2&lt;&gt;"",", anotherID: '"&amp;C2&amp;"', replace: '"&amp;D2&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E2,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K2,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G2,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H2,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J2,"'","\'")&amp;"', ruby: '"&amp;F2&amp;"', rubyEn: '"&amp;L2&amp;IF(I2&lt;&gt;"", "', rubyZh: '"&amp;I2, "")&amp;"', baseType: '"&amp;VLOOKUP(M2,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N2="○",", extra: true","")&amp;IF(O2&lt;&gt;"",", extraFrom: '"&amp;O2&amp;"'","")&amp;IF(P2&lt;&gt;"",", exchangableTo: '"&amp;P2&amp;"'","")&amp;IF(Q2="○",", poison: true","")&amp;IF(R2&lt;&gt;"", ", type: '"&amp;VLOOKUP(R2,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S2&lt;&gt;"",", subType: '"&amp;VLOOKUP(S2,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T2&lt;&gt;"",", range: '"&amp;T2&amp;"'","")&amp;IF(V2&lt;&gt;"",", damage: '"&amp;V2&amp;"'","")&amp;IF(X2&lt;&gt;"",", capacity: '"&amp;X2&amp;"'","")&amp;IF(Y2&lt;&gt;"",", growth: "&amp;Y2&amp;"","")&amp;IF(Z2&lt;&gt;"",", cost: '"&amp;Z2&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE2, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF2&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH2&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ2&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL2&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN2&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB2="○",", sealable: true","")&amp;IF(AC2="○",", removable: true","")&amp;IF(AA2="○",", lie: true","")&amp;IF(AD2="○",", investable: true","")&amp;"},")</f>
         <v>'06-yukihi-o-n-2': {megami: 'yukihi', name: 'しこみび / ねこだまし', nameEn: 'Preparation / Fake Out', nameZh: '预演 / 猫骗', nameZhG1: '匍匐/猫跳', nameKo: '숨긴 불꽃 / 손뼉치기', ruby: '', rubyEn: '', baseType: 'normal', type: 'attack', range: '5-6', damage: '1/1', text: '【攻撃後】このカードを手札に戻し、傘の開閉を行う。 ', textZh: '【攻击后】将此牌置入你的手牌，进行一次伞的开合操作。', textZhG1: '', textKo: '【공격후】이 카드를 손패로 되돌리고, 우산의 개폐를 행한다.', textEn: 'After Attack: Put this card into your hand. Open your umbrella. If it was already open, close it instead.'},</v>
       </c>
       <c r="AU2" s="31" t="str">
@@ -19247,7 +19091,7 @@
         <v>108</v>
       </c>
       <c r="AT3" s="30" t="str">
-        <f aca="false">IF(A3="", "","'"&amp;A3&amp;"': {megami: '"&amp;B3&amp;"'"&amp;IF(C3&lt;&gt;"",", anotherID: '"&amp;C3&amp;"', replace: '"&amp;D3&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E3,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K3,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G3,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H3,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J3,"'","\'")&amp;"', ruby: '"&amp;F3&amp;"', rubyEn: '"&amp;L3&amp;IF(I3&lt;&gt;"", "', rubyZh: '"&amp;I3, "")&amp;"', baseType: '"&amp;VLOOKUP(M3,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N3="○",", extra: true","")&amp;IF(O3&lt;&gt;"",", extraFrom: '"&amp;O3&amp;"'","")&amp;IF(P3&lt;&gt;"",", exchangableTo: '"&amp;P3&amp;"'","")&amp;IF(Q3="○",", poison: true","")&amp;IF(R3&lt;&gt;"", ", type: '"&amp;VLOOKUP(R3,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S3&lt;&gt;"",", subType: '"&amp;VLOOKUP(S3,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T3&lt;&gt;"",", range: '"&amp;T3&amp;"'","")&amp;IF(V3&lt;&gt;"",", damage: '"&amp;V3&amp;"'","")&amp;IF(X3&lt;&gt;"",", capacity: '"&amp;X3&amp;"'","")&amp;IF(Y3&lt;&gt;"",", growth: "&amp;Y3&amp;"","")&amp;IF(Z3&lt;&gt;"",", cost: '"&amp;Z3&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE3, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF3&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH3&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ3&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL3&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN3&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB3="○",", sealable: true","")&amp;IF(AC3="○",", removable: true","")&amp;IF(AA3="○",", lie: true","")&amp;IF(AD3="○",", investable: true","")&amp;"},")</f>
+        <f aca="false">IF(A3="", "","'"&amp;A3&amp;"': {megami: '"&amp;B3&amp;"'"&amp;IF(C3&lt;&gt;"",", anotherID: '"&amp;C3&amp;"', replace: '"&amp;D3&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E3,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K3,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G3,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H3,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J3,"'","\'")&amp;"', ruby: '"&amp;F3&amp;"', rubyEn: '"&amp;L3&amp;IF(I3&lt;&gt;"", "', rubyZh: '"&amp;I3, "")&amp;"', baseType: '"&amp;VLOOKUP(M3,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N3="○",", extra: true","")&amp;IF(O3&lt;&gt;"",", extraFrom: '"&amp;O3&amp;"'","")&amp;IF(P3&lt;&gt;"",", exchangableTo: '"&amp;P3&amp;"'","")&amp;IF(Q3="○",", poison: true","")&amp;IF(R3&lt;&gt;"", ", type: '"&amp;VLOOKUP(R3,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S3&lt;&gt;"",", subType: '"&amp;VLOOKUP(S3,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T3&lt;&gt;"",", range: '"&amp;T3&amp;"'","")&amp;IF(V3&lt;&gt;"",", damage: '"&amp;V3&amp;"'","")&amp;IF(X3&lt;&gt;"",", capacity: '"&amp;X3&amp;"'","")&amp;IF(Y3&lt;&gt;"",", growth: "&amp;Y3&amp;"","")&amp;IF(Z3&lt;&gt;"",", cost: '"&amp;Z3&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE3, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF3&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH3&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ3&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL3&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN3&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB3="○",", sealable: true","")&amp;IF(AC3="○",", removable: true","")&amp;IF(AA3="○",", lie: true","")&amp;IF(AD3="○",", investable: true","")&amp;"},")</f>
         <v>'06-yukihi-o-s-1': {megami: 'yukihi', name: 'はらりゆき', nameEn: 'Gentle Snow', nameZh: '纷扬如雪', nameZhG1: '纷扬如雪', nameKo: '흩날리는 눈꽃', ruby: '', rubyEn: '', baseType: 'special', type: 'attack', range: '4-5', damage: '3/1', cost: '2', text: '【攻撃後】あなたは集中力を1得る。', textZh: '【攻击后】你获得1点集中力。', textZhG1: '【攻击后】你获得1点集中力。', textKo: '【공격후】당신은 집중력을 1 얻는다.', textEn: 'After Attack: Gain 1 Vigor.'},</v>
       </c>
       <c r="AU3" s="31" t="str">
@@ -20309,7 +20153,7 @@
       <c r="AR4" s="43"/>
       <c r="AS4" s="43"/>
       <c r="AT4" s="30" t="str">
-        <f aca="false">IF(A4="", "","'"&amp;A4&amp;"': {megami: '"&amp;B4&amp;"'"&amp;IF(C4&lt;&gt;"",", anotherID: '"&amp;C4&amp;"', replace: '"&amp;D4&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E4,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K4,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G4,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H4,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J4,"'","\'")&amp;"', ruby: '"&amp;F4&amp;"', rubyEn: '"&amp;L4&amp;IF(I4&lt;&gt;"", "', rubyZh: '"&amp;I4, "")&amp;"', baseType: '"&amp;VLOOKUP(M4,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N4="○",", extra: true","")&amp;IF(O4&lt;&gt;"",", extraFrom: '"&amp;O4&amp;"'","")&amp;IF(P4&lt;&gt;"",", exchangableTo: '"&amp;P4&amp;"'","")&amp;IF(Q4="○",", poison: true","")&amp;IF(R4&lt;&gt;"", ", type: '"&amp;VLOOKUP(R4,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S4&lt;&gt;"",", subType: '"&amp;VLOOKUP(S4,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T4&lt;&gt;"",", range: '"&amp;T4&amp;"'","")&amp;IF(V4&lt;&gt;"",", damage: '"&amp;V4&amp;"'","")&amp;IF(X4&lt;&gt;"",", capacity: '"&amp;X4&amp;"'","")&amp;IF(Y4&lt;&gt;"",", growth: "&amp;Y4&amp;"","")&amp;IF(Z4&lt;&gt;"",", cost: '"&amp;Z4&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE4, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF4&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH4&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ4&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL4&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN4&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB4="○",", sealable: true","")&amp;IF(AC4="○",", removable: true","")&amp;IF(AA4="○",", lie: true","")&amp;IF(AD4="○",", investable: true","")&amp;"},")</f>
+        <f aca="false">IF(A4="", "","'"&amp;A4&amp;"': {megami: '"&amp;B4&amp;"'"&amp;IF(C4&lt;&gt;"",", anotherID: '"&amp;C4&amp;"', replace: '"&amp;D4&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E4,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K4,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G4,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H4,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J4,"'","\'")&amp;"', ruby: '"&amp;F4&amp;"', rubyEn: '"&amp;L4&amp;IF(I4&lt;&gt;"", "', rubyZh: '"&amp;I4, "")&amp;"', baseType: '"&amp;VLOOKUP(M4,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N4="○",", extra: true","")&amp;IF(O4&lt;&gt;"",", extraFrom: '"&amp;O4&amp;"'","")&amp;IF(P4&lt;&gt;"",", exchangableTo: '"&amp;P4&amp;"'","")&amp;IF(Q4="○",", poison: true","")&amp;IF(R4&lt;&gt;"", ", type: '"&amp;VLOOKUP(R4,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S4&lt;&gt;"",", subType: '"&amp;VLOOKUP(S4,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T4&lt;&gt;"",", range: '"&amp;T4&amp;"'","")&amp;IF(V4&lt;&gt;"",", damage: '"&amp;V4&amp;"'","")&amp;IF(X4&lt;&gt;"",", capacity: '"&amp;X4&amp;"'","")&amp;IF(Y4&lt;&gt;"",", growth: "&amp;Y4&amp;"","")&amp;IF(Z4&lt;&gt;"",", cost: '"&amp;Z4&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE4, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF4&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH4&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ4&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL4&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN4&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB4="○",", sealable: true","")&amp;IF(AC4="○",", removable: true","")&amp;IF(AA4="○",", lie: true","")&amp;IF(AD4="○",", investable: true","")&amp;"},")</f>
         <v>'07-shinra-A1-n-7': {megami: 'shinra', anotherID: 'A1', replace: '07-shinra-o-n-7', name: '使徒', nameEn: 'Apostle', nameZh: '使徒', nameZhG1: '使徒', nameKo: '사도', ruby: 'しと', rubyEn: '', baseType: 'normal', type: 'enhance', subType: 'fullpower', capacity: '2', text: '【展開時】集中力を1支払い、計略を準備してもよい。\n【展開時/破棄時】計略を実行し、次の計略を準備する。\n[神算] 攻撃『適正距離1, 3, 5、2/2、不可避、【攻撃後】相手は相手の手札から1枚を選び、山札の底に置く』を行う。\n[鬼謀] 攻撃『適正距離0, 2, 4、2/2、不可避、【攻撃後】相手の山札の上から1枚を捨て札にして、1枚を伏せ札にする』を行う。', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU4" s="31" t="str">
@@ -20406,7 +20250,7 @@
       <c r="AR5" s="43"/>
       <c r="AS5" s="43"/>
       <c r="AT5" s="30" t="str">
-        <f aca="false">IF(A5="", "","'"&amp;A5&amp;"': {megami: '"&amp;B5&amp;"'"&amp;IF(C5&lt;&gt;"",", anotherID: '"&amp;C5&amp;"', replace: '"&amp;D5&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E5,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K5,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G5,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H5,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J5,"'","\'")&amp;"', ruby: '"&amp;F5&amp;"', rubyEn: '"&amp;L5&amp;IF(I5&lt;&gt;"", "', rubyZh: '"&amp;I5, "")&amp;"', baseType: '"&amp;VLOOKUP(M5,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N5="○",", extra: true","")&amp;IF(O5&lt;&gt;"",", extraFrom: '"&amp;O5&amp;"'","")&amp;IF(P5&lt;&gt;"",", exchangableTo: '"&amp;P5&amp;"'","")&amp;IF(Q5="○",", poison: true","")&amp;IF(R5&lt;&gt;"", ", type: '"&amp;VLOOKUP(R5,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S5&lt;&gt;"",", subType: '"&amp;VLOOKUP(S5,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T5&lt;&gt;"",", range: '"&amp;T5&amp;"'","")&amp;IF(V5&lt;&gt;"",", damage: '"&amp;V5&amp;"'","")&amp;IF(X5&lt;&gt;"",", capacity: '"&amp;X5&amp;"'","")&amp;IF(Y5&lt;&gt;"",", growth: "&amp;Y5&amp;"","")&amp;IF(Z5&lt;&gt;"",", cost: '"&amp;Z5&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE5, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF5&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH5&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ5&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL5&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN5&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB5="○",", sealable: true","")&amp;IF(AC5="○",", removable: true","")&amp;IF(AA5="○",", lie: true","")&amp;IF(AD5="○",", investable: true","")&amp;"},")</f>
+        <f aca="false">IF(A5="", "","'"&amp;A5&amp;"': {megami: '"&amp;B5&amp;"'"&amp;IF(C5&lt;&gt;"",", anotherID: '"&amp;C5&amp;"', replace: '"&amp;D5&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E5,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K5,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G5,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H5,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J5,"'","\'")&amp;"', ruby: '"&amp;F5&amp;"', rubyEn: '"&amp;L5&amp;IF(I5&lt;&gt;"", "', rubyZh: '"&amp;I5, "")&amp;"', baseType: '"&amp;VLOOKUP(M5,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N5="○",", extra: true","")&amp;IF(O5&lt;&gt;"",", extraFrom: '"&amp;O5&amp;"'","")&amp;IF(P5&lt;&gt;"",", exchangableTo: '"&amp;P5&amp;"'","")&amp;IF(Q5="○",", poison: true","")&amp;IF(R5&lt;&gt;"", ", type: '"&amp;VLOOKUP(R5,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S5&lt;&gt;"",", subType: '"&amp;VLOOKUP(S5,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T5&lt;&gt;"",", range: '"&amp;T5&amp;"'","")&amp;IF(V5&lt;&gt;"",", damage: '"&amp;V5&amp;"'","")&amp;IF(X5&lt;&gt;"",", capacity: '"&amp;X5&amp;"'","")&amp;IF(Y5&lt;&gt;"",", growth: "&amp;Y5&amp;"","")&amp;IF(Z5&lt;&gt;"",", cost: '"&amp;Z5&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE5, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF5&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH5&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ5&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL5&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN5&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB5="○",", sealable: true","")&amp;IF(AC5="○",", removable: true","")&amp;IF(AA5="○",", lie: true","")&amp;IF(AD5="○",", investable: true","")&amp;"},")</f>
         <v>'22-renri-a1-n-6': {megami: 'renri', anotherID: 'A1', replace: '22-renri-o-n-6', name: '神授', nameEn: 'Divine Gift', nameZh: '神授', nameZhG1: '', nameKo: '신수', ruby: 'しんじゅ', rubyEn: '', baseType: 'normal', type: 'action', text: 'この「神授」を山札の上に置き、その後に遺物にある通常札1枚と交換する。\n【常時】山札を再構成する直前にこの「神授」 が捨て札にあるならば、 このカードを使用してもよい。\n', textAdditional: '（使用済み領域に出し、右クリックすることで効果を発動可能）', textZh: '将此「神授」置于牌库顶，那之后将其和遗物中的1张通常牌交换。\n【常时】在重铸牌库前弃牌中有这张「神授」的话，可以使用这张牌。', textZhG1: '', textZhAdditional: '（移动到已使用区域并右键就可以发动效果）', textKo: '이「신수」를 패산 위에 놓고, 그 후에 유물에 있는 통상패 한 장과 교환한다.\n【상시】패산을 재구성하기 직전에, 이 「신수」가 버림패에 있다면, 이 카드를 사용해도 된다.', textKoAdditional: '（사용됨 영역에서 꺼내서 우클릭으로 효과 발동 가능）', textEn: 'Put this "Divine Gift" on the top of your deck, then exchange it with a Noral card in your Relic.\n\nForced: You may use this "Divine Gift" from played pile just before you reshuffle your deck.', textEnAdditional: '(You can activate the effect by placing it in a used area and right-clicking.)'},</v>
       </c>
       <c r="AU5" s="31" t="str">
@@ -21472,7 +21316,7 @@
       <c r="AR6" s="43"/>
       <c r="AS6" s="43"/>
       <c r="AT6" s="30" t="str">
-        <f aca="false">IF(A6="", "","'"&amp;A6&amp;"': {megami: '"&amp;B6&amp;"'"&amp;IF(C6&lt;&gt;"",", anotherID: '"&amp;C6&amp;"', replace: '"&amp;D6&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E6,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K6,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G6,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H6,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J6,"'","\'")&amp;"', ruby: '"&amp;F6&amp;"', rubyEn: '"&amp;L6&amp;IF(I6&lt;&gt;"", "', rubyZh: '"&amp;I6, "")&amp;"', baseType: '"&amp;VLOOKUP(M6,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N6="○",", extra: true","")&amp;IF(O6&lt;&gt;"",", extraFrom: '"&amp;O6&amp;"'","")&amp;IF(P6&lt;&gt;"",", exchangableTo: '"&amp;P6&amp;"'","")&amp;IF(Q6="○",", poison: true","")&amp;IF(R6&lt;&gt;"", ", type: '"&amp;VLOOKUP(R6,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S6&lt;&gt;"",", subType: '"&amp;VLOOKUP(S6,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T6&lt;&gt;"",", range: '"&amp;T6&amp;"'","")&amp;IF(V6&lt;&gt;"",", damage: '"&amp;V6&amp;"'","")&amp;IF(X6&lt;&gt;"",", capacity: '"&amp;X6&amp;"'","")&amp;IF(Y6&lt;&gt;"",", growth: "&amp;Y6&amp;"","")&amp;IF(Z6&lt;&gt;"",", cost: '"&amp;Z6&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE6, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF6&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH6&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ6&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL6&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN6&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB6="○",", sealable: true","")&amp;IF(AC6="○",", removable: true","")&amp;IF(AA6="○",", lie: true","")&amp;IF(AD6="○",", investable: true","")&amp;"},")</f>
+        <f aca="false">IF(A6="", "","'"&amp;A6&amp;"': {megami: '"&amp;B6&amp;"'"&amp;IF(C6&lt;&gt;"",", anotherID: '"&amp;C6&amp;"', replace: '"&amp;D6&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E6,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K6,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G6,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H6,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J6,"'","\'")&amp;"', ruby: '"&amp;F6&amp;"', rubyEn: '"&amp;L6&amp;IF(I6&lt;&gt;"", "', rubyZh: '"&amp;I6, "")&amp;"', baseType: '"&amp;VLOOKUP(M6,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N6="○",", extra: true","")&amp;IF(O6&lt;&gt;"",", extraFrom: '"&amp;O6&amp;"'","")&amp;IF(P6&lt;&gt;"",", exchangableTo: '"&amp;P6&amp;"'","")&amp;IF(Q6="○",", poison: true","")&amp;IF(R6&lt;&gt;"", ", type: '"&amp;VLOOKUP(R6,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S6&lt;&gt;"",", subType: '"&amp;VLOOKUP(S6,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T6&lt;&gt;"",", range: '"&amp;T6&amp;"'","")&amp;IF(V6&lt;&gt;"",", damage: '"&amp;V6&amp;"'","")&amp;IF(X6&lt;&gt;"",", capacity: '"&amp;X6&amp;"'","")&amp;IF(Y6&lt;&gt;"",", growth: "&amp;Y6&amp;"","")&amp;IF(Z6&lt;&gt;"",", cost: '"&amp;Z6&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE6, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF6&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH6&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ6&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL6&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN6&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB6="○",", sealable: true","")&amp;IF(AC6="○",", removable: true","")&amp;IF(AA6="○",", lie: true","")&amp;IF(AD6="○",", investable: true","")&amp;"},")</f>
         <v>'23-akina-o-n-7': {megami: 'akina', name: '直接金融', nameEn: '', nameZh: '直接金融', nameZhG1: '', nameKo: '직접금융', ruby: 'ちょくせつきんゆう', rubyEn: '', baseType: 'normal', type: 'enhance', subType: 'fullpower', capacity: '2', text: '隙　投資券\n【展開時】相オーラ→自オーラ：1\n集中力を1支払ってもよい。 そうした場合、この矢印効果をもう1回行う。\n【破棄時】攻撃『適正距離2-5、1/0』を行ってもよい。', textZh: '破绽 投资券\n【展开时】敌装→1→自装\n○○○○，若如此做，重复1次这个箭头效果。\n【破弃时】进行一次“攻击距离2-5、伤害1/0”的攻击。', textZhG1: '', textKo: '빈틈, 투자권\n【전개시】 오라(상대)→오라(자신):1\n○○○○, 이 화살표 효과를 1회 더 수행한다.\n【파기시】 공격 『적정거리 2-5, 1/0』을 수행해도 된다.', textEn: 'Unguarded, Investment\n\nInitialize: Opponent\'s Aura (1)→ Your Aura. ○○○○. If you do, perform this arrow effect once more.\n\nDisenchant: You may attack with "Range: 2-5, Damage: 1/0".', investable: true},</v>
       </c>
       <c r="AU6" s="31" t="str">
@@ -22538,7 +22382,7 @@
       <c r="AR7" s="43"/>
       <c r="AS7" s="43"/>
       <c r="AT7" s="30" t="str">
-        <f aca="false">IF(A7="", "","'"&amp;A7&amp;"': {megami: '"&amp;B7&amp;"'"&amp;IF(C7&lt;&gt;"",", anotherID: '"&amp;C7&amp;"', replace: '"&amp;D7&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E7,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K7,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G7,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H7,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J7,"'","\'")&amp;"', ruby: '"&amp;F7&amp;"', rubyEn: '"&amp;L7&amp;IF(I7&lt;&gt;"", "', rubyZh: '"&amp;I7, "")&amp;"', baseType: '"&amp;VLOOKUP(M7,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N7="○",", extra: true","")&amp;IF(O7&lt;&gt;"",", extraFrom: '"&amp;O7&amp;"'","")&amp;IF(P7&lt;&gt;"",", exchangableTo: '"&amp;P7&amp;"'","")&amp;IF(Q7="○",", poison: true","")&amp;IF(R7&lt;&gt;"", ", type: '"&amp;VLOOKUP(R7,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S7&lt;&gt;"",", subType: '"&amp;VLOOKUP(S7,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T7&lt;&gt;"",", range: '"&amp;T7&amp;"'","")&amp;IF(V7&lt;&gt;"",", damage: '"&amp;V7&amp;"'","")&amp;IF(X7&lt;&gt;"",", capacity: '"&amp;X7&amp;"'","")&amp;IF(Y7&lt;&gt;"",", growth: "&amp;Y7&amp;"","")&amp;IF(Z7&lt;&gt;"",", cost: '"&amp;Z7&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE7, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF7&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH7&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ7&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL7&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN7&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB7="○",", sealable: true","")&amp;IF(AC7="○",", removable: true","")&amp;IF(AA7="○",", lie: true","")&amp;IF(AD7="○",", investable: true","")&amp;"},")</f>
+        <f aca="false">IF(A7="", "","'"&amp;A7&amp;"': {megami: '"&amp;B7&amp;"'"&amp;IF(C7&lt;&gt;"",", anotherID: '"&amp;C7&amp;"', replace: '"&amp;D7&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E7,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K7,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G7,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H7,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J7,"'","\'")&amp;"', ruby: '"&amp;F7&amp;"', rubyEn: '"&amp;L7&amp;IF(I7&lt;&gt;"", "', rubyZh: '"&amp;I7, "")&amp;"', baseType: '"&amp;VLOOKUP(M7,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N7="○",", extra: true","")&amp;IF(O7&lt;&gt;"",", extraFrom: '"&amp;O7&amp;"'","")&amp;IF(P7&lt;&gt;"",", exchangableTo: '"&amp;P7&amp;"'","")&amp;IF(Q7="○",", poison: true","")&amp;IF(R7&lt;&gt;"", ", type: '"&amp;VLOOKUP(R7,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S7&lt;&gt;"",", subType: '"&amp;VLOOKUP(S7,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T7&lt;&gt;"",", range: '"&amp;T7&amp;"'","")&amp;IF(V7&lt;&gt;"",", damage: '"&amp;V7&amp;"'","")&amp;IF(X7&lt;&gt;"",", capacity: '"&amp;X7&amp;"'","")&amp;IF(Y7&lt;&gt;"",", growth: "&amp;Y7&amp;"","")&amp;IF(Z7&lt;&gt;"",", cost: '"&amp;Z7&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE7, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF7&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH7&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ7&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL7&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN7&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB7="○",", sealable: true","")&amp;IF(AC7="○",", removable: true","")&amp;IF(AA7="○",", lie: true","")&amp;IF(AD7="○",", investable: true","")&amp;"},")</f>
         <v>'23-akina-o-s-4': {megami: 'akina', name: '源上安岐那の御明算', nameEn: '', nameZh: '源上安歧那的妙算', nameZhG1: '', nameKo: '미나카미 아키나의 정확한 계산', ruby: 'みなかみあきなのごめいさん', rubyEn: '', baseType: 'special', type: 'action', cost: '時価', text: '間合制限（0-7）　投資券\n回収を行ってもよい。そうした場合、基本動作《纏い》を2回まで行い、このカードを取り除く。\n【使用済】あなたのメインフェイズの開始時に、あなたは回収を行う代わりに基本動作《宿し》を1回行ってもよい。', textZh: '距离限制（0-7） 投资券\n可以进行回收。若如此做，进行最多2次基本动作《装附》，将此卡移出游戏。\n【使用后】你的准备阶段开始时，可以进行一次基本动作《聚气》代替使用回收。', textZhG1: '', textKo: '간격제한(0-7) 투자권\n회수를 수행해도 된다. 그렇게 한 경우, 기본동작 《휘감기》를 2번까지 수행하고, 이 카드를 게임에서 제외한다.\n【사용됨】 당신의 메인 페이즈 시작에, 당신은 회수를 수행하는 대신 기본동작 《품기》를 1번 수행해도 된다.', textEn: 'Range Restriction (0-7), Investment\n\nYou may Divest. If you do, perform up to 2 Recover basic actions and remove this card from the game.\n\nDevoted: At the beginning of your main phase, you may perform 1 Focus basic action instead of Divesting.', removable: true, investable: true},</v>
       </c>
       <c r="AU7" s="31" t="str">
@@ -23600,7 +23444,7 @@
       <c r="AR8" s="57"/>
       <c r="AS8" s="57"/>
       <c r="AT8" s="30" t="str">
-        <f aca="false">IF(A8="", "","'"&amp;A8&amp;"': {megami: '"&amp;B8&amp;"'"&amp;IF(C8&lt;&gt;"",", anotherID: '"&amp;C8&amp;"', replace: '"&amp;D8&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E8,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K8,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G8,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H8,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J8,"'","\'")&amp;"', ruby: '"&amp;F8&amp;"', rubyEn: '"&amp;L8&amp;IF(I8&lt;&gt;"", "', rubyZh: '"&amp;I8, "")&amp;"', baseType: '"&amp;VLOOKUP(M8,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N8="○",", extra: true","")&amp;IF(O8&lt;&gt;"",", extraFrom: '"&amp;O8&amp;"'","")&amp;IF(P8&lt;&gt;"",", exchangableTo: '"&amp;P8&amp;"'","")&amp;IF(Q8="○",", poison: true","")&amp;IF(R8&lt;&gt;"", ", type: '"&amp;VLOOKUP(R8,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S8&lt;&gt;"",", subType: '"&amp;VLOOKUP(S8,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T8&lt;&gt;"",", range: '"&amp;T8&amp;"'","")&amp;IF(V8&lt;&gt;"",", damage: '"&amp;V8&amp;"'","")&amp;IF(X8&lt;&gt;"",", capacity: '"&amp;X8&amp;"'","")&amp;IF(Y8&lt;&gt;"",", growth: "&amp;Y8&amp;"","")&amp;IF(Z8&lt;&gt;"",", cost: '"&amp;Z8&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE8, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF8&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH8&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ8&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL8&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN8&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB8="○",", sealable: true","")&amp;IF(AC8="○",", removable: true","")&amp;IF(AA8="○",", lie: true","")&amp;IF(AD8="○",", investable: true","")&amp;"},")</f>
+        <f aca="false">IF(A8="", "","'"&amp;A8&amp;"': {megami: '"&amp;B8&amp;"'"&amp;IF(C8&lt;&gt;"",", anotherID: '"&amp;C8&amp;"', replace: '"&amp;D8&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E8,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K8,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G8,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H8,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J8,"'","\'")&amp;"', ruby: '"&amp;F8&amp;"', rubyEn: '"&amp;L8&amp;IF(I8&lt;&gt;"", "', rubyZh: '"&amp;I8, "")&amp;"', baseType: '"&amp;VLOOKUP(M8,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N8="○",", extra: true","")&amp;IF(O8&lt;&gt;"",", extraFrom: '"&amp;O8&amp;"'","")&amp;IF(P8&lt;&gt;"",", exchangableTo: '"&amp;P8&amp;"'","")&amp;IF(Q8="○",", poison: true","")&amp;IF(R8&lt;&gt;"", ", type: '"&amp;VLOOKUP(R8,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S8&lt;&gt;"",", subType: '"&amp;VLOOKUP(S8,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T8&lt;&gt;"",", range: '"&amp;T8&amp;"'","")&amp;IF(V8&lt;&gt;"",", damage: '"&amp;V8&amp;"'","")&amp;IF(X8&lt;&gt;"",", capacity: '"&amp;X8&amp;"'","")&amp;IF(Y8&lt;&gt;"",", growth: "&amp;Y8&amp;"","")&amp;IF(Z8&lt;&gt;"",", cost: '"&amp;Z8&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE8, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF8&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH8&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ8&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL8&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN8&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB8="○",", sealable: true","")&amp;IF(AC8="○",", removable: true","")&amp;IF(AA8="○",", lie: true","")&amp;IF(AD8="○",", investable: true","")&amp;"},")</f>
         <v>'24-shisui-o-n-6': {megami: 'shisui', name: '金屑纏い', nameEn: 'Fragile Mend', nameZh: '铁屑缠身', nameZhG1: '', nameKo: '쇳가루 휘감기', ruby: 'かなくずまとい', rubyEn: '', baseType: 'normal', type: 'action', text: '基本動作《纏い》を2回行う。その後、以下から1つを選ぶ。\n・あなたと相手のオーラに裂傷を1与える。\n・あなたと相手のフレアに裂傷を1与える。', textZh: '进行两次基本动作《装附》。那之后，选择一项：\n●对自装和敌装各造成1点裂伤；\n●对自气和敌气各造成1点裂伤。', textZhG1: '', textKo: '기본동작 《휘감기》를 2번 수행한다. 그 후, 아래에서 1가지를 선택한다.\n・당신과 상대의 오라에 열상을 1 준다.\n・당신과 상대의 플레어에 열상을 1 준다.', textEn: 'Perform 2 Recover basic actions, then choose one:\n・Lacerate each players\' Aura once.\n・Lacerate each players\' Flare once.'},</v>
       </c>
       <c r="AU8" s="31" t="str">
@@ -24666,7 +24510,7 @@
       <c r="AR9" s="57"/>
       <c r="AS9" s="57"/>
       <c r="AT9" s="30" t="str">
-        <f aca="false">IF(A9="", "","'"&amp;A9&amp;"': {megami: '"&amp;B9&amp;"'"&amp;IF(C9&lt;&gt;"",", anotherID: '"&amp;C9&amp;"', replace: '"&amp;D9&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E9,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K9,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G9,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H9,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J9,"'","\'")&amp;"', ruby: '"&amp;F9&amp;"', rubyEn: '"&amp;L9&amp;IF(I9&lt;&gt;"", "', rubyZh: '"&amp;I9, "")&amp;"', baseType: '"&amp;VLOOKUP(M9,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N9="○",", extra: true","")&amp;IF(O9&lt;&gt;"",", extraFrom: '"&amp;O9&amp;"'","")&amp;IF(P9&lt;&gt;"",", exchangableTo: '"&amp;P9&amp;"'","")&amp;IF(Q9="○",", poison: true","")&amp;IF(R9&lt;&gt;"", ", type: '"&amp;VLOOKUP(R9,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S9&lt;&gt;"",", subType: '"&amp;VLOOKUP(S9,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T9&lt;&gt;"",", range: '"&amp;T9&amp;"'","")&amp;IF(V9&lt;&gt;"",", damage: '"&amp;V9&amp;"'","")&amp;IF(X9&lt;&gt;"",", capacity: '"&amp;X9&amp;"'","")&amp;IF(Y9&lt;&gt;"",", growth: "&amp;Y9&amp;"","")&amp;IF(Z9&lt;&gt;"",", cost: '"&amp;Z9&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE9, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF9&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH9&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ9&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL9&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN9&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB9="○",", sealable: true","")&amp;IF(AC9="○",", removable: true","")&amp;IF(AA9="○",", lie: true","")&amp;IF(AD9="○",", investable: true","")&amp;"},")</f>
+        <f aca="false">IF(A9="", "","'"&amp;A9&amp;"': {megami: '"&amp;B9&amp;"'"&amp;IF(C9&lt;&gt;"",", anotherID: '"&amp;C9&amp;"', replace: '"&amp;D9&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E9,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K9,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G9,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H9,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J9,"'","\'")&amp;"', ruby: '"&amp;F9&amp;"', rubyEn: '"&amp;L9&amp;IF(I9&lt;&gt;"", "', rubyZh: '"&amp;I9, "")&amp;"', baseType: '"&amp;VLOOKUP(M9,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N9="○",", extra: true","")&amp;IF(O9&lt;&gt;"",", extraFrom: '"&amp;O9&amp;"'","")&amp;IF(P9&lt;&gt;"",", exchangableTo: '"&amp;P9&amp;"'","")&amp;IF(Q9="○",", poison: true","")&amp;IF(R9&lt;&gt;"", ", type: '"&amp;VLOOKUP(R9,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S9&lt;&gt;"",", subType: '"&amp;VLOOKUP(S9,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T9&lt;&gt;"",", range: '"&amp;T9&amp;"'","")&amp;IF(V9&lt;&gt;"",", damage: '"&amp;V9&amp;"'","")&amp;IF(X9&lt;&gt;"",", capacity: '"&amp;X9&amp;"'","")&amp;IF(Y9&lt;&gt;"",", growth: "&amp;Y9&amp;"","")&amp;IF(Z9&lt;&gt;"",", cost: '"&amp;Z9&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE9, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF9&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH9&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ9&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL9&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN9&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB9="○",", sealable: true","")&amp;IF(AC9="○",", removable: true","")&amp;IF(AA9="○",", lie: true","")&amp;IF(AD9="○",", investable: true","")&amp;"},")</f>
         <v>'24-shisui-o-s-1': {megami: 'shisui', name: 'ハドマギリ', nameEn: 'Seventh Circle - Padma', nameZh: '红莲狱斩切', nameZhG1: '', nameKo: '하도마기리', ruby: '', rubyEn: '', rubyZh: 'Padma', baseType: 'special', type: 'action', subType: 'reaction', cost: '3', text: '【常時】このカードが対応している《攻撃》があるならば、その《攻撃》の解決後にこのカードの効果を解決する。\n任意の数の領域を選び、それらに置かれたあなたの裂傷トークンを任意の順でダメージ化する。その後、攻撃『適正距離1-4、2/1、対応不可（通常札）、【常時】この《攻撃》は+0/+Xとなる。Xはあなたがこのターン中にダメージを受けた回数の半分（切り上げ）に等しい』を行う。', textZh: '【常时】若此牌对应了一个《攻击》，则在那个《攻击》结算之后结算此牌的效果。\n选择任意个区域，将这些区域中你放置的裂伤指示物以任意顺序伤害化。那之后，进行一次“攻击距离1-4 伤害2/1 不可被对应（通常牌） 【常时】此《攻击》得+0/+X，X为本你在本回合受到过的伤害的次数的一半（向上取整）”的攻击。', textZhG1: '', textKo: ' 【상시】 이 카드가 대응하고 있는 《공격》이 있다면, 그 《공격》을 해결한 후에 이 카드의 효과를 해결한다.\n임의의 수의 영역을 고른 뒤 그 곳에 놓인 당신의 열상 토큰을 원하는 순서대로 데미지화 한다. 그 후, 공격 『적정거리 1-4, 2/1, 대응불가(통상패), 【상시】 이 《공격》은 +0/+X 된다. X는 이번 턴에 당신이 데미지를 받은 횟수의 절반(올림)과 같다.』을 수행한다.', textEn: 'Forced: If this card was played as a Reaction to an attack, resolve its effects after that attack resolves.\n\nChoose any number of zones. Apply the damage of your Laceration tokens in those zones in the order of your choosing. Then, you attack with "Range: 1-4, Damage: 2/1, No Reactions (Normal), Forced: This attack gains +0/+X, where X is half the number of times you\'ve taken damage this turn, rounded up."'},</v>
       </c>
       <c r="AU9" s="31" t="str">
@@ -25734,7 +25578,7 @@
       <c r="AR10" s="57"/>
       <c r="AS10" s="57"/>
       <c r="AT10" s="30" t="str">
-        <f aca="false">IF(A10="", "","'"&amp;A10&amp;"': {megami: '"&amp;B10&amp;"'"&amp;IF(C10&lt;&gt;"",", anotherID: '"&amp;C10&amp;"', replace: '"&amp;D10&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E10,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K10,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G10,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H10,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J10,"'","\'")&amp;"', ruby: '"&amp;F10&amp;"', rubyEn: '"&amp;L10&amp;IF(I10&lt;&gt;"", "', rubyZh: '"&amp;I10, "")&amp;"', baseType: '"&amp;VLOOKUP(M10,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N10="○",", extra: true","")&amp;IF(O10&lt;&gt;"",", extraFrom: '"&amp;O10&amp;"'","")&amp;IF(P10&lt;&gt;"",", exchangableTo: '"&amp;P10&amp;"'","")&amp;IF(Q10="○",", poison: true","")&amp;IF(R10&lt;&gt;"", ", type: '"&amp;VLOOKUP(R10,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S10&lt;&gt;"",", subType: '"&amp;VLOOKUP(S10,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T10&lt;&gt;"",", range: '"&amp;T10&amp;"'","")&amp;IF(V10&lt;&gt;"",", damage: '"&amp;V10&amp;"'","")&amp;IF(X10&lt;&gt;"",", capacity: '"&amp;X10&amp;"'","")&amp;IF(Y10&lt;&gt;"",", growth: "&amp;Y10&amp;"","")&amp;IF(Z10&lt;&gt;"",", cost: '"&amp;Z10&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE10, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF10&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH10&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ10&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL10&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN10&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB10="○",", sealable: true","")&amp;IF(AC10="○",", removable: true","")&amp;IF(AA10="○",", lie: true","")&amp;IF(AD10="○",", investable: true","")&amp;"},")</f>
+        <f aca="false">IF(A10="", "","'"&amp;A10&amp;"': {megami: '"&amp;B10&amp;"'"&amp;IF(C10&lt;&gt;"",", anotherID: '"&amp;C10&amp;"', replace: '"&amp;D10&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E10,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K10,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G10,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H10,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J10,"'","\'")&amp;"', ruby: '"&amp;F10&amp;"', rubyEn: '"&amp;L10&amp;IF(I10&lt;&gt;"", "', rubyZh: '"&amp;I10, "")&amp;"', baseType: '"&amp;VLOOKUP(M10,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N10="○",", extra: true","")&amp;IF(O10&lt;&gt;"",", extraFrom: '"&amp;O10&amp;"'","")&amp;IF(P10&lt;&gt;"",", exchangableTo: '"&amp;P10&amp;"'","")&amp;IF(Q10="○",", poison: true","")&amp;IF(R10&lt;&gt;"", ", type: '"&amp;VLOOKUP(R10,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S10&lt;&gt;"",", subType: '"&amp;VLOOKUP(S10,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T10&lt;&gt;"",", range: '"&amp;T10&amp;"'","")&amp;IF(V10&lt;&gt;"",", damage: '"&amp;V10&amp;"'","")&amp;IF(X10&lt;&gt;"",", capacity: '"&amp;X10&amp;"'","")&amp;IF(Y10&lt;&gt;"",", growth: "&amp;Y10&amp;"","")&amp;IF(Z10&lt;&gt;"",", cost: '"&amp;Z10&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE10, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF10&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH10&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ10&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL10&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN10&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB10="○",", sealable: true","")&amp;IF(AC10="○",", removable: true","")&amp;IF(AA10="○",", lie: true","")&amp;IF(AD10="○",", investable: true","")&amp;"},")</f>
         <v>'24-shisui-o-s-2': {megami: 'shisui', name: 'ウバラザキ', nameEn: 'Sixth Circle - Utpala', nameZh: '青莲狱花开', nameZhG1: '', nameKo: '우바라자키', ruby: '', rubyEn: '', rubyZh: 'Utpala', baseType: 'special', type: 'attack', range: '1-4', damage: '{2/1}', cost: '{2}', text: '【攻撃後】相手がライフへのダメージを選んだならば、このターンにあなたが次に行うオーラへのダメージが2以下の《攻撃》のダメージは裂傷化する。\n----\n【再起】あなたのオーラとフレアの合計が6以下である。', textZh: '【攻击后】对手选择承受对命伤害的话，本回合中你的对装伤害不大于2的《攻击》造成的伤害裂伤化。\n----\n【再起】自装和自气合计不大于6。', textZhG1: '', textKo: '【공격후】 상대가 라이프 데미지를 선택했다면, 이 턴에 당신이 다음에 수행하는 오라 데미지가 2 이하인 《공격》을 열상화한다.\n----\n【재기】 당신의 오라와 플레어의 합계가 6 이하이다.', textEn: 'After Attack: If your opponent chose to take damage to Life, the Damage from your next attack this turn that has 2 or less Damage to Aura becomes Lacerated.\n\nResurgence: Your total Aura and Flare is 6 or less.'},</v>
       </c>
       <c r="AU10" s="31" t="str">
@@ -26770,7 +26614,7 @@
       <c r="AR11" s="43"/>
       <c r="AS11" s="43"/>
       <c r="AT11" s="30" t="str">
-        <f aca="false">IF(A11="", "","'"&amp;A11&amp;"': {megami: '"&amp;B11&amp;"'"&amp;IF(C11&lt;&gt;"",", anotherID: '"&amp;C11&amp;"', replace: '"&amp;D11&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E11,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K11,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G11,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H11,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J11,"'","\'")&amp;"', ruby: '"&amp;F11&amp;"', rubyEn: '"&amp;L11&amp;IF(I11&lt;&gt;"", "', rubyZh: '"&amp;I11, "")&amp;"', baseType: '"&amp;VLOOKUP(M11,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N11="○",", extra: true","")&amp;IF(O11&lt;&gt;"",", extraFrom: '"&amp;O11&amp;"'","")&amp;IF(P11&lt;&gt;"",", exchangableTo: '"&amp;P11&amp;"'","")&amp;IF(Q11="○",", poison: true","")&amp;IF(R11&lt;&gt;"", ", type: '"&amp;VLOOKUP(R11,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S11&lt;&gt;"",", subType: '"&amp;VLOOKUP(S11,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T11&lt;&gt;"",", range: '"&amp;T11&amp;"'","")&amp;IF(V11&lt;&gt;"",", damage: '"&amp;V11&amp;"'","")&amp;IF(X11&lt;&gt;"",", capacity: '"&amp;X11&amp;"'","")&amp;IF(Y11&lt;&gt;"",", growth: "&amp;Y11&amp;"","")&amp;IF(Z11&lt;&gt;"",", cost: '"&amp;Z11&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE11, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF11&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH11&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ11&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL11&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN11&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB11="○",", sealable: true","")&amp;IF(AC11="○",", removable: true","")&amp;IF(AA11="○",", lie: true","")&amp;IF(AD11="○",", investable: true","")&amp;"},")</f>
+        <f aca="false">IF(A11="", "","'"&amp;A11&amp;"': {megami: '"&amp;B11&amp;"'"&amp;IF(C11&lt;&gt;"",", anotherID: '"&amp;C11&amp;"', replace: '"&amp;D11&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E11,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K11,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G11,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H11,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J11,"'","\'")&amp;"', ruby: '"&amp;F11&amp;"', rubyEn: '"&amp;L11&amp;IF(I11&lt;&gt;"", "', rubyZh: '"&amp;I11, "")&amp;"', baseType: '"&amp;VLOOKUP(M11,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N11="○",", extra: true","")&amp;IF(O11&lt;&gt;"",", extraFrom: '"&amp;O11&amp;"'","")&amp;IF(P11&lt;&gt;"",", exchangableTo: '"&amp;P11&amp;"'","")&amp;IF(Q11="○",", poison: true","")&amp;IF(R11&lt;&gt;"", ", type: '"&amp;VLOOKUP(R11,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S11&lt;&gt;"",", subType: '"&amp;VLOOKUP(S11,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T11&lt;&gt;"",", range: '"&amp;T11&amp;"'","")&amp;IF(V11&lt;&gt;"",", damage: '"&amp;V11&amp;"'","")&amp;IF(X11&lt;&gt;"",", capacity: '"&amp;X11&amp;"'","")&amp;IF(Y11&lt;&gt;"",", growth: "&amp;Y11&amp;"","")&amp;IF(Z11&lt;&gt;"",", cost: '"&amp;Z11&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE11, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF11&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH11&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ11&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL11&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN11&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB11="○",", sealable: true","")&amp;IF(AC11="○",", removable: true","")&amp;IF(AA11="○",", lie: true","")&amp;IF(AD11="○",", investable: true","")&amp;"},")</f>
         <v/>
       </c>
       <c r="AU11" s="31" t="str">
@@ -26848,7 +26692,7 @@
       <c r="AR12" s="43"/>
       <c r="AS12" s="43"/>
       <c r="AT12" s="30" t="str">
-        <f aca="false">IF(A12="", "","'"&amp;A12&amp;"': {megami: '"&amp;B12&amp;"'"&amp;IF(C12&lt;&gt;"",", anotherID: '"&amp;C12&amp;"', replace: '"&amp;D12&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E12,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K12,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G12,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H12,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J12,"'","\'")&amp;"', ruby: '"&amp;F12&amp;"', rubyEn: '"&amp;L12&amp;IF(I12&lt;&gt;"", "', rubyZh: '"&amp;I12, "")&amp;"', baseType: '"&amp;VLOOKUP(M12,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N12="○",", extra: true","")&amp;IF(O12&lt;&gt;"",", extraFrom: '"&amp;O12&amp;"'","")&amp;IF(P12&lt;&gt;"",", exchangableTo: '"&amp;P12&amp;"'","")&amp;IF(Q12="○",", poison: true","")&amp;IF(R12&lt;&gt;"", ", type: '"&amp;VLOOKUP(R12,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S12&lt;&gt;"",", subType: '"&amp;VLOOKUP(S12,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T12&lt;&gt;"",", range: '"&amp;T12&amp;"'","")&amp;IF(V12&lt;&gt;"",", damage: '"&amp;V12&amp;"'","")&amp;IF(X12&lt;&gt;"",", capacity: '"&amp;X12&amp;"'","")&amp;IF(Y12&lt;&gt;"",", growth: "&amp;Y12&amp;"","")&amp;IF(Z12&lt;&gt;"",", cost: '"&amp;Z12&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE12, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF12&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH12&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ12&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL12&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN12&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB12="○",", sealable: true","")&amp;IF(AC12="○",", removable: true","")&amp;IF(AA12="○",", lie: true","")&amp;IF(AD12="○",", investable: true","")&amp;"},")</f>
+        <f aca="false">IF(A12="", "","'"&amp;A12&amp;"': {megami: '"&amp;B12&amp;"'"&amp;IF(C12&lt;&gt;"",", anotherID: '"&amp;C12&amp;"', replace: '"&amp;D12&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E12,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K12,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G12,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H12,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J12,"'","\'")&amp;"', ruby: '"&amp;F12&amp;"', rubyEn: '"&amp;L12&amp;IF(I12&lt;&gt;"", "', rubyZh: '"&amp;I12, "")&amp;"', baseType: '"&amp;VLOOKUP(M12,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N12="○",", extra: true","")&amp;IF(O12&lt;&gt;"",", extraFrom: '"&amp;O12&amp;"'","")&amp;IF(P12&lt;&gt;"",", exchangableTo: '"&amp;P12&amp;"'","")&amp;IF(Q12="○",", poison: true","")&amp;IF(R12&lt;&gt;"", ", type: '"&amp;VLOOKUP(R12,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S12&lt;&gt;"",", subType: '"&amp;VLOOKUP(S12,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T12&lt;&gt;"",", range: '"&amp;T12&amp;"'","")&amp;IF(V12&lt;&gt;"",", damage: '"&amp;V12&amp;"'","")&amp;IF(X12&lt;&gt;"",", capacity: '"&amp;X12&amp;"'","")&amp;IF(Y12&lt;&gt;"",", growth: "&amp;Y12&amp;"","")&amp;IF(Z12&lt;&gt;"",", cost: '"&amp;Z12&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE12, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF12&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH12&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ12&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL12&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN12&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB12="○",", sealable: true","")&amp;IF(AC12="○",", removable: true","")&amp;IF(AA12="○",", lie: true","")&amp;IF(AD12="○",", investable: true","")&amp;"},")</f>
         <v>'25-misora-o-n-1': {megami: 'misora', name: '弓流し', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ゆみながし', rubyEn: '', baseType: 'normal', type: 'attack', range: '4-7', damage: '2/1', text: '【常時】照準が合っているならば、この《攻撃》のオーラへのダメージは「-」になる。\n【攻撃後】現在の間合と照準が等しいならば、ダスト→自オーラ：1\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU12" s="31" t="str">
@@ -27903,7 +27747,7 @@
       <c r="AR13" s="43"/>
       <c r="AS13" s="43"/>
       <c r="AT13" s="30" t="str">
-        <f aca="false">IF(A13="", "","'"&amp;A13&amp;"': {megami: '"&amp;B13&amp;"'"&amp;IF(C13&lt;&gt;"",", anotherID: '"&amp;C13&amp;"', replace: '"&amp;D13&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E13,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K13,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G13,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H13,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J13,"'","\'")&amp;"', ruby: '"&amp;F13&amp;"', rubyEn: '"&amp;L13&amp;IF(I13&lt;&gt;"", "', rubyZh: '"&amp;I13, "")&amp;"', baseType: '"&amp;VLOOKUP(M13,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N13="○",", extra: true","")&amp;IF(O13&lt;&gt;"",", extraFrom: '"&amp;O13&amp;"'","")&amp;IF(P13&lt;&gt;"",", exchangableTo: '"&amp;P13&amp;"'","")&amp;IF(Q13="○",", poison: true","")&amp;IF(R13&lt;&gt;"", ", type: '"&amp;VLOOKUP(R13,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S13&lt;&gt;"",", subType: '"&amp;VLOOKUP(S13,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T13&lt;&gt;"",", range: '"&amp;T13&amp;"'","")&amp;IF(V13&lt;&gt;"",", damage: '"&amp;V13&amp;"'","")&amp;IF(X13&lt;&gt;"",", capacity: '"&amp;X13&amp;"'","")&amp;IF(Y13&lt;&gt;"",", growth: "&amp;Y13&amp;"","")&amp;IF(Z13&lt;&gt;"",", cost: '"&amp;Z13&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE13, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF13&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH13&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ13&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL13&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN13&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB13="○",", sealable: true","")&amp;IF(AC13="○",", removable: true","")&amp;IF(AA13="○",", lie: true","")&amp;IF(AD13="○",", investable: true","")&amp;"},")</f>
+        <f aca="false">IF(A13="", "","'"&amp;A13&amp;"': {megami: '"&amp;B13&amp;"'"&amp;IF(C13&lt;&gt;"",", anotherID: '"&amp;C13&amp;"', replace: '"&amp;D13&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E13,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K13,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G13,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H13,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J13,"'","\'")&amp;"', ruby: '"&amp;F13&amp;"', rubyEn: '"&amp;L13&amp;IF(I13&lt;&gt;"", "', rubyZh: '"&amp;I13, "")&amp;"', baseType: '"&amp;VLOOKUP(M13,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N13="○",", extra: true","")&amp;IF(O13&lt;&gt;"",", extraFrom: '"&amp;O13&amp;"'","")&amp;IF(P13&lt;&gt;"",", exchangableTo: '"&amp;P13&amp;"'","")&amp;IF(Q13="○",", poison: true","")&amp;IF(R13&lt;&gt;"", ", type: '"&amp;VLOOKUP(R13,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S13&lt;&gt;"",", subType: '"&amp;VLOOKUP(S13,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T13&lt;&gt;"",", range: '"&amp;T13&amp;"'","")&amp;IF(V13&lt;&gt;"",", damage: '"&amp;V13&amp;"'","")&amp;IF(X13&lt;&gt;"",", capacity: '"&amp;X13&amp;"'","")&amp;IF(Y13&lt;&gt;"",", growth: "&amp;Y13&amp;"","")&amp;IF(Z13&lt;&gt;"",", cost: '"&amp;Z13&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE13, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF13&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH13&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ13&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL13&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN13&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB13="○",", sealable: true","")&amp;IF(AC13="○",", removable: true","")&amp;IF(AA13="○",", lie: true","")&amp;IF(AD13="○",", investable: true","")&amp;"},")</f>
         <v>'25-misora-o-n-2': {megami: 'misora', name: '狙い蹴り', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ねらいげり', rubyEn: '', baseType: 'normal', type: 'attack', range: '2-4', damage: '2/1', text: '【攻撃後】あなたの照準を1増加させるか、1減少させてもよい。', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU13" s="31" t="str">
@@ -28960,7 +28804,7 @@
       <c r="AR14" s="43"/>
       <c r="AS14" s="43"/>
       <c r="AT14" s="30" t="str">
-        <f aca="false">IF(A14="", "","'"&amp;A14&amp;"': {megami: '"&amp;B14&amp;"'"&amp;IF(C14&lt;&gt;"",", anotherID: '"&amp;C14&amp;"', replace: '"&amp;D14&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E14,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K14,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G14,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H14,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J14,"'","\'")&amp;"', ruby: '"&amp;F14&amp;"', rubyEn: '"&amp;L14&amp;IF(I14&lt;&gt;"", "', rubyZh: '"&amp;I14, "")&amp;"', baseType: '"&amp;VLOOKUP(M14,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N14="○",", extra: true","")&amp;IF(O14&lt;&gt;"",", extraFrom: '"&amp;O14&amp;"'","")&amp;IF(P14&lt;&gt;"",", exchangableTo: '"&amp;P14&amp;"'","")&amp;IF(Q14="○",", poison: true","")&amp;IF(R14&lt;&gt;"", ", type: '"&amp;VLOOKUP(R14,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S14&lt;&gt;"",", subType: '"&amp;VLOOKUP(S14,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T14&lt;&gt;"",", range: '"&amp;T14&amp;"'","")&amp;IF(V14&lt;&gt;"",", damage: '"&amp;V14&amp;"'","")&amp;IF(X14&lt;&gt;"",", capacity: '"&amp;X14&amp;"'","")&amp;IF(Y14&lt;&gt;"",", growth: "&amp;Y14&amp;"","")&amp;IF(Z14&lt;&gt;"",", cost: '"&amp;Z14&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE14, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF14&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH14&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ14&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL14&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN14&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB14="○",", sealable: true","")&amp;IF(AC14="○",", removable: true","")&amp;IF(AA14="○",", lie: true","")&amp;IF(AD14="○",", investable: true","")&amp;"},")</f>
+        <f aca="false">IF(A14="", "","'"&amp;A14&amp;"': {megami: '"&amp;B14&amp;"'"&amp;IF(C14&lt;&gt;"",", anotherID: '"&amp;C14&amp;"', replace: '"&amp;D14&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E14,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K14,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G14,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H14,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J14,"'","\'")&amp;"', ruby: '"&amp;F14&amp;"', rubyEn: '"&amp;L14&amp;IF(I14&lt;&gt;"", "', rubyZh: '"&amp;I14, "")&amp;"', baseType: '"&amp;VLOOKUP(M14,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N14="○",", extra: true","")&amp;IF(O14&lt;&gt;"",", extraFrom: '"&amp;O14&amp;"'","")&amp;IF(P14&lt;&gt;"",", exchangableTo: '"&amp;P14&amp;"'","")&amp;IF(Q14="○",", poison: true","")&amp;IF(R14&lt;&gt;"", ", type: '"&amp;VLOOKUP(R14,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S14&lt;&gt;"",", subType: '"&amp;VLOOKUP(S14,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T14&lt;&gt;"",", range: '"&amp;T14&amp;"'","")&amp;IF(V14&lt;&gt;"",", damage: '"&amp;V14&amp;"'","")&amp;IF(X14&lt;&gt;"",", capacity: '"&amp;X14&amp;"'","")&amp;IF(Y14&lt;&gt;"",", growth: "&amp;Y14&amp;"","")&amp;IF(Z14&lt;&gt;"",", cost: '"&amp;Z14&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE14, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF14&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH14&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ14&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL14&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN14&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB14="○",", sealable: true","")&amp;IF(AC14="○",", removable: true","")&amp;IF(AA14="○",", lie: true","")&amp;IF(AD14="○",", investable: true","")&amp;"},")</f>
         <v>'25-misora-o-n-3': {megami: 'misora', name: '風孔', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'かざあな', rubyEn: '', baseType: 'normal', type: 'attack', subType: 'reaction', range: '2-5', damage: '1/1', text: '【攻撃後】現在の間合と照準を比べて以下のいずれかを行う。\n・現在の間合＞照準…間合→ダスト：1\n・現在の間合＝照準…ダスト→自オーラ：1\n・現在の間合＜照準…ダスト→間合：1\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU14" s="31" t="str">
@@ -29950,7 +29794,7 @@
       <c r="AMK14" s="33"/>
       <c r="XFD14" s="33"/>
     </row>
-    <row r="15" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="44" t="s">
         <v>207</v>
       </c>
@@ -30002,23 +29846,31 @@
       <c r="AE15" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="AF15" s="49"/>
+      <c r="AF15" s="65" t="s">
+        <v>213</v>
+      </c>
       <c r="AG15" s="63"/>
-      <c r="AH15" s="49"/>
+      <c r="AH15" s="15" t="s">
+        <v>214</v>
+      </c>
       <c r="AI15" s="26"/>
       <c r="AJ15" s="49"/>
       <c r="AK15" s="64"/>
-      <c r="AL15" s="49"/>
+      <c r="AL15" s="15" t="s">
+        <v>215</v>
+      </c>
       <c r="AM15" s="63"/>
-      <c r="AN15" s="21"/>
+      <c r="AN15" s="15" t="s">
+        <v>216</v>
+      </c>
       <c r="AO15" s="43"/>
       <c r="AP15" s="43"/>
       <c r="AQ15" s="43"/>
       <c r="AR15" s="43"/>
       <c r="AS15" s="43"/>
       <c r="AT15" s="30" t="str">
-        <f aca="false">IF(A15="", "","'"&amp;A15&amp;"': {megami: '"&amp;B15&amp;"'"&amp;IF(C15&lt;&gt;"",", anotherID: '"&amp;C15&amp;"', replace: '"&amp;D15&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E15,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K15,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G15,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H15,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J15,"'","\'")&amp;"', ruby: '"&amp;F15&amp;"', rubyEn: '"&amp;L15&amp;IF(I15&lt;&gt;"", "', rubyZh: '"&amp;I15, "")&amp;"', baseType: '"&amp;VLOOKUP(M15,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N15="○",", extra: true","")&amp;IF(O15&lt;&gt;"",", extraFrom: '"&amp;O15&amp;"'","")&amp;IF(P15&lt;&gt;"",", exchangableTo: '"&amp;P15&amp;"'","")&amp;IF(Q15="○",", poison: true","")&amp;IF(R15&lt;&gt;"", ", type: '"&amp;VLOOKUP(R15,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S15&lt;&gt;"",", subType: '"&amp;VLOOKUP(S15,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T15&lt;&gt;"",", range: '"&amp;T15&amp;"'","")&amp;IF(V15&lt;&gt;"",", damage: '"&amp;V15&amp;"'","")&amp;IF(X15&lt;&gt;"",", capacity: '"&amp;X15&amp;"'","")&amp;IF(Y15&lt;&gt;"",", growth: "&amp;Y15&amp;"","")&amp;IF(Z15&lt;&gt;"",", cost: '"&amp;Z15&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE15, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF15&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH15&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ15&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL15&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN15&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB15="○",", sealable: true","")&amp;IF(AC15="○",", removable: true","")&amp;IF(AA15="○",", lie: true","")&amp;IF(AD15="○",", investable: true","")&amp;"},")</f>
-        <v>'25-misora-o-n-4': {megami: 'misora', name: '甲矢乙矢', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'はやおとや', rubyEn: '', baseType: 'normal', type: 'attack', subType: 'fullpower', range: '5-15', damage: '5/1', text: '追尾\n【攻撃後】相手は手札から《攻撃》カード1枚を捨て札にする。それが行えない場合、相手は手札を公開し、相手の山札の上から3枚を伏せ札にする。\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
+        <f aca="false">IF(A15="", "","'"&amp;A15&amp;"': {megami: '"&amp;B15&amp;"'"&amp;IF(C15&lt;&gt;"",", anotherID: '"&amp;C15&amp;"', replace: '"&amp;D15&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E15,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K15,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G15,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H15,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J15,"'","\'")&amp;"', ruby: '"&amp;F15&amp;"', rubyEn: '"&amp;L15&amp;IF(I15&lt;&gt;"", "', rubyZh: '"&amp;I15, "")&amp;"', baseType: '"&amp;VLOOKUP(M15,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N15="○",", extra: true","")&amp;IF(O15&lt;&gt;"",", extraFrom: '"&amp;O15&amp;"'","")&amp;IF(P15&lt;&gt;"",", exchangableTo: '"&amp;P15&amp;"'","")&amp;IF(Q15="○",", poison: true","")&amp;IF(R15&lt;&gt;"", ", type: '"&amp;VLOOKUP(R15,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S15&lt;&gt;"",", subType: '"&amp;VLOOKUP(S15,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T15&lt;&gt;"",", range: '"&amp;T15&amp;"'","")&amp;IF(V15&lt;&gt;"",", damage: '"&amp;V15&amp;"'","")&amp;IF(X15&lt;&gt;"",", capacity: '"&amp;X15&amp;"'","")&amp;IF(Y15&lt;&gt;"",", growth: "&amp;Y15&amp;"","")&amp;IF(Z15&lt;&gt;"",", cost: '"&amp;Z15&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE15, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF15&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH15&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ15&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL15&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN15&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB15="○",", sealable: true","")&amp;IF(AC15="○",", removable: true","")&amp;IF(AA15="○",", lie: true","")&amp;IF(AD15="○",", investable: true","")&amp;"},")</f>
+        <v>'25-misora-o-n-4': {megami: 'misora', name: '甲矢乙矢', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'はやおとや', rubyEn: '', baseType: 'normal', type: 'attack', subType: 'fullpower', range: '5-15', damage: '5/1', text: '追尾\n【攻撃後】相手は手札から《攻撃》カード1枚を捨て札にする。それが行えない場合、相手は手札を公開し、相手の山札の上から3枚を伏せ札にする。\n', textAdditional: '（自分の手札を右クリックすることで、手札を相手プレイヤーに公開することが可能）', textZh: '', textZhG1: '', textZhAdditional: '（右键自己的手牌区可以将手牌展示给对方玩家）', textKo: '', textKoAdditional: '(자신의 손패를 우클릭해서 손패를 상대 플레이어에게 공개할 수 있음)', textEn: '', textEnAdditional: '(To reveal your hand, right-click on the hand area.)'},</v>
       </c>
       <c r="AU15" s="31" t="str">
         <f aca="false">IF($A15&lt;&gt;"", "    /** 《"&amp;$E15&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A15, 3, 1)="-", RIGHT($A15,LEN($A15)-3), $A15)), "-", "_")&amp;": TCardId = '"&amp;$A15&amp;"';", "")</f>
@@ -31009,7 +30861,7 @@
     </row>
     <row r="16" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="44" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B16" s="44" t="s">
         <v>30</v>
@@ -31017,10 +30869,10 @@
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G16" s="61"/>
       <c r="H16" s="45"/>
@@ -31051,7 +30903,7 @@
       <c r="AC16" s="44"/>
       <c r="AD16" s="44"/>
       <c r="AE16" s="47" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AF16" s="49"/>
       <c r="AG16" s="63"/>
@@ -31068,7 +30920,7 @@
       <c r="AR16" s="43"/>
       <c r="AS16" s="43"/>
       <c r="AT16" s="30" t="str">
-        <f aca="false">IF(A16="", "","'"&amp;A16&amp;"': {megami: '"&amp;B16&amp;"'"&amp;IF(C16&lt;&gt;"",", anotherID: '"&amp;C16&amp;"', replace: '"&amp;D16&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E16,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K16,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G16,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H16,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J16,"'","\'")&amp;"', ruby: '"&amp;F16&amp;"', rubyEn: '"&amp;L16&amp;IF(I16&lt;&gt;"", "', rubyZh: '"&amp;I16, "")&amp;"', baseType: '"&amp;VLOOKUP(M16,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N16="○",", extra: true","")&amp;IF(O16&lt;&gt;"",", extraFrom: '"&amp;O16&amp;"'","")&amp;IF(P16&lt;&gt;"",", exchangableTo: '"&amp;P16&amp;"'","")&amp;IF(Q16="○",", poison: true","")&amp;IF(R16&lt;&gt;"", ", type: '"&amp;VLOOKUP(R16,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S16&lt;&gt;"",", subType: '"&amp;VLOOKUP(S16,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T16&lt;&gt;"",", range: '"&amp;T16&amp;"'","")&amp;IF(V16&lt;&gt;"",", damage: '"&amp;V16&amp;"'","")&amp;IF(X16&lt;&gt;"",", capacity: '"&amp;X16&amp;"'","")&amp;IF(Y16&lt;&gt;"",", growth: "&amp;Y16&amp;"","")&amp;IF(Z16&lt;&gt;"",", cost: '"&amp;Z16&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE16, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF16&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH16&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ16&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL16&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN16&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB16="○",", sealable: true","")&amp;IF(AC16="○",", removable: true","")&amp;IF(AA16="○",", lie: true","")&amp;IF(AD16="○",", investable: true","")&amp;"},")</f>
+        <f aca="false">IF(A16="", "","'"&amp;A16&amp;"': {megami: '"&amp;B16&amp;"'"&amp;IF(C16&lt;&gt;"",", anotherID: '"&amp;C16&amp;"', replace: '"&amp;D16&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E16,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K16,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G16,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H16,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J16,"'","\'")&amp;"', ruby: '"&amp;F16&amp;"', rubyEn: '"&amp;L16&amp;IF(I16&lt;&gt;"", "', rubyZh: '"&amp;I16, "")&amp;"', baseType: '"&amp;VLOOKUP(M16,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N16="○",", extra: true","")&amp;IF(O16&lt;&gt;"",", extraFrom: '"&amp;O16&amp;"'","")&amp;IF(P16&lt;&gt;"",", exchangableTo: '"&amp;P16&amp;"'","")&amp;IF(Q16="○",", poison: true","")&amp;IF(R16&lt;&gt;"", ", type: '"&amp;VLOOKUP(R16,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S16&lt;&gt;"",", subType: '"&amp;VLOOKUP(S16,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T16&lt;&gt;"",", range: '"&amp;T16&amp;"'","")&amp;IF(V16&lt;&gt;"",", damage: '"&amp;V16&amp;"'","")&amp;IF(X16&lt;&gt;"",", capacity: '"&amp;X16&amp;"'","")&amp;IF(Y16&lt;&gt;"",", growth: "&amp;Y16&amp;"","")&amp;IF(Z16&lt;&gt;"",", cost: '"&amp;Z16&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE16, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF16&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH16&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ16&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL16&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN16&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB16="○",", sealable: true","")&amp;IF(AC16="○",", removable: true","")&amp;IF(AA16="○",", lie: true","")&amp;IF(AD16="○",", investable: true","")&amp;"},")</f>
         <v>'25-misora-o-n-5': {megami: 'misora', name: '精密化', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'せいみつか', rubyEn: '', baseType: 'normal', type: 'action', text: '集中力を1得る。\nこのターンにあなたが次に行う他のメガミの通常札によるオーラへのダメージが「-」でない《攻撃》は、照準が合っているならば+1/+1となる。\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU16" s="31" t="str">
@@ -32058,9 +31910,9 @@
       <c r="AMK16" s="33"/>
       <c r="XFD16" s="33"/>
     </row>
-    <row r="17" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="44" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B17" s="44" t="s">
         <v>30</v>
@@ -32068,10 +31920,10 @@
       <c r="C17" s="44"/>
       <c r="D17" s="44"/>
       <c r="E17" s="44" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F17" s="44" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G17" s="61"/>
       <c r="H17" s="45"/>
@@ -32102,25 +31954,27 @@
       <c r="AC17" s="44"/>
       <c r="AD17" s="44"/>
       <c r="AE17" s="47" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
-      <c r="AF17" s="49"/>
+      <c r="AF17" s="65" t="s">
+        <v>225</v>
+      </c>
       <c r="AG17" s="63"/>
-      <c r="AH17" s="49"/>
+      <c r="AH17" s="63"/>
       <c r="AI17" s="26"/>
       <c r="AJ17" s="49"/>
       <c r="AK17" s="64"/>
-      <c r="AL17" s="49"/>
+      <c r="AL17" s="63"/>
       <c r="AM17" s="63"/>
-      <c r="AN17" s="21"/>
+      <c r="AN17" s="63"/>
       <c r="AO17" s="43"/>
       <c r="AP17" s="43"/>
       <c r="AQ17" s="43"/>
       <c r="AR17" s="43"/>
       <c r="AS17" s="43"/>
       <c r="AT17" s="30" t="str">
-        <f aca="false">IF(A17="", "","'"&amp;A17&amp;"': {megami: '"&amp;B17&amp;"'"&amp;IF(C17&lt;&gt;"",", anotherID: '"&amp;C17&amp;"', replace: '"&amp;D17&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E17,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K17,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G17,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H17,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J17,"'","\'")&amp;"', ruby: '"&amp;F17&amp;"', rubyEn: '"&amp;L17&amp;IF(I17&lt;&gt;"", "', rubyZh: '"&amp;I17, "")&amp;"', baseType: '"&amp;VLOOKUP(M17,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N17="○",", extra: true","")&amp;IF(O17&lt;&gt;"",", extraFrom: '"&amp;O17&amp;"'","")&amp;IF(P17&lt;&gt;"",", exchangableTo: '"&amp;P17&amp;"'","")&amp;IF(Q17="○",", poison: true","")&amp;IF(R17&lt;&gt;"", ", type: '"&amp;VLOOKUP(R17,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S17&lt;&gt;"",", subType: '"&amp;VLOOKUP(S17,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T17&lt;&gt;"",", range: '"&amp;T17&amp;"'","")&amp;IF(V17&lt;&gt;"",", damage: '"&amp;V17&amp;"'","")&amp;IF(X17&lt;&gt;"",", capacity: '"&amp;X17&amp;"'","")&amp;IF(Y17&lt;&gt;"",", growth: "&amp;Y17&amp;"","")&amp;IF(Z17&lt;&gt;"",", cost: '"&amp;Z17&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE17, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF17&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH17&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ17&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL17&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN17&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB17="○",", sealable: true","")&amp;IF(AC17="○",", removable: true","")&amp;IF(AA17="○",", lie: true","")&amp;IF(AD17="○",", investable: true","")&amp;"},")</f>
-        <v>'25-misora-o-n-6': {megami: 'misora', name: '追尾撃', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ついびげき', rubyEn: '', baseType: 'normal', type: 'action', text: '眼前構築で選んでいない他のメガミのカードまたは伏せ札のカードから、《全力》でない《攻撃》の通常札1枚を選び、それに追尾を与えて使用する。ゲーム外から使用したそのカードが領域を移動するならば、代わりに裏向きで取り除く。(眼前構築で選んでいない状態に戻る)', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
+        <f aca="false">IF(A17="", "","'"&amp;A17&amp;"': {megami: '"&amp;B17&amp;"'"&amp;IF(C17&lt;&gt;"",", anotherID: '"&amp;C17&amp;"', replace: '"&amp;D17&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E17,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K17,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G17,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H17,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J17,"'","\'")&amp;"', ruby: '"&amp;F17&amp;"', rubyEn: '"&amp;L17&amp;IF(I17&lt;&gt;"", "', rubyZh: '"&amp;I17, "")&amp;"', baseType: '"&amp;VLOOKUP(M17,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N17="○",", extra: true","")&amp;IF(O17&lt;&gt;"",", extraFrom: '"&amp;O17&amp;"'","")&amp;IF(P17&lt;&gt;"",", exchangableTo: '"&amp;P17&amp;"'","")&amp;IF(Q17="○",", poison: true","")&amp;IF(R17&lt;&gt;"", ", type: '"&amp;VLOOKUP(R17,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S17&lt;&gt;"",", subType: '"&amp;VLOOKUP(S17,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T17&lt;&gt;"",", range: '"&amp;T17&amp;"'","")&amp;IF(V17&lt;&gt;"",", damage: '"&amp;V17&amp;"'","")&amp;IF(X17&lt;&gt;"",", capacity: '"&amp;X17&amp;"'","")&amp;IF(Y17&lt;&gt;"",", growth: "&amp;Y17&amp;"","")&amp;IF(Z17&lt;&gt;"",", cost: '"&amp;Z17&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE17, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF17&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH17&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ17&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL17&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN17&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB17="○",", sealable: true","")&amp;IF(AC17="○",", removable: true","")&amp;IF(AA17="○",", lie: true","")&amp;IF(AD17="○",", investable: true","")&amp;"},")</f>
+        <v>'25-misora-o-n-6': {megami: 'misora', name: '追尾撃', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ついびげき', rubyEn: '', baseType: 'normal', type: 'action', text: '眼前構築で選んでいない他のメガミのカードまたは伏せ札のカードから、《全力》でない《攻撃》の通常札1枚を選び、それに追尾を与えて使用する。ゲーム外から使用したそのカードが領域を移動するならば、代わりに裏向きで取り除く。(眼前構築で選んでいない状態に戻る)', textAdditional: '（このカードを右クリックすることで、眼前構築で選んでいないカードを取得可能。また、使用したカードを右クリックすることで取り除くことができる）', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU17" s="31" t="str">
         <f aca="false">IF($A17&lt;&gt;"", "    /** 《"&amp;$E17&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A17, 3, 1)="-", RIGHT($A17,LEN($A17)-3), $A17)), "-", "_")&amp;": TCardId = '"&amp;$A17&amp;"';", "")</f>
@@ -33111,7 +32965,7 @@
     </row>
     <row r="18" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="44" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B18" s="44" t="s">
         <v>30</v>
@@ -33119,10 +32973,10 @@
       <c r="C18" s="44"/>
       <c r="D18" s="44"/>
       <c r="E18" s="44" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G18" s="61"/>
       <c r="H18" s="45"/>
@@ -33155,7 +33009,7 @@
       <c r="AC18" s="44"/>
       <c r="AD18" s="44"/>
       <c r="AE18" s="47" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AF18" s="49"/>
       <c r="AG18" s="63"/>
@@ -33172,7 +33026,7 @@
       <c r="AR18" s="43"/>
       <c r="AS18" s="43"/>
       <c r="AT18" s="30" t="str">
-        <f aca="false">IF(A18="", "","'"&amp;A18&amp;"': {megami: '"&amp;B18&amp;"'"&amp;IF(C18&lt;&gt;"",", anotherID: '"&amp;C18&amp;"', replace: '"&amp;D18&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E18,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K18,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G18,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H18,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J18,"'","\'")&amp;"', ruby: '"&amp;F18&amp;"', rubyEn: '"&amp;L18&amp;IF(I18&lt;&gt;"", "', rubyZh: '"&amp;I18, "")&amp;"', baseType: '"&amp;VLOOKUP(M18,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N18="○",", extra: true","")&amp;IF(O18&lt;&gt;"",", extraFrom: '"&amp;O18&amp;"'","")&amp;IF(P18&lt;&gt;"",", exchangableTo: '"&amp;P18&amp;"'","")&amp;IF(Q18="○",", poison: true","")&amp;IF(R18&lt;&gt;"", ", type: '"&amp;VLOOKUP(R18,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S18&lt;&gt;"",", subType: '"&amp;VLOOKUP(S18,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T18&lt;&gt;"",", range: '"&amp;T18&amp;"'","")&amp;IF(V18&lt;&gt;"",", damage: '"&amp;V18&amp;"'","")&amp;IF(X18&lt;&gt;"",", capacity: '"&amp;X18&amp;"'","")&amp;IF(Y18&lt;&gt;"",", growth: "&amp;Y18&amp;"","")&amp;IF(Z18&lt;&gt;"",", cost: '"&amp;Z18&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE18, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF18&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH18&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ18&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL18&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN18&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB18="○",", sealable: true","")&amp;IF(AC18="○",", removable: true","")&amp;IF(AA18="○",", lie: true","")&amp;IF(AD18="○",", investable: true","")&amp;"},")</f>
+        <f aca="false">IF(A18="", "","'"&amp;A18&amp;"': {megami: '"&amp;B18&amp;"'"&amp;IF(C18&lt;&gt;"",", anotherID: '"&amp;C18&amp;"', replace: '"&amp;D18&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E18,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K18,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G18,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H18,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J18,"'","\'")&amp;"', ruby: '"&amp;F18&amp;"', rubyEn: '"&amp;L18&amp;IF(I18&lt;&gt;"", "', rubyZh: '"&amp;I18, "")&amp;"', baseType: '"&amp;VLOOKUP(M18,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N18="○",", extra: true","")&amp;IF(O18&lt;&gt;"",", extraFrom: '"&amp;O18&amp;"'","")&amp;IF(P18&lt;&gt;"",", exchangableTo: '"&amp;P18&amp;"'","")&amp;IF(Q18="○",", poison: true","")&amp;IF(R18&lt;&gt;"", ", type: '"&amp;VLOOKUP(R18,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S18&lt;&gt;"",", subType: '"&amp;VLOOKUP(S18,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T18&lt;&gt;"",", range: '"&amp;T18&amp;"'","")&amp;IF(V18&lt;&gt;"",", damage: '"&amp;V18&amp;"'","")&amp;IF(X18&lt;&gt;"",", capacity: '"&amp;X18&amp;"'","")&amp;IF(Y18&lt;&gt;"",", growth: "&amp;Y18&amp;"","")&amp;IF(Z18&lt;&gt;"",", cost: '"&amp;Z18&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE18, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF18&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH18&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ18&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL18&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN18&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB18="○",", sealable: true","")&amp;IF(AC18="○",", removable: true","")&amp;IF(AA18="○",", lie: true","")&amp;IF(AD18="○",", investable: true","")&amp;"},")</f>
         <v>'25-misora-o-n-7': {megami: 'misora', name: '空の翼', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'そらのつばさ', rubyEn: '', baseType: 'normal', type: 'enhance', capacity: '2', text: '終端　間合制限(0-3)\n【展開時】相オーラ→間合：2\n【破棄時】このターン中、現在の間合は1増加し、達人の間合は1大きくなる。\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU18" s="31" t="str">
@@ -34162,9 +34016,9 @@
       <c r="AMK18" s="33"/>
       <c r="XFD18" s="33"/>
     </row>
-    <row r="19" customFormat="false" ht="72.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="44" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B19" s="44" t="s">
         <v>30</v>
@@ -34172,7 +34026,7 @@
       <c r="C19" s="44"/>
       <c r="D19" s="44"/>
       <c r="E19" s="44" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F19" s="44"/>
       <c r="G19" s="61"/>
@@ -34193,11 +34047,11 @@
       </c>
       <c r="S19" s="45"/>
       <c r="T19" s="44" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="U19" s="43"/>
       <c r="V19" s="44" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="W19" s="43"/>
       <c r="X19" s="44"/>
@@ -34210,7 +34064,7 @@
       <c r="AC19" s="44"/>
       <c r="AD19" s="44"/>
       <c r="AE19" s="47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AF19" s="49"/>
       <c r="AG19" s="63"/>
@@ -34227,7 +34081,7 @@
       <c r="AR19" s="43"/>
       <c r="AS19" s="43"/>
       <c r="AT19" s="30" t="str">
-        <f aca="false">IF(A19="", "","'"&amp;A19&amp;"': {megami: '"&amp;B19&amp;"'"&amp;IF(C19&lt;&gt;"",", anotherID: '"&amp;C19&amp;"', replace: '"&amp;D19&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E19,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K19,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G19,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H19,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J19,"'","\'")&amp;"', ruby: '"&amp;F19&amp;"', rubyEn: '"&amp;L19&amp;IF(I19&lt;&gt;"", "', rubyZh: '"&amp;I19, "")&amp;"', baseType: '"&amp;VLOOKUP(M19,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N19="○",", extra: true","")&amp;IF(O19&lt;&gt;"",", extraFrom: '"&amp;O19&amp;"'","")&amp;IF(P19&lt;&gt;"",", exchangableTo: '"&amp;P19&amp;"'","")&amp;IF(Q19="○",", poison: true","")&amp;IF(R19&lt;&gt;"", ", type: '"&amp;VLOOKUP(R19,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S19&lt;&gt;"",", subType: '"&amp;VLOOKUP(S19,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T19&lt;&gt;"",", range: '"&amp;T19&amp;"'","")&amp;IF(V19&lt;&gt;"",", damage: '"&amp;V19&amp;"'","")&amp;IF(X19&lt;&gt;"",", capacity: '"&amp;X19&amp;"'","")&amp;IF(Y19&lt;&gt;"",", growth: "&amp;Y19&amp;"","")&amp;IF(Z19&lt;&gt;"",", cost: '"&amp;Z19&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE19, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF19&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH19&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ19&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL19&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN19&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB19="○",", sealable: true","")&amp;IF(AC19="○",", removable: true","")&amp;IF(AA19="○",", lie: true","")&amp;IF(AD19="○",", investable: true","")&amp;"},")</f>
+        <f aca="false">IF(A19="", "","'"&amp;A19&amp;"': {megami: '"&amp;B19&amp;"'"&amp;IF(C19&lt;&gt;"",", anotherID: '"&amp;C19&amp;"', replace: '"&amp;D19&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E19,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K19,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G19,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H19,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J19,"'","\'")&amp;"', ruby: '"&amp;F19&amp;"', rubyEn: '"&amp;L19&amp;IF(I19&lt;&gt;"", "', rubyZh: '"&amp;I19, "")&amp;"', baseType: '"&amp;VLOOKUP(M19,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N19="○",", extra: true","")&amp;IF(O19&lt;&gt;"",", extraFrom: '"&amp;O19&amp;"'","")&amp;IF(P19&lt;&gt;"",", exchangableTo: '"&amp;P19&amp;"'","")&amp;IF(Q19="○",", poison: true","")&amp;IF(R19&lt;&gt;"", ", type: '"&amp;VLOOKUP(R19,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S19&lt;&gt;"",", subType: '"&amp;VLOOKUP(S19,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T19&lt;&gt;"",", range: '"&amp;T19&amp;"'","")&amp;IF(V19&lt;&gt;"",", damage: '"&amp;V19&amp;"'","")&amp;IF(X19&lt;&gt;"",", capacity: '"&amp;X19&amp;"'","")&amp;IF(Y19&lt;&gt;"",", growth: "&amp;Y19&amp;"","")&amp;IF(Z19&lt;&gt;"",", cost: '"&amp;Z19&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE19, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF19&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH19&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ19&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL19&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN19&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB19="○",", sealable: true","")&amp;IF(AC19="○",", removable: true","")&amp;IF(AA19="○",", lie: true","")&amp;IF(AD19="○",", investable: true","")&amp;"},")</f>
         <v>'25-misora-o-s-1': {megami: 'misora', name: 'ミハテヌハテ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'special', type: 'attack', range: 'X', damage: '-/1', cost: '2', text: '追尾　対応不可\n【常時】Xは3にこのカードの上の桜花結晶の数の2倍を加えた値に等しい。\n【攻撃後】Xが7以上ならば、相手の山札を全て伏せ札にする。\n【使用済】あなたの終了フェイズにこのカードの上にダストから1つ桜花結晶を置き、このカードを未使用に戻す。\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU19" s="31" t="str">
@@ -35217,9 +35071,9 @@
       <c r="AMK19" s="33"/>
       <c r="XFD19" s="33"/>
     </row>
-    <row r="20" customFormat="false" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="44" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B20" s="44" t="s">
         <v>30</v>
@@ -35227,7 +35081,7 @@
       <c r="C20" s="44"/>
       <c r="D20" s="44"/>
       <c r="E20" s="44" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F20" s="44"/>
       <c r="G20" s="61"/>
@@ -35252,18 +35106,18 @@
       <c r="V20" s="44"/>
       <c r="W20" s="43"/>
       <c r="X20" s="44" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Y20" s="44"/>
       <c r="Z20" s="44" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AA20" s="44"/>
       <c r="AB20" s="44"/>
       <c r="AC20" s="44"/>
       <c r="AD20" s="44"/>
       <c r="AE20" s="47" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AF20" s="49"/>
       <c r="AG20" s="63"/>
@@ -35280,7 +35134,7 @@
       <c r="AR20" s="43"/>
       <c r="AS20" s="43"/>
       <c r="AT20" s="30" t="str">
-        <f aca="false">IF(A20="", "","'"&amp;A20&amp;"': {megami: '"&amp;B20&amp;"'"&amp;IF(C20&lt;&gt;"",", anotherID: '"&amp;C20&amp;"', replace: '"&amp;D20&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E20,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K20,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G20,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H20,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J20,"'","\'")&amp;"', ruby: '"&amp;F20&amp;"', rubyEn: '"&amp;L20&amp;IF(I20&lt;&gt;"", "', rubyZh: '"&amp;I20, "")&amp;"', baseType: '"&amp;VLOOKUP(M20,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N20="○",", extra: true","")&amp;IF(O20&lt;&gt;"",", extraFrom: '"&amp;O20&amp;"'","")&amp;IF(P20&lt;&gt;"",", exchangableTo: '"&amp;P20&amp;"'","")&amp;IF(Q20="○",", poison: true","")&amp;IF(R20&lt;&gt;"", ", type: '"&amp;VLOOKUP(R20,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S20&lt;&gt;"",", subType: '"&amp;VLOOKUP(S20,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T20&lt;&gt;"",", range: '"&amp;T20&amp;"'","")&amp;IF(V20&lt;&gt;"",", damage: '"&amp;V20&amp;"'","")&amp;IF(X20&lt;&gt;"",", capacity: '"&amp;X20&amp;"'","")&amp;IF(Y20&lt;&gt;"",", growth: "&amp;Y20&amp;"","")&amp;IF(Z20&lt;&gt;"",", cost: '"&amp;Z20&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE20, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF20&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH20&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ20&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL20&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN20&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB20="○",", sealable: true","")&amp;IF(AC20="○",", removable: true","")&amp;IF(AA20="○",", lie: true","")&amp;IF(AD20="○",", investable: true","")&amp;"},")</f>
+        <f aca="false">IF(A20="", "","'"&amp;A20&amp;"': {megami: '"&amp;B20&amp;"'"&amp;IF(C20&lt;&gt;"",", anotherID: '"&amp;C20&amp;"', replace: '"&amp;D20&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E20,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K20,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G20,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H20,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J20,"'","\'")&amp;"', ruby: '"&amp;F20&amp;"', rubyEn: '"&amp;L20&amp;IF(I20&lt;&gt;"", "', rubyZh: '"&amp;I20, "")&amp;"', baseType: '"&amp;VLOOKUP(M20,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N20="○",", extra: true","")&amp;IF(O20&lt;&gt;"",", extraFrom: '"&amp;O20&amp;"'","")&amp;IF(P20&lt;&gt;"",", exchangableTo: '"&amp;P20&amp;"'","")&amp;IF(Q20="○",", poison: true","")&amp;IF(R20&lt;&gt;"", ", type: '"&amp;VLOOKUP(R20,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S20&lt;&gt;"",", subType: '"&amp;VLOOKUP(S20,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T20&lt;&gt;"",", range: '"&amp;T20&amp;"'","")&amp;IF(V20&lt;&gt;"",", damage: '"&amp;V20&amp;"'","")&amp;IF(X20&lt;&gt;"",", capacity: '"&amp;X20&amp;"'","")&amp;IF(Y20&lt;&gt;"",", growth: "&amp;Y20&amp;"","")&amp;IF(Z20&lt;&gt;"",", cost: '"&amp;Z20&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE20, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF20&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH20&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ20&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL20&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN20&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB20="○",", sealable: true","")&amp;IF(AC20="○",", removable: true","")&amp;IF(AA20="○",", lie: true","")&amp;IF(AD20="○",", investable: true","")&amp;"},")</f>
         <v>'25-misora-o-s-2': {megami: 'misora', name: 'ツクモノクモ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'special', type: 'enhance', capacity: '1', cost: '1', text: '【展開中】照準があるならば、現在の問合は照準に等しくなる。\n【展開中】あなたは基本動作《前進》と《離脱》を行えない。\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU20" s="31" t="str">
@@ -36270,9 +36124,9 @@
       <c r="AMK20" s="33"/>
       <c r="XFD20" s="33"/>
     </row>
-    <row r="21" customFormat="false" ht="62.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="44" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B21" s="44" t="s">
         <v>30</v>
@@ -36280,7 +36134,7 @@
       <c r="C21" s="44"/>
       <c r="D21" s="44"/>
       <c r="E21" s="44" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F21" s="44"/>
       <c r="G21" s="61"/>
@@ -36314,11 +36168,13 @@
         <v>99</v>
       </c>
       <c r="AA21" s="44"/>
-      <c r="AB21" s="44"/>
+      <c r="AB21" s="44" t="s">
+        <v>29</v>
+      </c>
       <c r="AC21" s="44"/>
       <c r="AD21" s="44"/>
       <c r="AE21" s="47" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="AF21" s="49"/>
       <c r="AG21" s="63"/>
@@ -36335,8 +36191,8 @@
       <c r="AR21" s="43"/>
       <c r="AS21" s="43"/>
       <c r="AT21" s="30" t="str">
-        <f aca="false">IF(A21="", "","'"&amp;A21&amp;"': {megami: '"&amp;B21&amp;"'"&amp;IF(C21&lt;&gt;"",", anotherID: '"&amp;C21&amp;"', replace: '"&amp;D21&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E21,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K21,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G21,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H21,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J21,"'","\'")&amp;"', ruby: '"&amp;F21&amp;"', rubyEn: '"&amp;L21&amp;IF(I21&lt;&gt;"", "', rubyZh: '"&amp;I21, "")&amp;"', baseType: '"&amp;VLOOKUP(M21,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N21="○",", extra: true","")&amp;IF(O21&lt;&gt;"",", extraFrom: '"&amp;O21&amp;"'","")&amp;IF(P21&lt;&gt;"",", exchangableTo: '"&amp;P21&amp;"'","")&amp;IF(Q21="○",", poison: true","")&amp;IF(R21&lt;&gt;"", ", type: '"&amp;VLOOKUP(R21,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S21&lt;&gt;"",", subType: '"&amp;VLOOKUP(S21,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T21&lt;&gt;"",", range: '"&amp;T21&amp;"'","")&amp;IF(V21&lt;&gt;"",", damage: '"&amp;V21&amp;"'","")&amp;IF(X21&lt;&gt;"",", capacity: '"&amp;X21&amp;"'","")&amp;IF(Y21&lt;&gt;"",", growth: "&amp;Y21&amp;"","")&amp;IF(Z21&lt;&gt;"",", cost: '"&amp;Z21&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE21, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF21&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH21&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ21&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL21&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN21&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB21="○",", sealable: true","")&amp;IF(AC21="○",", removable: true","")&amp;IF(AA21="○",", lie: true","")&amp;IF(AD21="○",", investable: true","")&amp;"},")</f>
-        <v>'25-misora-o-s-3': {megami: 'misora', name: 'カカゲルカゲ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'special', type: 'enhance', subType: 'reaction', capacity: '3', cost: '2', text: '【展開時】対応した通常札による《攻撃》の適正距離があなたの照準を含むならば、対応した《攻撃》を打ち消し、そのカードをこのカードの下に封印する。\n【破棄時】このカードに封印されたカードを相手の捨て札に戻す。\n\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
+        <f aca="false">IF(A21="", "","'"&amp;A21&amp;"': {megami: '"&amp;B21&amp;"'"&amp;IF(C21&lt;&gt;"",", anotherID: '"&amp;C21&amp;"', replace: '"&amp;D21&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E21,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K21,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G21,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H21,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J21,"'","\'")&amp;"', ruby: '"&amp;F21&amp;"', rubyEn: '"&amp;L21&amp;IF(I21&lt;&gt;"", "', rubyZh: '"&amp;I21, "")&amp;"', baseType: '"&amp;VLOOKUP(M21,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N21="○",", extra: true","")&amp;IF(O21&lt;&gt;"",", extraFrom: '"&amp;O21&amp;"'","")&amp;IF(P21&lt;&gt;"",", exchangableTo: '"&amp;P21&amp;"'","")&amp;IF(Q21="○",", poison: true","")&amp;IF(R21&lt;&gt;"", ", type: '"&amp;VLOOKUP(R21,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S21&lt;&gt;"",", subType: '"&amp;VLOOKUP(S21,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T21&lt;&gt;"",", range: '"&amp;T21&amp;"'","")&amp;IF(V21&lt;&gt;"",", damage: '"&amp;V21&amp;"'","")&amp;IF(X21&lt;&gt;"",", capacity: '"&amp;X21&amp;"'","")&amp;IF(Y21&lt;&gt;"",", growth: "&amp;Y21&amp;"","")&amp;IF(Z21&lt;&gt;"",", cost: '"&amp;Z21&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE21, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF21&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH21&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ21&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL21&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN21&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB21="○",", sealable: true","")&amp;IF(AC21="○",", removable: true","")&amp;IF(AA21="○",", lie: true","")&amp;IF(AD21="○",", investable: true","")&amp;"},")</f>
+        <v>'25-misora-o-s-3': {megami: 'misora', name: 'カカゲルカゲ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'special', type: 'enhance', subType: 'reaction', capacity: '3', cost: '2', text: '【展開時】対応した通常札による《攻撃》の適正距離があなたの照準を含むならば、対応した《攻撃》を打ち消し、そのカードをこのカードの下に封印する。\n【破棄時】このカードに封印されたカードを相手の捨て札に戻す。\n\n', textZh: '', textZhG1: '', textKo: '', textEn: '', sealable: true},</v>
       </c>
       <c r="AU21" s="31" t="str">
         <f aca="false">IF($A21&lt;&gt;"", "    /** 《"&amp;$E21&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A21, 3, 1)="-", RIGHT($A21,LEN($A21)-3), $A21)), "-", "_")&amp;": TCardId = '"&amp;$A21&amp;"';", "")</f>
@@ -37327,7 +37183,7 @@
     </row>
     <row r="22" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="44" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B22" s="44" t="s">
         <v>30</v>
@@ -37335,7 +37191,7 @@
       <c r="C22" s="44"/>
       <c r="D22" s="44"/>
       <c r="E22" s="44" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F22" s="44"/>
       <c r="G22" s="61"/>
@@ -37364,14 +37220,14 @@
       </c>
       <c r="Y22" s="44"/>
       <c r="Z22" s="44" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AA22" s="44"/>
       <c r="AB22" s="44"/>
       <c r="AC22" s="44"/>
       <c r="AD22" s="44"/>
       <c r="AE22" s="47" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AF22" s="49"/>
       <c r="AG22" s="63"/>
@@ -37388,7 +37244,7 @@
       <c r="AR22" s="43"/>
       <c r="AS22" s="43"/>
       <c r="AT22" s="30" t="str">
-        <f aca="false">IF(A22="", "","'"&amp;A22&amp;"': {megami: '"&amp;B22&amp;"'"&amp;IF(C22&lt;&gt;"",", anotherID: '"&amp;C22&amp;"', replace: '"&amp;D22&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E22,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K22,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G22,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H22,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J22,"'","\'")&amp;"', ruby: '"&amp;F22&amp;"', rubyEn: '"&amp;L22&amp;IF(I22&lt;&gt;"", "', rubyZh: '"&amp;I22, "")&amp;"', baseType: '"&amp;VLOOKUP(M22,[1]マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N22="○",", extra: true","")&amp;IF(O22&lt;&gt;"",", extraFrom: '"&amp;O22&amp;"'","")&amp;IF(P22&lt;&gt;"",", exchangableTo: '"&amp;P22&amp;"'","")&amp;IF(Q22="○",", poison: true","")&amp;IF(R22&lt;&gt;"", ", type: '"&amp;VLOOKUP(R22,[1]マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S22&lt;&gt;"",", subType: '"&amp;VLOOKUP(S22,[1]マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T22&lt;&gt;"",", range: '"&amp;T22&amp;"'","")&amp;IF(V22&lt;&gt;"",", damage: '"&amp;V22&amp;"'","")&amp;IF(X22&lt;&gt;"",", capacity: '"&amp;X22&amp;"'","")&amp;IF(Y22&lt;&gt;"",", growth: "&amp;Y22&amp;"","")&amp;IF(Z22&lt;&gt;"",", cost: '"&amp;Z22&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE22, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF22&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH22&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ22&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL22&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN22&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB22="○",", sealable: true","")&amp;IF(AC22="○",", removable: true","")&amp;IF(AA22="○",", lie: true","")&amp;IF(AD22="○",", investable: true","")&amp;"},")</f>
+        <f aca="false">IF(A22="", "","'"&amp;A22&amp;"': {megami: '"&amp;B22&amp;"'"&amp;IF(C22&lt;&gt;"",", anotherID: '"&amp;C22&amp;"', replace: '"&amp;D22&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E22,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K22,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G22,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H22,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J22,"'","\'")&amp;"', ruby: '"&amp;F22&amp;"', rubyEn: '"&amp;L22&amp;IF(I22&lt;&gt;"", "', rubyZh: '"&amp;I22, "")&amp;"', baseType: '"&amp;VLOOKUP(M22,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N22="○",", extra: true","")&amp;IF(O22&lt;&gt;"",", extraFrom: '"&amp;O22&amp;"'","")&amp;IF(P22&lt;&gt;"",", exchangableTo: '"&amp;P22&amp;"'","")&amp;IF(Q22="○",", poison: true","")&amp;IF(R22&lt;&gt;"", ", type: '"&amp;VLOOKUP(R22,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S22&lt;&gt;"",", subType: '"&amp;VLOOKUP(S22,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T22&lt;&gt;"",", range: '"&amp;T22&amp;"'","")&amp;IF(V22&lt;&gt;"",", damage: '"&amp;V22&amp;"'","")&amp;IF(X22&lt;&gt;"",", capacity: '"&amp;X22&amp;"'","")&amp;IF(Y22&lt;&gt;"",", growth: "&amp;Y22&amp;"","")&amp;IF(Z22&lt;&gt;"",", cost: '"&amp;Z22&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AE22, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AF22&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AH22&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AH22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AJ22&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AJ22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AL22&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AL22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AM22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AN22&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AN22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB22="○",", sealable: true","")&amp;IF(AC22="○",", removable: true","")&amp;IF(AA22="○",", lie: true","")&amp;IF(AD22="○",", investable: true","")&amp;"},")</f>
         <v>'25-misora-o-s-4': {megami: 'misora', name: 'ミソラノソラ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'special', type: 'enhance', capacity: '2', cost: '5', text: '【展開中】現在の間合は5増加する。\n【破棄時】相ライフ→間合：1、相オーラ→間合：1、相フレア→間合：1\n【使用済】このカードは使用できない。\n', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AU22" s="31" t="str">
@@ -48747,7 +48603,7 @@
       <c r="G33" s="44"/>
       <c r="H33" s="44"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="65"/>
+      <c r="J33" s="66"/>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
@@ -48768,15 +48624,15 @@
       <c r="AB33" s="12"/>
       <c r="AC33" s="12"/>
       <c r="AD33" s="12"/>
-      <c r="AE33" s="66"/>
-      <c r="AF33" s="66"/>
+      <c r="AE33" s="65"/>
+      <c r="AF33" s="65"/>
       <c r="AG33" s="49"/>
       <c r="AH33" s="15"/>
       <c r="AI33" s="49"/>
       <c r="AJ33" s="15"/>
-      <c r="AK33" s="66"/>
+      <c r="AK33" s="65"/>
       <c r="AL33" s="15"/>
-      <c r="AM33" s="66"/>
+      <c r="AM33" s="65"/>
       <c r="AN33" s="15"/>
       <c r="AO33" s="14"/>
       <c r="AP33" s="14"/>
@@ -48806,7 +48662,7 @@
       <c r="G34" s="44"/>
       <c r="H34" s="44"/>
       <c r="I34" s="13"/>
-      <c r="J34" s="65"/>
+      <c r="J34" s="66"/>
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
@@ -48827,15 +48683,15 @@
       <c r="AB34" s="12"/>
       <c r="AC34" s="12"/>
       <c r="AD34" s="12"/>
-      <c r="AE34" s="66"/>
-      <c r="AF34" s="66"/>
+      <c r="AE34" s="65"/>
+      <c r="AF34" s="65"/>
       <c r="AG34" s="49"/>
       <c r="AH34" s="15"/>
       <c r="AI34" s="49"/>
       <c r="AJ34" s="15"/>
-      <c r="AK34" s="66"/>
+      <c r="AK34" s="65"/>
       <c r="AL34" s="15"/>
-      <c r="AM34" s="66"/>
+      <c r="AM34" s="65"/>
       <c r="AN34" s="15"/>
       <c r="AO34" s="14"/>
       <c r="AP34" s="14"/>
@@ -48865,7 +48721,7 @@
       <c r="G35" s="44"/>
       <c r="H35" s="44"/>
       <c r="I35" s="13"/>
-      <c r="J35" s="65"/>
+      <c r="J35" s="66"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
@@ -48886,15 +48742,15 @@
       <c r="AB35" s="12"/>
       <c r="AC35" s="12"/>
       <c r="AD35" s="12"/>
-      <c r="AE35" s="66"/>
-      <c r="AF35" s="66"/>
+      <c r="AE35" s="65"/>
+      <c r="AF35" s="65"/>
       <c r="AG35" s="49"/>
       <c r="AH35" s="15"/>
       <c r="AI35" s="49"/>
       <c r="AJ35" s="15"/>
-      <c r="AK35" s="66"/>
+      <c r="AK35" s="65"/>
       <c r="AL35" s="15"/>
-      <c r="AM35" s="66"/>
+      <c r="AM35" s="65"/>
       <c r="AN35" s="15"/>
       <c r="AO35" s="14"/>
       <c r="AP35" s="14"/>
@@ -48924,7 +48780,7 @@
       <c r="G36" s="44"/>
       <c r="H36" s="44"/>
       <c r="I36" s="13"/>
-      <c r="J36" s="65"/>
+      <c r="J36" s="66"/>
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
@@ -48945,15 +48801,15 @@
       <c r="AB36" s="12"/>
       <c r="AC36" s="12"/>
       <c r="AD36" s="12"/>
-      <c r="AE36" s="66"/>
-      <c r="AF36" s="66"/>
+      <c r="AE36" s="65"/>
+      <c r="AF36" s="65"/>
       <c r="AG36" s="49"/>
       <c r="AH36" s="15"/>
       <c r="AI36" s="49"/>
       <c r="AJ36" s="15"/>
-      <c r="AK36" s="66"/>
+      <c r="AK36" s="65"/>
       <c r="AL36" s="15"/>
-      <c r="AM36" s="66"/>
+      <c r="AM36" s="65"/>
       <c r="AN36" s="15"/>
       <c r="AO36" s="14"/>
       <c r="AP36" s="14"/>
@@ -51380,14 +51236,14 @@
         <v>80</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E1" s="68" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -51395,14 +51251,14 @@
         <v>95</v>
       </c>
       <c r="B2" s="68" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E2" s="68" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -51410,67 +51266,67 @@
         <v>43</v>
       </c>
       <c r="B3" s="68" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E3" s="68" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="69" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>172</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="70" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B5" s="70" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E5" s="68" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="70" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E6" s="68" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="70" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
